--- a/Arquivos/consulta_atributo.xlsx
+++ b/Arquivos/consulta_atributo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{4B1A644E-5216-4FC3-ABCB-A033782FC07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A01C1F9F-E552-4FEE-A476-C4F7B8D2E949}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="8_{4B1A644E-5216-4FC3-ABCB-A033782FC07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6463E3B5-A9B1-48E6-B26F-DCD6ACD9C3C9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60A39AFF-0B96-40B1-935E-5517C6B3CDFE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="14">
   <si>
     <t>Sessoes</t>
   </si>
@@ -454,11 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55F2A6B-66E6-467A-A378-659FCC592520}">
-  <dimension ref="A1:H1517"/>
+  <dimension ref="A1:H1758"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1503" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1518" sqref="A1518"/>
+      <pane ySplit="1" topLeftCell="A1723" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1728" sqref="D1728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35794,7 +35794,7 @@
         <v>4</v>
       </c>
       <c r="G1472" t="str">
-        <f t="shared" ref="G1472:G1517" si="23">_xlfn.CONCAT(RIGHT(B1472,2),"/",MID(B1472,5,2),"/",LEFT(B1472,4))</f>
+        <f t="shared" ref="G1472:G1534" si="23">_xlfn.CONCAT(RIGHT(B1472,2),"/",MID(B1472,5,2),"/",LEFT(B1472,4))</f>
         <v>09/04/2024</v>
       </c>
     </row>
@@ -36876,6 +36876,5790 @@
       <c r="G1517" t="str">
         <f t="shared" si="23"/>
         <v>21/04/2024</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1518" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1518">
+        <v>20240422</v>
+      </c>
+      <c r="C1518">
+        <v>10</v>
+      </c>
+      <c r="D1518">
+        <v>10</v>
+      </c>
+      <c r="E1518">
+        <v>1</v>
+      </c>
+      <c r="F1518">
+        <v>8</v>
+      </c>
+      <c r="G1518" t="str">
+        <f t="shared" si="23"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1519" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1519">
+        <v>20240423</v>
+      </c>
+      <c r="C1519">
+        <v>9</v>
+      </c>
+      <c r="D1519">
+        <v>9</v>
+      </c>
+      <c r="E1519">
+        <v>1</v>
+      </c>
+      <c r="F1519">
+        <v>54</v>
+      </c>
+      <c r="G1519" t="str">
+        <f t="shared" si="23"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1520" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1520">
+        <v>20240424</v>
+      </c>
+      <c r="C1520">
+        <v>7</v>
+      </c>
+      <c r="D1520">
+        <v>5</v>
+      </c>
+      <c r="E1520">
+        <v>0</v>
+      </c>
+      <c r="F1520">
+        <v>21</v>
+      </c>
+      <c r="G1520" t="str">
+        <f t="shared" si="23"/>
+        <v>24/04/2024</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1521" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1521">
+        <v>20240425</v>
+      </c>
+      <c r="C1521">
+        <v>10</v>
+      </c>
+      <c r="D1521">
+        <v>10</v>
+      </c>
+      <c r="E1521">
+        <v>0</v>
+      </c>
+      <c r="F1521">
+        <v>17</v>
+      </c>
+      <c r="G1521" t="str">
+        <f t="shared" si="23"/>
+        <v>25/04/2024</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1522" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1522">
+        <v>20240426</v>
+      </c>
+      <c r="C1522">
+        <v>4</v>
+      </c>
+      <c r="D1522">
+        <v>4</v>
+      </c>
+      <c r="E1522">
+        <v>0</v>
+      </c>
+      <c r="F1522">
+        <v>11</v>
+      </c>
+      <c r="G1522" t="str">
+        <f t="shared" si="23"/>
+        <v>26/04/2024</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1523" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1523">
+        <v>20240427</v>
+      </c>
+      <c r="C1523">
+        <v>4</v>
+      </c>
+      <c r="D1523">
+        <v>4</v>
+      </c>
+      <c r="E1523">
+        <v>0</v>
+      </c>
+      <c r="F1523">
+        <v>52</v>
+      </c>
+      <c r="G1523" t="str">
+        <f t="shared" si="23"/>
+        <v>27/04/2024</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1524" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1524">
+        <v>20240428</v>
+      </c>
+      <c r="C1524">
+        <v>8</v>
+      </c>
+      <c r="D1524">
+        <v>8</v>
+      </c>
+      <c r="E1524">
+        <v>0</v>
+      </c>
+      <c r="F1524">
+        <v>6</v>
+      </c>
+      <c r="G1524" t="str">
+        <f t="shared" si="23"/>
+        <v>28/04/2024</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1525" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1525">
+        <v>20240422</v>
+      </c>
+      <c r="C1525">
+        <v>4</v>
+      </c>
+      <c r="D1525">
+        <v>4</v>
+      </c>
+      <c r="E1525">
+        <v>0</v>
+      </c>
+      <c r="F1525">
+        <v>13</v>
+      </c>
+      <c r="G1525" t="str">
+        <f t="shared" si="23"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1526" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1526">
+        <v>20240423</v>
+      </c>
+      <c r="C1526">
+        <v>9</v>
+      </c>
+      <c r="D1526">
+        <v>8</v>
+      </c>
+      <c r="E1526">
+        <v>1</v>
+      </c>
+      <c r="F1526">
+        <v>17</v>
+      </c>
+      <c r="G1526" t="str">
+        <f t="shared" si="23"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1527" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1527">
+        <v>20240424</v>
+      </c>
+      <c r="C1527">
+        <v>4</v>
+      </c>
+      <c r="D1527">
+        <v>4</v>
+      </c>
+      <c r="E1527">
+        <v>0</v>
+      </c>
+      <c r="F1527">
+        <v>53</v>
+      </c>
+      <c r="G1527" t="str">
+        <f t="shared" si="23"/>
+        <v>24/04/2024</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1528" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1528">
+        <v>20240425</v>
+      </c>
+      <c r="C1528">
+        <v>6</v>
+      </c>
+      <c r="D1528">
+        <v>6</v>
+      </c>
+      <c r="E1528">
+        <v>0</v>
+      </c>
+      <c r="F1528">
+        <v>7</v>
+      </c>
+      <c r="G1528" t="str">
+        <f t="shared" si="23"/>
+        <v>25/04/2024</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1529" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1529">
+        <v>20240426</v>
+      </c>
+      <c r="C1529">
+        <v>10</v>
+      </c>
+      <c r="D1529">
+        <v>8</v>
+      </c>
+      <c r="E1529">
+        <v>0</v>
+      </c>
+      <c r="F1529">
+        <v>19</v>
+      </c>
+      <c r="G1529" t="str">
+        <f t="shared" si="23"/>
+        <v>26/04/2024</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1530" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1530">
+        <v>20240427</v>
+      </c>
+      <c r="C1530">
+        <v>4</v>
+      </c>
+      <c r="D1530">
+        <v>4</v>
+      </c>
+      <c r="E1530">
+        <v>0</v>
+      </c>
+      <c r="F1530">
+        <v>30</v>
+      </c>
+      <c r="G1530" t="str">
+        <f t="shared" si="23"/>
+        <v>27/04/2024</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1531" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1531">
+        <v>20240428</v>
+      </c>
+      <c r="C1531">
+        <v>7</v>
+      </c>
+      <c r="D1531">
+        <v>6</v>
+      </c>
+      <c r="E1531">
+        <v>0</v>
+      </c>
+      <c r="F1531">
+        <v>19</v>
+      </c>
+      <c r="G1531" t="str">
+        <f t="shared" si="23"/>
+        <v>28/04/2024</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1532" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1532">
+        <v>20240422</v>
+      </c>
+      <c r="C1532">
+        <v>1</v>
+      </c>
+      <c r="D1532">
+        <v>1</v>
+      </c>
+      <c r="E1532">
+        <v>0</v>
+      </c>
+      <c r="F1532">
+        <v>20</v>
+      </c>
+      <c r="G1532" t="str">
+        <f t="shared" si="23"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1533" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1533">
+        <v>20240423</v>
+      </c>
+      <c r="C1533">
+        <v>5</v>
+      </c>
+      <c r="D1533">
+        <v>5</v>
+      </c>
+      <c r="E1533">
+        <v>0</v>
+      </c>
+      <c r="F1533">
+        <v>25</v>
+      </c>
+      <c r="G1533" t="str">
+        <f t="shared" si="23"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1534" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1534">
+        <v>20240424</v>
+      </c>
+      <c r="C1534">
+        <v>2</v>
+      </c>
+      <c r="D1534">
+        <v>2</v>
+      </c>
+      <c r="E1534">
+        <v>0</v>
+      </c>
+      <c r="F1534">
+        <v>18</v>
+      </c>
+      <c r="G1534" t="str">
+        <f t="shared" si="23"/>
+        <v>24/04/2024</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1535" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1535">
+        <v>20240425</v>
+      </c>
+      <c r="C1535">
+        <v>5</v>
+      </c>
+      <c r="D1535">
+        <v>5</v>
+      </c>
+      <c r="E1535">
+        <v>0</v>
+      </c>
+      <c r="F1535">
+        <v>39</v>
+      </c>
+      <c r="G1535" t="str">
+        <f t="shared" ref="G1535:G1597" si="24">_xlfn.CONCAT(RIGHT(B1535,2),"/",MID(B1535,5,2),"/",LEFT(B1535,4))</f>
+        <v>25/04/2024</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1536" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1536">
+        <v>20240426</v>
+      </c>
+      <c r="C1536">
+        <v>3</v>
+      </c>
+      <c r="D1536">
+        <v>3</v>
+      </c>
+      <c r="E1536">
+        <v>0</v>
+      </c>
+      <c r="F1536">
+        <v>7</v>
+      </c>
+      <c r="G1536" t="str">
+        <f t="shared" si="24"/>
+        <v>26/04/2024</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1537" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1537">
+        <v>20240427</v>
+      </c>
+      <c r="C1537">
+        <v>4</v>
+      </c>
+      <c r="D1537">
+        <v>4</v>
+      </c>
+      <c r="E1537">
+        <v>0</v>
+      </c>
+      <c r="F1537">
+        <v>45</v>
+      </c>
+      <c r="G1537" t="str">
+        <f t="shared" si="24"/>
+        <v>27/04/2024</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1538" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1538">
+        <v>20240428</v>
+      </c>
+      <c r="C1538">
+        <v>24</v>
+      </c>
+      <c r="D1538">
+        <v>24</v>
+      </c>
+      <c r="E1538">
+        <v>0</v>
+      </c>
+      <c r="F1538">
+        <v>26</v>
+      </c>
+      <c r="G1538" t="str">
+        <f t="shared" si="24"/>
+        <v>28/04/2024</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1539" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1539">
+        <v>20240422</v>
+      </c>
+      <c r="C1539">
+        <v>29</v>
+      </c>
+      <c r="D1539">
+        <v>23</v>
+      </c>
+      <c r="E1539">
+        <v>1</v>
+      </c>
+      <c r="F1539">
+        <v>20</v>
+      </c>
+      <c r="G1539" t="str">
+        <f t="shared" si="24"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1540" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1540">
+        <v>20240423</v>
+      </c>
+      <c r="C1540">
+        <v>24</v>
+      </c>
+      <c r="D1540">
+        <v>17</v>
+      </c>
+      <c r="E1540">
+        <v>1</v>
+      </c>
+      <c r="F1540">
+        <v>19</v>
+      </c>
+      <c r="G1540" t="str">
+        <f t="shared" si="24"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1541" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1541">
+        <v>20240424</v>
+      </c>
+      <c r="C1541">
+        <v>27</v>
+      </c>
+      <c r="D1541">
+        <v>20</v>
+      </c>
+      <c r="E1541">
+        <v>0</v>
+      </c>
+      <c r="F1541">
+        <v>72</v>
+      </c>
+      <c r="G1541" t="str">
+        <f t="shared" si="24"/>
+        <v>24/04/2024</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1542" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1542">
+        <v>20240425</v>
+      </c>
+      <c r="C1542">
+        <v>23</v>
+      </c>
+      <c r="D1542">
+        <v>18</v>
+      </c>
+      <c r="E1542">
+        <v>1</v>
+      </c>
+      <c r="F1542">
+        <v>23</v>
+      </c>
+      <c r="G1542" t="str">
+        <f t="shared" si="24"/>
+        <v>25/04/2024</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1543" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1543">
+        <v>20240426</v>
+      </c>
+      <c r="C1543">
+        <v>19</v>
+      </c>
+      <c r="D1543">
+        <v>14</v>
+      </c>
+      <c r="E1543">
+        <v>1</v>
+      </c>
+      <c r="F1543">
+        <v>37</v>
+      </c>
+      <c r="G1543" t="str">
+        <f t="shared" si="24"/>
+        <v>26/04/2024</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1544" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1544">
+        <v>20240427</v>
+      </c>
+      <c r="C1544">
+        <v>21</v>
+      </c>
+      <c r="D1544">
+        <v>15</v>
+      </c>
+      <c r="E1544">
+        <v>1</v>
+      </c>
+      <c r="F1544">
+        <v>75</v>
+      </c>
+      <c r="G1544" t="str">
+        <f t="shared" si="24"/>
+        <v>27/04/2024</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1545" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1545">
+        <v>20240428</v>
+      </c>
+      <c r="C1545">
+        <v>17</v>
+      </c>
+      <c r="D1545">
+        <v>17</v>
+      </c>
+      <c r="E1545">
+        <v>4</v>
+      </c>
+      <c r="F1545">
+        <v>20</v>
+      </c>
+      <c r="G1545" t="str">
+        <f t="shared" si="24"/>
+        <v>28/04/2024</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1546" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1546">
+        <v>20240422</v>
+      </c>
+      <c r="C1546">
+        <v>1</v>
+      </c>
+      <c r="D1546">
+        <v>1</v>
+      </c>
+      <c r="E1546">
+        <v>0</v>
+      </c>
+      <c r="F1546">
+        <v>11</v>
+      </c>
+      <c r="G1546" t="str">
+        <f t="shared" si="24"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1547" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1547">
+        <v>20240423</v>
+      </c>
+      <c r="C1547">
+        <v>3</v>
+      </c>
+      <c r="D1547">
+        <v>3</v>
+      </c>
+      <c r="E1547">
+        <v>0</v>
+      </c>
+      <c r="F1547">
+        <v>118</v>
+      </c>
+      <c r="G1547" t="str">
+        <f t="shared" si="24"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1548" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1548">
+        <v>20240424</v>
+      </c>
+      <c r="C1548">
+        <v>3</v>
+      </c>
+      <c r="D1548">
+        <v>2</v>
+      </c>
+      <c r="E1548">
+        <v>0</v>
+      </c>
+      <c r="F1548">
+        <v>284</v>
+      </c>
+      <c r="G1548" t="str">
+        <f t="shared" si="24"/>
+        <v>24/04/2024</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1549" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1549">
+        <v>20240425</v>
+      </c>
+      <c r="C1549">
+        <v>2</v>
+      </c>
+      <c r="D1549">
+        <v>2</v>
+      </c>
+      <c r="E1549">
+        <v>0</v>
+      </c>
+      <c r="F1549">
+        <v>4</v>
+      </c>
+      <c r="G1549" t="str">
+        <f t="shared" si="24"/>
+        <v>25/04/2024</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1550" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1550">
+        <v>20240426</v>
+      </c>
+      <c r="C1550">
+        <v>2</v>
+      </c>
+      <c r="D1550">
+        <v>1</v>
+      </c>
+      <c r="E1550">
+        <v>0</v>
+      </c>
+      <c r="F1550">
+        <v>139</v>
+      </c>
+      <c r="G1550" t="str">
+        <f t="shared" si="24"/>
+        <v>26/04/2024</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1551" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1551">
+        <v>20240427</v>
+      </c>
+      <c r="C1551">
+        <v>2</v>
+      </c>
+      <c r="D1551">
+        <v>2</v>
+      </c>
+      <c r="E1551">
+        <v>0</v>
+      </c>
+      <c r="F1551">
+        <v>23</v>
+      </c>
+      <c r="G1551" t="str">
+        <f t="shared" si="24"/>
+        <v>27/04/2024</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1552" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1552">
+        <v>20240428</v>
+      </c>
+      <c r="C1552">
+        <v>5</v>
+      </c>
+      <c r="D1552">
+        <v>5</v>
+      </c>
+      <c r="E1552">
+        <v>0</v>
+      </c>
+      <c r="F1552">
+        <v>11</v>
+      </c>
+      <c r="G1552" t="str">
+        <f t="shared" si="24"/>
+        <v>28/04/2024</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1553" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1553">
+        <v>20240422</v>
+      </c>
+      <c r="C1553">
+        <v>11</v>
+      </c>
+      <c r="D1553">
+        <v>10</v>
+      </c>
+      <c r="E1553">
+        <v>0</v>
+      </c>
+      <c r="F1553">
+        <v>19</v>
+      </c>
+      <c r="G1553" t="str">
+        <f t="shared" si="24"/>
+        <v>22/04/2024</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1554" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1554">
+        <v>20240423</v>
+      </c>
+      <c r="C1554">
+        <v>13</v>
+      </c>
+      <c r="D1554">
+        <v>10</v>
+      </c>
+      <c r="E1554">
+        <v>1</v>
+      </c>
+      <c r="F1554">
+        <v>17</v>
+      </c>
+      <c r="G1554" t="str">
+        <f t="shared" si="24"/>
+        <v>23/04/2024</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1555" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1555">
+        <v>20240424</v>
+      </c>
+      <c r="C1555">
+        <v>7</v>
+      </c>
+      <c r="D1555">
+        <v>7</v>
+      </c>
+      <c r="E1555">
+        <v>0</v>
+      </c>
+      <c r="F1555">
+        <v>32</v>
+      </c>
+      <c r="G1555" t="str">
+        <f t="shared" si="24"/>
+        <v>24/04/2024</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1556" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1556">
+        <v>20240425</v>
+      </c>
+      <c r="C1556">
+        <v>23</v>
+      </c>
+      <c r="D1556">
+        <v>20</v>
+      </c>
+      <c r="E1556">
+        <v>0</v>
+      </c>
+      <c r="F1556">
+        <v>34</v>
+      </c>
+      <c r="G1556" t="str">
+        <f t="shared" si="24"/>
+        <v>25/04/2024</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1557" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1557">
+        <v>20240426</v>
+      </c>
+      <c r="C1557">
+        <v>15</v>
+      </c>
+      <c r="D1557">
+        <v>14</v>
+      </c>
+      <c r="E1557">
+        <v>0</v>
+      </c>
+      <c r="F1557">
+        <v>54</v>
+      </c>
+      <c r="G1557" t="str">
+        <f t="shared" si="24"/>
+        <v>26/04/2024</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1558" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1558">
+        <v>20240427</v>
+      </c>
+      <c r="C1558">
+        <v>11</v>
+      </c>
+      <c r="D1558">
+        <v>10</v>
+      </c>
+      <c r="E1558">
+        <v>0</v>
+      </c>
+      <c r="F1558">
+        <v>21</v>
+      </c>
+      <c r="G1558" t="str">
+        <f t="shared" si="24"/>
+        <v>27/04/2024</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1559" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1559">
+        <v>20240428</v>
+      </c>
+      <c r="C1559">
+        <v>16</v>
+      </c>
+      <c r="D1559">
+        <v>15</v>
+      </c>
+      <c r="E1559">
+        <v>0</v>
+      </c>
+      <c r="F1559">
+        <v>19</v>
+      </c>
+      <c r="G1559" t="str">
+        <f t="shared" si="24"/>
+        <v>28/04/2024</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1560" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1560">
+        <v>20240430</v>
+      </c>
+      <c r="C1560">
+        <v>15</v>
+      </c>
+      <c r="D1560">
+        <v>14</v>
+      </c>
+      <c r="E1560">
+        <v>0</v>
+      </c>
+      <c r="F1560" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1560" t="str">
+        <f t="shared" si="24"/>
+        <v>30/04/2024</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1561" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1561">
+        <v>20240504</v>
+      </c>
+      <c r="C1561">
+        <v>15</v>
+      </c>
+      <c r="D1561">
+        <v>11</v>
+      </c>
+      <c r="E1561">
+        <v>0</v>
+      </c>
+      <c r="F1561">
+        <v>72</v>
+      </c>
+      <c r="G1561" t="str">
+        <f t="shared" si="24"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1562" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1562">
+        <v>20240429</v>
+      </c>
+      <c r="C1562">
+        <v>4</v>
+      </c>
+      <c r="D1562">
+        <v>4</v>
+      </c>
+      <c r="E1562">
+        <v>0</v>
+      </c>
+      <c r="F1562">
+        <v>68</v>
+      </c>
+      <c r="G1562" t="str">
+        <f t="shared" si="24"/>
+        <v>29/04/2024</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1563" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1563">
+        <v>20240429</v>
+      </c>
+      <c r="C1563">
+        <v>17</v>
+      </c>
+      <c r="D1563">
+        <v>12</v>
+      </c>
+      <c r="E1563">
+        <v>0</v>
+      </c>
+      <c r="F1563" s="1">
+        <v>56</v>
+      </c>
+      <c r="G1563" t="str">
+        <f t="shared" si="24"/>
+        <v>29/04/2024</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1564" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1564">
+        <v>20240505</v>
+      </c>
+      <c r="C1564">
+        <v>11</v>
+      </c>
+      <c r="D1564">
+        <v>11</v>
+      </c>
+      <c r="E1564">
+        <v>2</v>
+      </c>
+      <c r="F1564" s="1">
+        <v>39</v>
+      </c>
+      <c r="G1564" t="str">
+        <f t="shared" si="24"/>
+        <v>05/05/2024</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1565" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1565">
+        <v>20240505</v>
+      </c>
+      <c r="C1565">
+        <v>7</v>
+      </c>
+      <c r="D1565">
+        <v>7</v>
+      </c>
+      <c r="E1565">
+        <v>0</v>
+      </c>
+      <c r="F1565" s="1">
+        <v>38</v>
+      </c>
+      <c r="G1565" t="str">
+        <f t="shared" si="24"/>
+        <v>05/05/2024</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1566" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1566">
+        <v>20240505</v>
+      </c>
+      <c r="C1566">
+        <v>2</v>
+      </c>
+      <c r="D1566">
+        <v>2</v>
+      </c>
+      <c r="E1566">
+        <v>0</v>
+      </c>
+      <c r="F1566">
+        <v>38</v>
+      </c>
+      <c r="G1566" t="str">
+        <f t="shared" si="24"/>
+        <v>05/05/2024</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1567" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1567">
+        <v>20240501</v>
+      </c>
+      <c r="C1567">
+        <v>5</v>
+      </c>
+      <c r="D1567">
+        <v>4</v>
+      </c>
+      <c r="E1567">
+        <v>0</v>
+      </c>
+      <c r="F1567">
+        <v>38</v>
+      </c>
+      <c r="G1567" t="str">
+        <f t="shared" si="24"/>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1568" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1568">
+        <v>20240501</v>
+      </c>
+      <c r="C1568">
+        <v>11</v>
+      </c>
+      <c r="D1568">
+        <v>11</v>
+      </c>
+      <c r="E1568">
+        <v>0</v>
+      </c>
+      <c r="F1568" s="1">
+        <v>34</v>
+      </c>
+      <c r="G1568" t="str">
+        <f t="shared" si="24"/>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1569" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1569">
+        <v>20240429</v>
+      </c>
+      <c r="C1569">
+        <v>20</v>
+      </c>
+      <c r="D1569">
+        <v>14</v>
+      </c>
+      <c r="E1569">
+        <v>0</v>
+      </c>
+      <c r="F1569">
+        <v>30</v>
+      </c>
+      <c r="G1569" t="str">
+        <f t="shared" si="24"/>
+        <v>29/04/2024</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1570" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1570">
+        <v>20240502</v>
+      </c>
+      <c r="C1570">
+        <v>19</v>
+      </c>
+      <c r="D1570">
+        <v>16</v>
+      </c>
+      <c r="E1570">
+        <v>0</v>
+      </c>
+      <c r="F1570" s="1">
+        <v>28</v>
+      </c>
+      <c r="G1570" t="str">
+        <f t="shared" si="24"/>
+        <v>02/05/2024</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1571" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1571">
+        <v>20240502</v>
+      </c>
+      <c r="C1571">
+        <v>7</v>
+      </c>
+      <c r="D1571">
+        <v>6</v>
+      </c>
+      <c r="E1571">
+        <v>0</v>
+      </c>
+      <c r="F1571">
+        <v>28</v>
+      </c>
+      <c r="G1571" t="str">
+        <f t="shared" si="24"/>
+        <v>02/05/2024</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1572" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1572">
+        <v>20240504</v>
+      </c>
+      <c r="C1572">
+        <v>34</v>
+      </c>
+      <c r="D1572">
+        <v>30</v>
+      </c>
+      <c r="E1572">
+        <v>0</v>
+      </c>
+      <c r="F1572" s="1">
+        <v>27</v>
+      </c>
+      <c r="G1572" t="str">
+        <f t="shared" si="24"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1573" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1573">
+        <v>20240501</v>
+      </c>
+      <c r="C1573">
+        <v>17</v>
+      </c>
+      <c r="D1573">
+        <v>15</v>
+      </c>
+      <c r="E1573">
+        <v>0</v>
+      </c>
+      <c r="F1573" s="1">
+        <v>27</v>
+      </c>
+      <c r="G1573" t="str">
+        <f t="shared" si="24"/>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1574" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1574">
+        <v>20240430</v>
+      </c>
+      <c r="C1574">
+        <v>15</v>
+      </c>
+      <c r="D1574">
+        <v>14</v>
+      </c>
+      <c r="E1574">
+        <v>1</v>
+      </c>
+      <c r="F1574" s="1">
+        <v>26</v>
+      </c>
+      <c r="G1574" t="str">
+        <f t="shared" si="24"/>
+        <v>30/04/2024</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1575" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1575">
+        <v>20240501</v>
+      </c>
+      <c r="C1575">
+        <v>28</v>
+      </c>
+      <c r="D1575">
+        <v>23</v>
+      </c>
+      <c r="E1575">
+        <v>1</v>
+      </c>
+      <c r="F1575" s="1">
+        <v>24</v>
+      </c>
+      <c r="G1575" t="str">
+        <f t="shared" si="24"/>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1576" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1576">
+        <v>20240504</v>
+      </c>
+      <c r="C1576">
+        <v>29</v>
+      </c>
+      <c r="D1576">
+        <v>27</v>
+      </c>
+      <c r="E1576">
+        <v>2</v>
+      </c>
+      <c r="F1576" s="1">
+        <v>24</v>
+      </c>
+      <c r="G1576" t="str">
+        <f t="shared" si="24"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1577" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1577">
+        <v>20240503</v>
+      </c>
+      <c r="C1577">
+        <v>22</v>
+      </c>
+      <c r="D1577">
+        <v>17</v>
+      </c>
+      <c r="E1577">
+        <v>0</v>
+      </c>
+      <c r="F1577" s="1">
+        <v>20</v>
+      </c>
+      <c r="G1577" t="str">
+        <f t="shared" si="24"/>
+        <v>03/05/2024</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1578" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1578">
+        <v>20240429</v>
+      </c>
+      <c r="C1578">
+        <v>3</v>
+      </c>
+      <c r="D1578">
+        <v>3</v>
+      </c>
+      <c r="E1578">
+        <v>1</v>
+      </c>
+      <c r="F1578" s="1">
+        <v>20</v>
+      </c>
+      <c r="G1578" t="str">
+        <f t="shared" si="24"/>
+        <v>29/04/2024</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1579" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1579">
+        <v>20240503</v>
+      </c>
+      <c r="C1579">
+        <v>19</v>
+      </c>
+      <c r="D1579">
+        <v>17</v>
+      </c>
+      <c r="E1579">
+        <v>0</v>
+      </c>
+      <c r="F1579" s="1">
+        <v>18</v>
+      </c>
+      <c r="G1579" t="str">
+        <f t="shared" si="24"/>
+        <v>03/05/2024</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1580" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1580">
+        <v>20240502</v>
+      </c>
+      <c r="C1580">
+        <v>14</v>
+      </c>
+      <c r="D1580">
+        <v>13</v>
+      </c>
+      <c r="E1580">
+        <v>0</v>
+      </c>
+      <c r="F1580" s="1">
+        <v>16</v>
+      </c>
+      <c r="G1580" t="str">
+        <f t="shared" si="24"/>
+        <v>02/05/2024</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1581" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1581">
+        <v>20240503</v>
+      </c>
+      <c r="C1581">
+        <v>11</v>
+      </c>
+      <c r="D1581">
+        <v>9</v>
+      </c>
+      <c r="E1581">
+        <v>0</v>
+      </c>
+      <c r="F1581" s="1">
+        <v>16</v>
+      </c>
+      <c r="G1581" t="str">
+        <f t="shared" si="24"/>
+        <v>03/05/2024</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1582" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1582">
+        <v>20240503</v>
+      </c>
+      <c r="C1582">
+        <v>6</v>
+      </c>
+      <c r="D1582">
+        <v>6</v>
+      </c>
+      <c r="E1582">
+        <v>0</v>
+      </c>
+      <c r="F1582">
+        <v>16</v>
+      </c>
+      <c r="G1582" t="str">
+        <f t="shared" si="24"/>
+        <v>03/05/2024</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1583" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1583">
+        <v>20240505</v>
+      </c>
+      <c r="C1583">
+        <v>4</v>
+      </c>
+      <c r="D1583">
+        <v>3</v>
+      </c>
+      <c r="E1583">
+        <v>0</v>
+      </c>
+      <c r="F1583">
+        <v>16</v>
+      </c>
+      <c r="G1583" t="str">
+        <f t="shared" si="24"/>
+        <v>05/05/2024</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1584" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1584">
+        <v>20240429</v>
+      </c>
+      <c r="C1584">
+        <v>7</v>
+      </c>
+      <c r="D1584">
+        <v>6</v>
+      </c>
+      <c r="E1584">
+        <v>0</v>
+      </c>
+      <c r="F1584" s="1">
+        <v>15</v>
+      </c>
+      <c r="G1584" t="str">
+        <f t="shared" si="24"/>
+        <v>29/04/2024</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1585" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1585">
+        <v>20240505</v>
+      </c>
+      <c r="C1585">
+        <v>3</v>
+      </c>
+      <c r="D1585">
+        <v>3</v>
+      </c>
+      <c r="E1585">
+        <v>0</v>
+      </c>
+      <c r="F1585">
+        <v>15</v>
+      </c>
+      <c r="G1585" t="str">
+        <f t="shared" si="24"/>
+        <v>05/05/2024</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1586" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1586">
+        <v>20240501</v>
+      </c>
+      <c r="C1586">
+        <v>5</v>
+      </c>
+      <c r="D1586">
+        <v>5</v>
+      </c>
+      <c r="E1586">
+        <v>0</v>
+      </c>
+      <c r="F1586">
+        <v>14</v>
+      </c>
+      <c r="G1586" t="str">
+        <f t="shared" si="24"/>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1587" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1587">
+        <v>20240501</v>
+      </c>
+      <c r="C1587">
+        <v>7</v>
+      </c>
+      <c r="D1587">
+        <v>7</v>
+      </c>
+      <c r="E1587">
+        <v>0</v>
+      </c>
+      <c r="F1587" s="1">
+        <v>11</v>
+      </c>
+      <c r="G1587" t="str">
+        <f t="shared" si="24"/>
+        <v>01/05/2024</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1588" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1588">
+        <v>20240504</v>
+      </c>
+      <c r="C1588">
+        <v>8</v>
+      </c>
+      <c r="D1588">
+        <v>8</v>
+      </c>
+      <c r="E1588">
+        <v>0</v>
+      </c>
+      <c r="F1588" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1588" t="str">
+        <f t="shared" si="24"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1589" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1589">
+        <v>20240430</v>
+      </c>
+      <c r="C1589">
+        <v>5</v>
+      </c>
+      <c r="D1589">
+        <v>5</v>
+      </c>
+      <c r="E1589">
+        <v>0</v>
+      </c>
+      <c r="F1589">
+        <v>10</v>
+      </c>
+      <c r="G1589" t="str">
+        <f t="shared" si="24"/>
+        <v>30/04/2024</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1590" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1590">
+        <v>20240505</v>
+      </c>
+      <c r="C1590">
+        <v>1</v>
+      </c>
+      <c r="D1590">
+        <v>1</v>
+      </c>
+      <c r="E1590">
+        <v>0</v>
+      </c>
+      <c r="F1590">
+        <v>10</v>
+      </c>
+      <c r="G1590" t="str">
+        <f t="shared" si="24"/>
+        <v>05/05/2024</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1591" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1591">
+        <v>20240430</v>
+      </c>
+      <c r="C1591">
+        <v>8</v>
+      </c>
+      <c r="D1591">
+        <v>8</v>
+      </c>
+      <c r="E1591">
+        <v>1</v>
+      </c>
+      <c r="F1591" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1591" t="str">
+        <f t="shared" si="24"/>
+        <v>30/04/2024</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1592" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1592">
+        <v>20240504</v>
+      </c>
+      <c r="C1592">
+        <v>8</v>
+      </c>
+      <c r="D1592">
+        <v>8</v>
+      </c>
+      <c r="E1592">
+        <v>0</v>
+      </c>
+      <c r="F1592">
+        <v>8</v>
+      </c>
+      <c r="G1592" t="str">
+        <f t="shared" si="24"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1593" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1593">
+        <v>20240430</v>
+      </c>
+      <c r="C1593">
+        <v>4</v>
+      </c>
+      <c r="D1593">
+        <v>4</v>
+      </c>
+      <c r="E1593">
+        <v>0</v>
+      </c>
+      <c r="F1593">
+        <v>8</v>
+      </c>
+      <c r="G1593" t="str">
+        <f t="shared" si="24"/>
+        <v>30/04/2024</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1594" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1594">
+        <v>20240503</v>
+      </c>
+      <c r="C1594">
+        <v>11</v>
+      </c>
+      <c r="D1594">
+        <v>10</v>
+      </c>
+      <c r="E1594">
+        <v>0</v>
+      </c>
+      <c r="F1594" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1594" t="str">
+        <f t="shared" si="24"/>
+        <v>03/05/2024</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1595" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1595">
+        <v>20240430</v>
+      </c>
+      <c r="C1595">
+        <v>7</v>
+      </c>
+      <c r="D1595">
+        <v>5</v>
+      </c>
+      <c r="E1595">
+        <v>0</v>
+      </c>
+      <c r="F1595" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1595" t="str">
+        <f t="shared" si="24"/>
+        <v>30/04/2024</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1596" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1596">
+        <v>20240502</v>
+      </c>
+      <c r="C1596">
+        <v>3</v>
+      </c>
+      <c r="D1596">
+        <v>3</v>
+      </c>
+      <c r="E1596">
+        <v>0</v>
+      </c>
+      <c r="F1596" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1596" t="str">
+        <f t="shared" si="24"/>
+        <v>02/05/2024</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1597" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1597">
+        <v>20240504</v>
+      </c>
+      <c r="C1597">
+        <v>6</v>
+      </c>
+      <c r="D1597">
+        <v>4</v>
+      </c>
+      <c r="E1597">
+        <v>0</v>
+      </c>
+      <c r="F1597">
+        <v>6</v>
+      </c>
+      <c r="G1597" t="str">
+        <f t="shared" si="24"/>
+        <v>04/05/2024</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1598" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1598">
+        <v>20240503</v>
+      </c>
+      <c r="C1598">
+        <v>3</v>
+      </c>
+      <c r="D1598">
+        <v>3</v>
+      </c>
+      <c r="E1598">
+        <v>0</v>
+      </c>
+      <c r="F1598" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1598" t="str">
+        <f t="shared" ref="G1598:G1660" si="25">_xlfn.CONCAT(RIGHT(B1598,2),"/",MID(B1598,5,2),"/",LEFT(B1598,4))</f>
+        <v>03/05/2024</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1599" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1599">
+        <v>20240429</v>
+      </c>
+      <c r="C1599">
+        <v>2</v>
+      </c>
+      <c r="D1599">
+        <v>2</v>
+      </c>
+      <c r="E1599">
+        <v>0</v>
+      </c>
+      <c r="F1599">
+        <v>5</v>
+      </c>
+      <c r="G1599" t="str">
+        <f t="shared" si="25"/>
+        <v>29/04/2024</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1600" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1600">
+        <v>20240502</v>
+      </c>
+      <c r="C1600">
+        <v>1</v>
+      </c>
+      <c r="D1600">
+        <v>1</v>
+      </c>
+      <c r="E1600">
+        <v>0</v>
+      </c>
+      <c r="F1600">
+        <v>4</v>
+      </c>
+      <c r="G1600" t="str">
+        <f t="shared" si="25"/>
+        <v>02/05/2024</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1601" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1601">
+        <v>20240502</v>
+      </c>
+      <c r="C1601">
+        <v>3</v>
+      </c>
+      <c r="D1601">
+        <v>3</v>
+      </c>
+      <c r="E1601">
+        <v>0</v>
+      </c>
+      <c r="F1601" s="1">
+        <v>2</v>
+      </c>
+      <c r="G1601" t="str">
+        <f t="shared" si="25"/>
+        <v>02/05/2024</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1602" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1602">
+        <v>20240506</v>
+      </c>
+      <c r="C1602">
+        <v>15</v>
+      </c>
+      <c r="D1602">
+        <v>11</v>
+      </c>
+      <c r="E1602">
+        <v>0</v>
+      </c>
+      <c r="F1602" s="1">
+        <v>92</v>
+      </c>
+      <c r="G1602" t="str">
+        <f t="shared" si="25"/>
+        <v>06/05/2024</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1603" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1603">
+        <v>20240512</v>
+      </c>
+      <c r="C1603">
+        <v>15</v>
+      </c>
+      <c r="D1603">
+        <v>12</v>
+      </c>
+      <c r="E1603">
+        <v>1</v>
+      </c>
+      <c r="F1603">
+        <v>82</v>
+      </c>
+      <c r="G1603" t="str">
+        <f t="shared" si="25"/>
+        <v>12/05/2024</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1604" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1604">
+        <v>20240509</v>
+      </c>
+      <c r="C1604">
+        <v>18</v>
+      </c>
+      <c r="D1604">
+        <v>12</v>
+      </c>
+      <c r="E1604">
+        <v>0</v>
+      </c>
+      <c r="F1604" s="1">
+        <v>71</v>
+      </c>
+      <c r="G1604" t="str">
+        <f t="shared" si="25"/>
+        <v>09/05/2024</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1605" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1605">
+        <v>20240511</v>
+      </c>
+      <c r="C1605">
+        <v>5</v>
+      </c>
+      <c r="D1605">
+        <v>3</v>
+      </c>
+      <c r="E1605">
+        <v>0</v>
+      </c>
+      <c r="F1605">
+        <v>71</v>
+      </c>
+      <c r="G1605" t="str">
+        <f t="shared" si="25"/>
+        <v>11/05/2024</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1606" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1606">
+        <v>20240512</v>
+      </c>
+      <c r="C1606">
+        <v>13</v>
+      </c>
+      <c r="D1606">
+        <v>13</v>
+      </c>
+      <c r="E1606">
+        <v>0</v>
+      </c>
+      <c r="F1606" s="1">
+        <v>67</v>
+      </c>
+      <c r="G1606" t="str">
+        <f t="shared" si="25"/>
+        <v>12/05/2024</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1607" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1607">
+        <v>20240506</v>
+      </c>
+      <c r="C1607">
+        <v>3</v>
+      </c>
+      <c r="D1607">
+        <v>3</v>
+      </c>
+      <c r="E1607">
+        <v>0</v>
+      </c>
+      <c r="F1607" s="1">
+        <v>46</v>
+      </c>
+      <c r="G1607" t="str">
+        <f t="shared" si="25"/>
+        <v>06/05/2024</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1608" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1608">
+        <v>20240512</v>
+      </c>
+      <c r="C1608">
+        <v>8</v>
+      </c>
+      <c r="D1608">
+        <v>8</v>
+      </c>
+      <c r="E1608">
+        <v>0</v>
+      </c>
+      <c r="F1608">
+        <v>40</v>
+      </c>
+      <c r="G1608" t="str">
+        <f t="shared" si="25"/>
+        <v>12/05/2024</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1609" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1609">
+        <v>20240510</v>
+      </c>
+      <c r="C1609">
+        <v>5</v>
+      </c>
+      <c r="D1609">
+        <v>5</v>
+      </c>
+      <c r="E1609">
+        <v>0</v>
+      </c>
+      <c r="F1609">
+        <v>39</v>
+      </c>
+      <c r="G1609" t="str">
+        <f t="shared" si="25"/>
+        <v>10/05/2024</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1610" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1610">
+        <v>20240507</v>
+      </c>
+      <c r="C1610">
+        <v>2</v>
+      </c>
+      <c r="D1610">
+        <v>2</v>
+      </c>
+      <c r="E1610">
+        <v>0</v>
+      </c>
+      <c r="F1610">
+        <v>36</v>
+      </c>
+      <c r="G1610" t="str">
+        <f t="shared" si="25"/>
+        <v>07/05/2024</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1611" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1611">
+        <v>20240510</v>
+      </c>
+      <c r="C1611">
+        <v>15</v>
+      </c>
+      <c r="D1611">
+        <v>14</v>
+      </c>
+      <c r="E1611">
+        <v>0</v>
+      </c>
+      <c r="F1611" s="1">
+        <v>33</v>
+      </c>
+      <c r="G1611" t="str">
+        <f t="shared" si="25"/>
+        <v>10/05/2024</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1612" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1612">
+        <v>20240509</v>
+      </c>
+      <c r="C1612">
+        <v>9</v>
+      </c>
+      <c r="D1612">
+        <v>7</v>
+      </c>
+      <c r="E1612">
+        <v>0</v>
+      </c>
+      <c r="F1612" s="1">
+        <v>29</v>
+      </c>
+      <c r="G1612" t="str">
+        <f t="shared" si="25"/>
+        <v>09/05/2024</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1613" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1613">
+        <v>20240507</v>
+      </c>
+      <c r="C1613">
+        <v>22</v>
+      </c>
+      <c r="D1613">
+        <v>20</v>
+      </c>
+      <c r="E1613">
+        <v>0</v>
+      </c>
+      <c r="F1613" s="1">
+        <v>27</v>
+      </c>
+      <c r="G1613" t="str">
+        <f t="shared" si="25"/>
+        <v>07/05/2024</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1614" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1614">
+        <v>20240506</v>
+      </c>
+      <c r="C1614">
+        <v>9</v>
+      </c>
+      <c r="D1614">
+        <v>6</v>
+      </c>
+      <c r="E1614">
+        <v>0</v>
+      </c>
+      <c r="F1614" s="1">
+        <v>27</v>
+      </c>
+      <c r="G1614" t="str">
+        <f t="shared" si="25"/>
+        <v>06/05/2024</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1615" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1615">
+        <v>20240510</v>
+      </c>
+      <c r="C1615">
+        <v>32</v>
+      </c>
+      <c r="D1615">
+        <v>22</v>
+      </c>
+      <c r="E1615">
+        <v>1</v>
+      </c>
+      <c r="F1615" s="1">
+        <v>27</v>
+      </c>
+      <c r="G1615" t="str">
+        <f t="shared" si="25"/>
+        <v>10/05/2024</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1616" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1616">
+        <v>20240507</v>
+      </c>
+      <c r="C1616">
+        <v>8</v>
+      </c>
+      <c r="D1616">
+        <v>6</v>
+      </c>
+      <c r="E1616">
+        <v>0</v>
+      </c>
+      <c r="F1616" s="1">
+        <v>26</v>
+      </c>
+      <c r="G1616" t="str">
+        <f t="shared" si="25"/>
+        <v>07/05/2024</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1617" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1617">
+        <v>20240508</v>
+      </c>
+      <c r="C1617">
+        <v>5</v>
+      </c>
+      <c r="D1617">
+        <v>4</v>
+      </c>
+      <c r="E1617">
+        <v>0</v>
+      </c>
+      <c r="F1617">
+        <v>25</v>
+      </c>
+      <c r="G1617" t="str">
+        <f t="shared" si="25"/>
+        <v>08/05/2024</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1618" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1618">
+        <v>20240511</v>
+      </c>
+      <c r="C1618">
+        <v>1</v>
+      </c>
+      <c r="D1618">
+        <v>1</v>
+      </c>
+      <c r="E1618">
+        <v>0</v>
+      </c>
+      <c r="F1618">
+        <v>25</v>
+      </c>
+      <c r="G1618" t="str">
+        <f t="shared" si="25"/>
+        <v>11/05/2024</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1619" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1619">
+        <v>20240506</v>
+      </c>
+      <c r="C1619">
+        <v>15</v>
+      </c>
+      <c r="D1619">
+        <v>14</v>
+      </c>
+      <c r="E1619">
+        <v>1</v>
+      </c>
+      <c r="F1619">
+        <v>25</v>
+      </c>
+      <c r="G1619" t="str">
+        <f t="shared" si="25"/>
+        <v>06/05/2024</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1620" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1620">
+        <v>20240507</v>
+      </c>
+      <c r="C1620">
+        <v>3</v>
+      </c>
+      <c r="D1620">
+        <v>3</v>
+      </c>
+      <c r="E1620">
+        <v>1</v>
+      </c>
+      <c r="F1620" s="1">
+        <v>23</v>
+      </c>
+      <c r="G1620" t="str">
+        <f t="shared" si="25"/>
+        <v>07/05/2024</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1621" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1621">
+        <v>20240509</v>
+      </c>
+      <c r="C1621">
+        <v>28</v>
+      </c>
+      <c r="D1621">
+        <v>18</v>
+      </c>
+      <c r="E1621">
+        <v>2</v>
+      </c>
+      <c r="F1621" s="1">
+        <v>21</v>
+      </c>
+      <c r="G1621" t="str">
+        <f t="shared" si="25"/>
+        <v>09/05/2024</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1622" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1622">
+        <v>20240511</v>
+      </c>
+      <c r="C1622">
+        <v>32</v>
+      </c>
+      <c r="D1622">
+        <v>22</v>
+      </c>
+      <c r="E1622">
+        <v>0</v>
+      </c>
+      <c r="F1622" s="1">
+        <v>20</v>
+      </c>
+      <c r="G1622" t="str">
+        <f t="shared" si="25"/>
+        <v>11/05/2024</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1623" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1623">
+        <v>20240510</v>
+      </c>
+      <c r="C1623">
+        <v>17</v>
+      </c>
+      <c r="D1623">
+        <v>15</v>
+      </c>
+      <c r="E1623">
+        <v>0</v>
+      </c>
+      <c r="F1623" s="1">
+        <v>18</v>
+      </c>
+      <c r="G1623" t="str">
+        <f t="shared" si="25"/>
+        <v>10/05/2024</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1624" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1624">
+        <v>20240509</v>
+      </c>
+      <c r="C1624">
+        <v>9</v>
+      </c>
+      <c r="D1624">
+        <v>8</v>
+      </c>
+      <c r="E1624">
+        <v>0</v>
+      </c>
+      <c r="F1624" s="1">
+        <v>17</v>
+      </c>
+      <c r="G1624" t="str">
+        <f t="shared" si="25"/>
+        <v>09/05/2024</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1625" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1625">
+        <v>20240508</v>
+      </c>
+      <c r="C1625">
+        <v>8</v>
+      </c>
+      <c r="D1625">
+        <v>7</v>
+      </c>
+      <c r="E1625">
+        <v>0</v>
+      </c>
+      <c r="F1625">
+        <v>16</v>
+      </c>
+      <c r="G1625" t="str">
+        <f t="shared" si="25"/>
+        <v>08/05/2024</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1626" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1626">
+        <v>20240510</v>
+      </c>
+      <c r="C1626">
+        <v>6</v>
+      </c>
+      <c r="D1626">
+        <v>6</v>
+      </c>
+      <c r="E1626">
+        <v>0</v>
+      </c>
+      <c r="F1626" s="1">
+        <v>16</v>
+      </c>
+      <c r="G1626" t="str">
+        <f t="shared" si="25"/>
+        <v>10/05/2024</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1627" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1627">
+        <v>20240508</v>
+      </c>
+      <c r="C1627">
+        <v>16</v>
+      </c>
+      <c r="D1627">
+        <v>11</v>
+      </c>
+      <c r="E1627">
+        <v>1</v>
+      </c>
+      <c r="F1627" s="1">
+        <v>15</v>
+      </c>
+      <c r="G1627" t="str">
+        <f t="shared" si="25"/>
+        <v>08/05/2024</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1628" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1628">
+        <v>20240511</v>
+      </c>
+      <c r="C1628">
+        <v>7</v>
+      </c>
+      <c r="D1628">
+        <v>6</v>
+      </c>
+      <c r="E1628">
+        <v>0</v>
+      </c>
+      <c r="F1628" s="1">
+        <v>15</v>
+      </c>
+      <c r="G1628" t="str">
+        <f t="shared" si="25"/>
+        <v>11/05/2024</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1629" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1629">
+        <v>20240508</v>
+      </c>
+      <c r="C1629">
+        <v>1</v>
+      </c>
+      <c r="D1629">
+        <v>1</v>
+      </c>
+      <c r="E1629">
+        <v>0</v>
+      </c>
+      <c r="F1629">
+        <v>12</v>
+      </c>
+      <c r="G1629" t="str">
+        <f t="shared" si="25"/>
+        <v>08/05/2024</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1630" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1630">
+        <v>20240512</v>
+      </c>
+      <c r="C1630">
+        <v>5</v>
+      </c>
+      <c r="D1630">
+        <v>5</v>
+      </c>
+      <c r="E1630">
+        <v>0</v>
+      </c>
+      <c r="F1630">
+        <v>11</v>
+      </c>
+      <c r="G1630" t="str">
+        <f t="shared" si="25"/>
+        <v>12/05/2024</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1631" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1631">
+        <v>20240506</v>
+      </c>
+      <c r="C1631">
+        <v>1</v>
+      </c>
+      <c r="D1631">
+        <v>1</v>
+      </c>
+      <c r="E1631">
+        <v>0</v>
+      </c>
+      <c r="F1631">
+        <v>10</v>
+      </c>
+      <c r="G1631" t="str">
+        <f t="shared" si="25"/>
+        <v>06/05/2024</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1632" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1632">
+        <v>20240510</v>
+      </c>
+      <c r="C1632">
+        <v>4</v>
+      </c>
+      <c r="D1632">
+        <v>3</v>
+      </c>
+      <c r="E1632">
+        <v>0</v>
+      </c>
+      <c r="F1632">
+        <v>9</v>
+      </c>
+      <c r="G1632" t="str">
+        <f t="shared" si="25"/>
+        <v>10/05/2024</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1633" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1633">
+        <v>20240509</v>
+      </c>
+      <c r="C1633">
+        <v>5</v>
+      </c>
+      <c r="D1633">
+        <v>4</v>
+      </c>
+      <c r="E1633">
+        <v>0</v>
+      </c>
+      <c r="F1633">
+        <v>9</v>
+      </c>
+      <c r="G1633" t="str">
+        <f t="shared" si="25"/>
+        <v>09/05/2024</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1634" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1634">
+        <v>20240512</v>
+      </c>
+      <c r="C1634">
+        <v>1</v>
+      </c>
+      <c r="D1634">
+        <v>1</v>
+      </c>
+      <c r="E1634">
+        <v>0</v>
+      </c>
+      <c r="F1634">
+        <v>9</v>
+      </c>
+      <c r="G1634" t="str">
+        <f t="shared" si="25"/>
+        <v>12/05/2024</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1635" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1635">
+        <v>20240511</v>
+      </c>
+      <c r="C1635">
+        <v>3</v>
+      </c>
+      <c r="D1635">
+        <v>3</v>
+      </c>
+      <c r="E1635">
+        <v>0</v>
+      </c>
+      <c r="F1635">
+        <v>6</v>
+      </c>
+      <c r="G1635" t="str">
+        <f t="shared" si="25"/>
+        <v>11/05/2024</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1636" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1636">
+        <v>20240508</v>
+      </c>
+      <c r="C1636">
+        <v>4</v>
+      </c>
+      <c r="D1636">
+        <v>4</v>
+      </c>
+      <c r="E1636">
+        <v>0</v>
+      </c>
+      <c r="F1636">
+        <v>5</v>
+      </c>
+      <c r="G1636" t="str">
+        <f t="shared" si="25"/>
+        <v>08/05/2024</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1637" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1637">
+        <v>20240508</v>
+      </c>
+      <c r="C1637">
+        <v>1</v>
+      </c>
+      <c r="D1637">
+        <v>1</v>
+      </c>
+      <c r="E1637">
+        <v>0</v>
+      </c>
+      <c r="F1637">
+        <v>5</v>
+      </c>
+      <c r="G1637" t="str">
+        <f t="shared" si="25"/>
+        <v>08/05/2024</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1638" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1638">
+        <v>20240512</v>
+      </c>
+      <c r="C1638">
+        <v>5</v>
+      </c>
+      <c r="D1638">
+        <v>5</v>
+      </c>
+      <c r="E1638">
+        <v>0</v>
+      </c>
+      <c r="F1638">
+        <v>4</v>
+      </c>
+      <c r="G1638" t="str">
+        <f t="shared" si="25"/>
+        <v>12/05/2024</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1639" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1639">
+        <v>20240507</v>
+      </c>
+      <c r="C1639">
+        <v>3</v>
+      </c>
+      <c r="D1639">
+        <v>3</v>
+      </c>
+      <c r="E1639">
+        <v>0</v>
+      </c>
+      <c r="F1639" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1639" t="str">
+        <f t="shared" si="25"/>
+        <v>07/05/2024</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1640" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1640">
+        <v>20240511</v>
+      </c>
+      <c r="C1640">
+        <v>4</v>
+      </c>
+      <c r="D1640">
+        <v>4</v>
+      </c>
+      <c r="E1640">
+        <v>0</v>
+      </c>
+      <c r="F1640">
+        <v>3</v>
+      </c>
+      <c r="G1640" t="str">
+        <f t="shared" si="25"/>
+        <v>11/05/2024</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1641" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1641">
+        <v>20240507</v>
+      </c>
+      <c r="C1641">
+        <v>5</v>
+      </c>
+      <c r="D1641">
+        <v>4</v>
+      </c>
+      <c r="E1641">
+        <v>0</v>
+      </c>
+      <c r="F1641">
+        <v>3</v>
+      </c>
+      <c r="G1641" t="str">
+        <f t="shared" si="25"/>
+        <v>07/05/2024</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1642" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1642">
+        <v>20240514</v>
+      </c>
+      <c r="C1642">
+        <v>23</v>
+      </c>
+      <c r="D1642">
+        <v>17</v>
+      </c>
+      <c r="E1642">
+        <v>0</v>
+      </c>
+      <c r="F1642" s="1">
+        <v>84</v>
+      </c>
+      <c r="G1642" t="str">
+        <f t="shared" si="25"/>
+        <v>14/05/2024</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1643" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1643">
+        <v>20240517</v>
+      </c>
+      <c r="C1643">
+        <v>3</v>
+      </c>
+      <c r="D1643">
+        <v>3</v>
+      </c>
+      <c r="E1643">
+        <v>0</v>
+      </c>
+      <c r="F1643">
+        <v>52</v>
+      </c>
+      <c r="G1643" t="str">
+        <f t="shared" si="25"/>
+        <v>17/05/2024</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1644" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1644">
+        <v>20240515</v>
+      </c>
+      <c r="C1644">
+        <v>11</v>
+      </c>
+      <c r="D1644">
+        <v>9</v>
+      </c>
+      <c r="E1644">
+        <v>0</v>
+      </c>
+      <c r="F1644" s="1">
+        <v>50</v>
+      </c>
+      <c r="G1644" t="str">
+        <f t="shared" si="25"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1645" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1645">
+        <v>20240515</v>
+      </c>
+      <c r="C1645">
+        <v>12</v>
+      </c>
+      <c r="D1645">
+        <v>10</v>
+      </c>
+      <c r="E1645">
+        <v>0</v>
+      </c>
+      <c r="F1645" s="1">
+        <v>49</v>
+      </c>
+      <c r="G1645" t="str">
+        <f t="shared" si="25"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1646" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1646">
+        <v>20240514</v>
+      </c>
+      <c r="C1646">
+        <v>8</v>
+      </c>
+      <c r="D1646">
+        <v>8</v>
+      </c>
+      <c r="E1646">
+        <v>0</v>
+      </c>
+      <c r="F1646">
+        <v>43</v>
+      </c>
+      <c r="G1646" t="str">
+        <f t="shared" si="25"/>
+        <v>14/05/2024</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1647" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1647">
+        <v>20240513</v>
+      </c>
+      <c r="C1647">
+        <v>15</v>
+      </c>
+      <c r="D1647">
+        <v>13</v>
+      </c>
+      <c r="E1647">
+        <v>0</v>
+      </c>
+      <c r="F1647" s="1">
+        <v>39</v>
+      </c>
+      <c r="G1647" t="str">
+        <f t="shared" si="25"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1648" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1648">
+        <v>20240518</v>
+      </c>
+      <c r="C1648">
+        <v>19</v>
+      </c>
+      <c r="D1648">
+        <v>18</v>
+      </c>
+      <c r="E1648">
+        <v>0</v>
+      </c>
+      <c r="F1648" s="1">
+        <v>37</v>
+      </c>
+      <c r="G1648" t="str">
+        <f t="shared" si="25"/>
+        <v>18/05/2024</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1649" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1649">
+        <v>20240516</v>
+      </c>
+      <c r="C1649">
+        <v>14</v>
+      </c>
+      <c r="D1649">
+        <v>12</v>
+      </c>
+      <c r="E1649">
+        <v>0</v>
+      </c>
+      <c r="F1649" s="1">
+        <v>33</v>
+      </c>
+      <c r="G1649" t="str">
+        <f t="shared" si="25"/>
+        <v>16/05/2024</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1650" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1650">
+        <v>20240514</v>
+      </c>
+      <c r="C1650">
+        <v>13</v>
+      </c>
+      <c r="D1650">
+        <v>13</v>
+      </c>
+      <c r="E1650">
+        <v>0</v>
+      </c>
+      <c r="F1650" s="1">
+        <v>28</v>
+      </c>
+      <c r="G1650" t="str">
+        <f t="shared" si="25"/>
+        <v>14/05/2024</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1651" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1651">
+        <v>20240517</v>
+      </c>
+      <c r="C1651">
+        <v>31</v>
+      </c>
+      <c r="D1651">
+        <v>25</v>
+      </c>
+      <c r="E1651">
+        <v>0</v>
+      </c>
+      <c r="F1651" s="1">
+        <v>27</v>
+      </c>
+      <c r="G1651" t="str">
+        <f t="shared" si="25"/>
+        <v>17/05/2024</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1652" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1652">
+        <v>20240516</v>
+      </c>
+      <c r="C1652">
+        <v>35</v>
+      </c>
+      <c r="D1652">
+        <v>22</v>
+      </c>
+      <c r="E1652">
+        <v>0</v>
+      </c>
+      <c r="F1652" s="1">
+        <v>26</v>
+      </c>
+      <c r="G1652" t="str">
+        <f t="shared" si="25"/>
+        <v>16/05/2024</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1653" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1653">
+        <v>20240519</v>
+      </c>
+      <c r="C1653">
+        <v>25</v>
+      </c>
+      <c r="D1653">
+        <v>20</v>
+      </c>
+      <c r="E1653">
+        <v>5</v>
+      </c>
+      <c r="F1653">
+        <v>26</v>
+      </c>
+      <c r="G1653" t="str">
+        <f t="shared" si="25"/>
+        <v>19/05/2024</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1654" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1654">
+        <v>20240518</v>
+      </c>
+      <c r="C1654">
+        <v>9</v>
+      </c>
+      <c r="D1654">
+        <v>8</v>
+      </c>
+      <c r="E1654">
+        <v>0</v>
+      </c>
+      <c r="F1654" s="1">
+        <v>25</v>
+      </c>
+      <c r="G1654" t="str">
+        <f t="shared" si="25"/>
+        <v>18/05/2024</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1655" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1655">
+        <v>20240515</v>
+      </c>
+      <c r="C1655">
+        <v>23</v>
+      </c>
+      <c r="D1655">
+        <v>18</v>
+      </c>
+      <c r="E1655">
+        <v>1</v>
+      </c>
+      <c r="F1655" s="1">
+        <v>22</v>
+      </c>
+      <c r="G1655" t="str">
+        <f t="shared" si="25"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1656" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1656">
+        <v>20240513</v>
+      </c>
+      <c r="C1656">
+        <v>9</v>
+      </c>
+      <c r="D1656">
+        <v>8</v>
+      </c>
+      <c r="E1656">
+        <v>0</v>
+      </c>
+      <c r="F1656" s="1">
+        <v>22</v>
+      </c>
+      <c r="G1656" t="str">
+        <f t="shared" si="25"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1657" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1657">
+        <v>20240519</v>
+      </c>
+      <c r="C1657">
+        <v>14</v>
+      </c>
+      <c r="D1657">
+        <v>13</v>
+      </c>
+      <c r="E1657">
+        <v>1</v>
+      </c>
+      <c r="F1657" s="1">
+        <v>21</v>
+      </c>
+      <c r="G1657" t="str">
+        <f t="shared" si="25"/>
+        <v>19/05/2024</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1658" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1658">
+        <v>20240516</v>
+      </c>
+      <c r="C1658">
+        <v>23</v>
+      </c>
+      <c r="D1658">
+        <v>20</v>
+      </c>
+      <c r="E1658">
+        <v>0</v>
+      </c>
+      <c r="F1658" s="1">
+        <v>21</v>
+      </c>
+      <c r="G1658" t="str">
+        <f t="shared" si="25"/>
+        <v>16/05/2024</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1659" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1659">
+        <v>20240518</v>
+      </c>
+      <c r="C1659">
+        <v>8</v>
+      </c>
+      <c r="D1659">
+        <v>8</v>
+      </c>
+      <c r="E1659">
+        <v>2</v>
+      </c>
+      <c r="F1659">
+        <v>21</v>
+      </c>
+      <c r="G1659" t="str">
+        <f t="shared" si="25"/>
+        <v>18/05/2024</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1660" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1660">
+        <v>20240513</v>
+      </c>
+      <c r="C1660">
+        <v>29</v>
+      </c>
+      <c r="D1660">
+        <v>22</v>
+      </c>
+      <c r="E1660">
+        <v>1</v>
+      </c>
+      <c r="F1660" s="1">
+        <v>20</v>
+      </c>
+      <c r="G1660" t="str">
+        <f t="shared" si="25"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1661" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1661">
+        <v>20240514</v>
+      </c>
+      <c r="C1661">
+        <v>5</v>
+      </c>
+      <c r="D1661">
+        <v>5</v>
+      </c>
+      <c r="E1661">
+        <v>0</v>
+      </c>
+      <c r="F1661">
+        <v>18</v>
+      </c>
+      <c r="G1661" t="str">
+        <f t="shared" ref="G1661:G1724" si="26">_xlfn.CONCAT(RIGHT(B1661,2),"/",MID(B1661,5,2),"/",LEFT(B1661,4))</f>
+        <v>14/05/2024</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1662" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1662">
+        <v>20240514</v>
+      </c>
+      <c r="C1662">
+        <v>7</v>
+      </c>
+      <c r="D1662">
+        <v>7</v>
+      </c>
+      <c r="E1662">
+        <v>0</v>
+      </c>
+      <c r="F1662" s="1">
+        <v>16</v>
+      </c>
+      <c r="G1662" t="str">
+        <f t="shared" si="26"/>
+        <v>14/05/2024</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1663" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1663">
+        <v>20240514</v>
+      </c>
+      <c r="C1663">
+        <v>4</v>
+      </c>
+      <c r="D1663">
+        <v>4</v>
+      </c>
+      <c r="E1663">
+        <v>0</v>
+      </c>
+      <c r="F1663">
+        <v>13</v>
+      </c>
+      <c r="G1663" t="str">
+        <f t="shared" si="26"/>
+        <v>14/05/2024</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1664" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1664">
+        <v>20240517</v>
+      </c>
+      <c r="C1664">
+        <v>12</v>
+      </c>
+      <c r="D1664">
+        <v>10</v>
+      </c>
+      <c r="E1664">
+        <v>0</v>
+      </c>
+      <c r="F1664">
+        <v>12</v>
+      </c>
+      <c r="G1664" t="str">
+        <f t="shared" si="26"/>
+        <v>17/05/2024</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1665" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1665">
+        <v>20240519</v>
+      </c>
+      <c r="C1665">
+        <v>1</v>
+      </c>
+      <c r="D1665">
+        <v>1</v>
+      </c>
+      <c r="E1665">
+        <v>0</v>
+      </c>
+      <c r="F1665">
+        <v>11</v>
+      </c>
+      <c r="G1665" t="str">
+        <f t="shared" si="26"/>
+        <v>19/05/2024</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1666" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1666">
+        <v>20240513</v>
+      </c>
+      <c r="C1666">
+        <v>17</v>
+      </c>
+      <c r="D1666">
+        <v>16</v>
+      </c>
+      <c r="E1666">
+        <v>1</v>
+      </c>
+      <c r="F1666" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1666" t="str">
+        <f t="shared" si="26"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1667" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1667">
+        <v>20240517</v>
+      </c>
+      <c r="C1667">
+        <v>13</v>
+      </c>
+      <c r="D1667">
+        <v>10</v>
+      </c>
+      <c r="E1667">
+        <v>0</v>
+      </c>
+      <c r="F1667" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1667" t="str">
+        <f t="shared" si="26"/>
+        <v>17/05/2024</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1668" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1668">
+        <v>20240518</v>
+      </c>
+      <c r="C1668">
+        <v>1</v>
+      </c>
+      <c r="D1668">
+        <v>1</v>
+      </c>
+      <c r="E1668">
+        <v>0</v>
+      </c>
+      <c r="F1668">
+        <v>10</v>
+      </c>
+      <c r="G1668" t="str">
+        <f t="shared" si="26"/>
+        <v>18/05/2024</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1669" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1669">
+        <v>20240519</v>
+      </c>
+      <c r="C1669">
+        <v>7</v>
+      </c>
+      <c r="D1669">
+        <v>6</v>
+      </c>
+      <c r="E1669">
+        <v>0</v>
+      </c>
+      <c r="F1669" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1669" t="str">
+        <f t="shared" si="26"/>
+        <v>19/05/2024</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1670" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1670">
+        <v>20240516</v>
+      </c>
+      <c r="C1670">
+        <v>5</v>
+      </c>
+      <c r="D1670">
+        <v>4</v>
+      </c>
+      <c r="E1670">
+        <v>0</v>
+      </c>
+      <c r="F1670">
+        <v>9</v>
+      </c>
+      <c r="G1670" t="str">
+        <f t="shared" si="26"/>
+        <v>16/05/2024</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1671" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1671">
+        <v>20240516</v>
+      </c>
+      <c r="C1671">
+        <v>6</v>
+      </c>
+      <c r="D1671">
+        <v>6</v>
+      </c>
+      <c r="E1671">
+        <v>0</v>
+      </c>
+      <c r="F1671">
+        <v>8</v>
+      </c>
+      <c r="G1671" t="str">
+        <f t="shared" si="26"/>
+        <v>16/05/2024</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1672" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1672">
+        <v>20240518</v>
+      </c>
+      <c r="C1672">
+        <v>1</v>
+      </c>
+      <c r="D1672">
+        <v>1</v>
+      </c>
+      <c r="E1672">
+        <v>0</v>
+      </c>
+      <c r="F1672">
+        <v>8</v>
+      </c>
+      <c r="G1672" t="str">
+        <f t="shared" si="26"/>
+        <v>18/05/2024</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1673" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1673">
+        <v>20240513</v>
+      </c>
+      <c r="C1673">
+        <v>9</v>
+      </c>
+      <c r="D1673">
+        <v>8</v>
+      </c>
+      <c r="E1673">
+        <v>0</v>
+      </c>
+      <c r="F1673" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1673" t="str">
+        <f t="shared" si="26"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1674" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1674">
+        <v>20240517</v>
+      </c>
+      <c r="C1674">
+        <v>2</v>
+      </c>
+      <c r="D1674">
+        <v>2</v>
+      </c>
+      <c r="E1674">
+        <v>0</v>
+      </c>
+      <c r="F1674">
+        <v>7</v>
+      </c>
+      <c r="G1674" t="str">
+        <f t="shared" si="26"/>
+        <v>17/05/2024</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1675" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1675">
+        <v>20240513</v>
+      </c>
+      <c r="C1675">
+        <v>2</v>
+      </c>
+      <c r="D1675">
+        <v>1</v>
+      </c>
+      <c r="E1675">
+        <v>0</v>
+      </c>
+      <c r="F1675">
+        <v>4</v>
+      </c>
+      <c r="G1675" t="str">
+        <f t="shared" si="26"/>
+        <v>13/05/2024</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1676" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1676">
+        <v>20240516</v>
+      </c>
+      <c r="C1676">
+        <v>2</v>
+      </c>
+      <c r="D1676">
+        <v>2</v>
+      </c>
+      <c r="E1676">
+        <v>0</v>
+      </c>
+      <c r="F1676">
+        <v>4</v>
+      </c>
+      <c r="G1676" t="str">
+        <f t="shared" si="26"/>
+        <v>16/05/2024</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1677" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1677">
+        <v>20240515</v>
+      </c>
+      <c r="C1677">
+        <v>2</v>
+      </c>
+      <c r="D1677">
+        <v>2</v>
+      </c>
+      <c r="E1677">
+        <v>0</v>
+      </c>
+      <c r="F1677">
+        <v>4</v>
+      </c>
+      <c r="G1677" t="str">
+        <f t="shared" si="26"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1678" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1678">
+        <v>20240515</v>
+      </c>
+      <c r="C1678">
+        <v>4</v>
+      </c>
+      <c r="D1678">
+        <v>3</v>
+      </c>
+      <c r="E1678">
+        <v>0</v>
+      </c>
+      <c r="F1678">
+        <v>2</v>
+      </c>
+      <c r="G1678" t="str">
+        <f t="shared" si="26"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1679" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1679">
+        <v>20240519</v>
+      </c>
+      <c r="C1679">
+        <v>4</v>
+      </c>
+      <c r="D1679">
+        <v>4</v>
+      </c>
+      <c r="E1679">
+        <v>0</v>
+      </c>
+      <c r="F1679">
+        <v>2</v>
+      </c>
+      <c r="G1679" t="str">
+        <f t="shared" si="26"/>
+        <v>19/05/2024</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1680" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1680">
+        <v>20240515</v>
+      </c>
+      <c r="C1680">
+        <v>2</v>
+      </c>
+      <c r="D1680">
+        <v>2</v>
+      </c>
+      <c r="E1680">
+        <v>0</v>
+      </c>
+      <c r="F1680">
+        <v>2</v>
+      </c>
+      <c r="G1680" t="str">
+        <f t="shared" si="26"/>
+        <v>15/05/2024</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1681" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1681">
+        <v>20240520</v>
+      </c>
+      <c r="C1681">
+        <v>1</v>
+      </c>
+      <c r="D1681">
+        <v>1</v>
+      </c>
+      <c r="E1681">
+        <v>0</v>
+      </c>
+      <c r="F1681">
+        <v>214</v>
+      </c>
+      <c r="G1681" t="str">
+        <f t="shared" si="26"/>
+        <v>20/05/2024</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1682" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1682">
+        <v>20240526</v>
+      </c>
+      <c r="C1682">
+        <v>9</v>
+      </c>
+      <c r="D1682">
+        <v>7</v>
+      </c>
+      <c r="E1682">
+        <v>0</v>
+      </c>
+      <c r="F1682">
+        <v>160</v>
+      </c>
+      <c r="G1682" t="str">
+        <f t="shared" si="26"/>
+        <v>26/05/2024</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1683" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1683">
+        <v>20240524</v>
+      </c>
+      <c r="C1683">
+        <v>1</v>
+      </c>
+      <c r="D1683">
+        <v>1</v>
+      </c>
+      <c r="E1683">
+        <v>0</v>
+      </c>
+      <c r="F1683">
+        <v>119</v>
+      </c>
+      <c r="G1683" t="str">
+        <f t="shared" si="26"/>
+        <v>24/05/2024</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1684" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1684">
+        <v>20240521</v>
+      </c>
+      <c r="C1684">
+        <v>3</v>
+      </c>
+      <c r="D1684">
+        <v>3</v>
+      </c>
+      <c r="E1684">
+        <v>0</v>
+      </c>
+      <c r="F1684" s="1">
+        <v>75</v>
+      </c>
+      <c r="G1684" t="str">
+        <f t="shared" si="26"/>
+        <v>21/05/2024</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1685" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1685">
+        <v>20240521</v>
+      </c>
+      <c r="C1685">
+        <v>26</v>
+      </c>
+      <c r="D1685">
+        <v>21</v>
+      </c>
+      <c r="E1685">
+        <v>2</v>
+      </c>
+      <c r="F1685">
+        <v>62</v>
+      </c>
+      <c r="G1685" t="str">
+        <f t="shared" si="26"/>
+        <v>21/05/2024</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1686" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1686">
+        <v>20240520</v>
+      </c>
+      <c r="C1686">
+        <v>8</v>
+      </c>
+      <c r="D1686">
+        <v>7</v>
+      </c>
+      <c r="E1686">
+        <v>1</v>
+      </c>
+      <c r="F1686" s="1">
+        <v>56</v>
+      </c>
+      <c r="G1686" t="str">
+        <f t="shared" si="26"/>
+        <v>20/05/2024</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1687" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1687">
+        <v>20240520</v>
+      </c>
+      <c r="C1687">
+        <v>22</v>
+      </c>
+      <c r="D1687">
+        <v>14</v>
+      </c>
+      <c r="E1687">
+        <v>0</v>
+      </c>
+      <c r="F1687" s="1">
+        <v>43</v>
+      </c>
+      <c r="G1687" t="str">
+        <f t="shared" si="26"/>
+        <v>20/05/2024</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1688" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1688">
+        <v>20240524</v>
+      </c>
+      <c r="C1688">
+        <v>33</v>
+      </c>
+      <c r="D1688">
+        <v>23</v>
+      </c>
+      <c r="E1688">
+        <v>1</v>
+      </c>
+      <c r="F1688" s="1">
+        <v>42</v>
+      </c>
+      <c r="G1688" t="str">
+        <f t="shared" si="26"/>
+        <v>24/05/2024</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1689" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1689">
+        <v>20240525</v>
+      </c>
+      <c r="C1689">
+        <v>4</v>
+      </c>
+      <c r="D1689">
+        <v>4</v>
+      </c>
+      <c r="E1689">
+        <v>0</v>
+      </c>
+      <c r="F1689">
+        <v>42</v>
+      </c>
+      <c r="G1689" t="str">
+        <f t="shared" si="26"/>
+        <v>25/05/2024</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1690" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1690">
+        <v>20240523</v>
+      </c>
+      <c r="C1690">
+        <v>39</v>
+      </c>
+      <c r="D1690">
+        <v>31</v>
+      </c>
+      <c r="E1690">
+        <v>0</v>
+      </c>
+      <c r="F1690" s="1">
+        <v>37</v>
+      </c>
+      <c r="G1690" t="str">
+        <f t="shared" si="26"/>
+        <v>23/05/2024</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1691" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1691">
+        <v>20240523</v>
+      </c>
+      <c r="C1691">
+        <v>8</v>
+      </c>
+      <c r="D1691">
+        <v>8</v>
+      </c>
+      <c r="E1691">
+        <v>0</v>
+      </c>
+      <c r="F1691">
+        <v>33</v>
+      </c>
+      <c r="G1691" t="str">
+        <f t="shared" si="26"/>
+        <v>23/05/2024</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1692" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1692">
+        <v>20240525</v>
+      </c>
+      <c r="C1692">
+        <v>9</v>
+      </c>
+      <c r="D1692">
+        <v>5</v>
+      </c>
+      <c r="E1692">
+        <v>0</v>
+      </c>
+      <c r="F1692">
+        <v>32</v>
+      </c>
+      <c r="G1692" t="str">
+        <f t="shared" si="26"/>
+        <v>25/05/2024</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1693" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1693">
+        <v>20240522</v>
+      </c>
+      <c r="C1693">
+        <v>6</v>
+      </c>
+      <c r="D1693">
+        <v>6</v>
+      </c>
+      <c r="E1693">
+        <v>0</v>
+      </c>
+      <c r="F1693" s="1">
+        <v>26</v>
+      </c>
+      <c r="G1693" t="str">
+        <f t="shared" si="26"/>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1694" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1694">
+        <v>20240522</v>
+      </c>
+      <c r="C1694">
+        <v>34</v>
+      </c>
+      <c r="D1694">
+        <v>25</v>
+      </c>
+      <c r="E1694">
+        <v>0</v>
+      </c>
+      <c r="F1694" s="1">
+        <v>25</v>
+      </c>
+      <c r="G1694" t="str">
+        <f t="shared" si="26"/>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1695" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1695">
+        <v>20240526</v>
+      </c>
+      <c r="C1695">
+        <v>22</v>
+      </c>
+      <c r="D1695">
+        <v>17</v>
+      </c>
+      <c r="E1695">
+        <v>1</v>
+      </c>
+      <c r="F1695" s="1">
+        <v>24</v>
+      </c>
+      <c r="G1695" t="str">
+        <f t="shared" si="26"/>
+        <v>26/05/2024</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1696" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1696">
+        <v>20240524</v>
+      </c>
+      <c r="C1696">
+        <v>13</v>
+      </c>
+      <c r="D1696">
+        <v>9</v>
+      </c>
+      <c r="E1696">
+        <v>0</v>
+      </c>
+      <c r="F1696">
+        <v>23</v>
+      </c>
+      <c r="G1696" t="str">
+        <f t="shared" si="26"/>
+        <v>24/05/2024</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1697" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1697">
+        <v>20240526</v>
+      </c>
+      <c r="C1697">
+        <v>4</v>
+      </c>
+      <c r="D1697">
+        <v>4</v>
+      </c>
+      <c r="E1697">
+        <v>0</v>
+      </c>
+      <c r="F1697">
+        <v>22</v>
+      </c>
+      <c r="G1697" t="str">
+        <f t="shared" si="26"/>
+        <v>26/05/2024</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1698" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1698">
+        <v>20240520</v>
+      </c>
+      <c r="C1698">
+        <v>6</v>
+      </c>
+      <c r="D1698">
+        <v>5</v>
+      </c>
+      <c r="E1698">
+        <v>0</v>
+      </c>
+      <c r="F1698">
+        <v>21</v>
+      </c>
+      <c r="G1698" t="str">
+        <f t="shared" si="26"/>
+        <v>20/05/2024</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1699" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1699">
+        <v>20240524</v>
+      </c>
+      <c r="C1699">
+        <v>10</v>
+      </c>
+      <c r="D1699">
+        <v>10</v>
+      </c>
+      <c r="E1699">
+        <v>0</v>
+      </c>
+      <c r="F1699">
+        <v>21</v>
+      </c>
+      <c r="G1699" t="str">
+        <f t="shared" si="26"/>
+        <v>24/05/2024</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1700" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1700">
+        <v>20240524</v>
+      </c>
+      <c r="C1700">
+        <v>6</v>
+      </c>
+      <c r="D1700">
+        <v>6</v>
+      </c>
+      <c r="E1700">
+        <v>0</v>
+      </c>
+      <c r="F1700" s="1">
+        <v>18</v>
+      </c>
+      <c r="G1700" t="str">
+        <f t="shared" si="26"/>
+        <v>24/05/2024</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1701" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1701">
+        <v>20240525</v>
+      </c>
+      <c r="C1701">
+        <v>6</v>
+      </c>
+      <c r="D1701">
+        <v>6</v>
+      </c>
+      <c r="E1701">
+        <v>0</v>
+      </c>
+      <c r="F1701">
+        <v>17</v>
+      </c>
+      <c r="G1701" t="str">
+        <f t="shared" si="26"/>
+        <v>25/05/2024</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1702" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1702">
+        <v>20240525</v>
+      </c>
+      <c r="C1702">
+        <v>19</v>
+      </c>
+      <c r="D1702">
+        <v>12</v>
+      </c>
+      <c r="E1702">
+        <v>0</v>
+      </c>
+      <c r="F1702" s="1">
+        <v>17</v>
+      </c>
+      <c r="G1702" t="str">
+        <f t="shared" si="26"/>
+        <v>25/05/2024</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1703" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1703">
+        <v>20240522</v>
+      </c>
+      <c r="C1703">
+        <v>10</v>
+      </c>
+      <c r="D1703">
+        <v>10</v>
+      </c>
+      <c r="E1703">
+        <v>0</v>
+      </c>
+      <c r="F1703">
+        <v>15</v>
+      </c>
+      <c r="G1703" t="str">
+        <f t="shared" si="26"/>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1704" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1704">
+        <v>20240524</v>
+      </c>
+      <c r="C1704">
+        <v>2</v>
+      </c>
+      <c r="D1704">
+        <v>2</v>
+      </c>
+      <c r="E1704">
+        <v>0</v>
+      </c>
+      <c r="F1704">
+        <v>15</v>
+      </c>
+      <c r="G1704" t="str">
+        <f t="shared" si="26"/>
+        <v>24/05/2024</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1705" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1705">
+        <v>20240522</v>
+      </c>
+      <c r="C1705">
+        <v>9</v>
+      </c>
+      <c r="D1705">
+        <v>8</v>
+      </c>
+      <c r="E1705">
+        <v>0</v>
+      </c>
+      <c r="F1705">
+        <v>15</v>
+      </c>
+      <c r="G1705" t="str">
+        <f t="shared" si="26"/>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1706" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1706">
+        <v>20240521</v>
+      </c>
+      <c r="C1706">
+        <v>4</v>
+      </c>
+      <c r="D1706">
+        <v>4</v>
+      </c>
+      <c r="E1706">
+        <v>0</v>
+      </c>
+      <c r="F1706">
+        <v>14</v>
+      </c>
+      <c r="G1706" t="str">
+        <f t="shared" si="26"/>
+        <v>21/05/2024</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1707" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1707">
+        <v>20240520</v>
+      </c>
+      <c r="C1707">
+        <v>1</v>
+      </c>
+      <c r="D1707">
+        <v>1</v>
+      </c>
+      <c r="E1707">
+        <v>0</v>
+      </c>
+      <c r="F1707">
+        <v>13</v>
+      </c>
+      <c r="G1707" t="str">
+        <f t="shared" si="26"/>
+        <v>20/05/2024</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1708" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1708">
+        <v>20240526</v>
+      </c>
+      <c r="C1708">
+        <v>4</v>
+      </c>
+      <c r="D1708">
+        <v>4</v>
+      </c>
+      <c r="E1708">
+        <v>0</v>
+      </c>
+      <c r="F1708">
+        <v>13</v>
+      </c>
+      <c r="G1708" t="str">
+        <f t="shared" si="26"/>
+        <v>26/05/2024</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1709" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1709">
+        <v>20240523</v>
+      </c>
+      <c r="C1709">
+        <v>9</v>
+      </c>
+      <c r="D1709">
+        <v>7</v>
+      </c>
+      <c r="E1709">
+        <v>0</v>
+      </c>
+      <c r="F1709">
+        <v>12</v>
+      </c>
+      <c r="G1709" t="str">
+        <f t="shared" si="26"/>
+        <v>23/05/2024</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1710" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1710">
+        <v>20240520</v>
+      </c>
+      <c r="C1710">
+        <v>5</v>
+      </c>
+      <c r="D1710">
+        <v>5</v>
+      </c>
+      <c r="E1710">
+        <v>1</v>
+      </c>
+      <c r="F1710">
+        <v>11</v>
+      </c>
+      <c r="G1710" t="str">
+        <f t="shared" si="26"/>
+        <v>20/05/2024</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1711" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1711">
+        <v>20240525</v>
+      </c>
+      <c r="C1711">
+        <v>3</v>
+      </c>
+      <c r="D1711">
+        <v>3</v>
+      </c>
+      <c r="E1711">
+        <v>0</v>
+      </c>
+      <c r="F1711" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1711" t="str">
+        <f t="shared" si="26"/>
+        <v>25/05/2024</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1712" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1712">
+        <v>20240521</v>
+      </c>
+      <c r="C1712">
+        <v>7</v>
+      </c>
+      <c r="D1712">
+        <v>7</v>
+      </c>
+      <c r="E1712">
+        <v>0</v>
+      </c>
+      <c r="F1712" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1712" t="str">
+        <f t="shared" si="26"/>
+        <v>21/05/2024</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1713" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1713">
+        <v>20240522</v>
+      </c>
+      <c r="C1713">
+        <v>14</v>
+      </c>
+      <c r="D1713">
+        <v>12</v>
+      </c>
+      <c r="E1713">
+        <v>0</v>
+      </c>
+      <c r="F1713" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1713" t="str">
+        <f t="shared" si="26"/>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1714" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1714">
+        <v>20240522</v>
+      </c>
+      <c r="C1714">
+        <v>2</v>
+      </c>
+      <c r="D1714">
+        <v>2</v>
+      </c>
+      <c r="E1714">
+        <v>0</v>
+      </c>
+      <c r="F1714">
+        <v>9</v>
+      </c>
+      <c r="G1714" t="str">
+        <f t="shared" si="26"/>
+        <v>22/05/2024</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1715" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1715">
+        <v>20240523</v>
+      </c>
+      <c r="C1715">
+        <v>15</v>
+      </c>
+      <c r="D1715">
+        <v>14</v>
+      </c>
+      <c r="E1715">
+        <v>0</v>
+      </c>
+      <c r="F1715">
+        <v>8</v>
+      </c>
+      <c r="G1715" t="str">
+        <f t="shared" si="26"/>
+        <v>23/05/2024</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1716" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1716">
+        <v>20240525</v>
+      </c>
+      <c r="C1716">
+        <v>1</v>
+      </c>
+      <c r="D1716">
+        <v>1</v>
+      </c>
+      <c r="E1716">
+        <v>0</v>
+      </c>
+      <c r="F1716">
+        <v>6</v>
+      </c>
+      <c r="G1716" t="str">
+        <f t="shared" si="26"/>
+        <v>25/05/2024</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1717" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1717">
+        <v>20240523</v>
+      </c>
+      <c r="C1717">
+        <v>1</v>
+      </c>
+      <c r="D1717">
+        <v>1</v>
+      </c>
+      <c r="E1717">
+        <v>0</v>
+      </c>
+      <c r="F1717">
+        <v>5</v>
+      </c>
+      <c r="G1717" t="str">
+        <f t="shared" si="26"/>
+        <v>23/05/2024</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1718" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1718">
+        <v>20240521</v>
+      </c>
+      <c r="C1718">
+        <v>5</v>
+      </c>
+      <c r="D1718">
+        <v>4</v>
+      </c>
+      <c r="E1718">
+        <v>0</v>
+      </c>
+      <c r="F1718">
+        <v>4</v>
+      </c>
+      <c r="G1718" t="str">
+        <f t="shared" si="26"/>
+        <v>21/05/2024</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1719" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1719">
+        <v>20240523</v>
+      </c>
+      <c r="C1719">
+        <v>2</v>
+      </c>
+      <c r="D1719">
+        <v>2</v>
+      </c>
+      <c r="E1719">
+        <v>0</v>
+      </c>
+      <c r="F1719">
+        <v>3</v>
+      </c>
+      <c r="G1719" t="str">
+        <f t="shared" si="26"/>
+        <v>23/05/2024</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1720" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1720">
+        <v>20240528</v>
+      </c>
+      <c r="C1720">
+        <v>10</v>
+      </c>
+      <c r="D1720">
+        <v>10</v>
+      </c>
+      <c r="E1720">
+        <v>0</v>
+      </c>
+      <c r="F1720">
+        <v>47</v>
+      </c>
+      <c r="G1720" t="str">
+        <f t="shared" si="26"/>
+        <v>28/05/2024</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1721" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1721">
+        <v>20240602</v>
+      </c>
+      <c r="C1721">
+        <v>5</v>
+      </c>
+      <c r="D1721">
+        <v>5</v>
+      </c>
+      <c r="E1721">
+        <v>0</v>
+      </c>
+      <c r="F1721">
+        <v>44</v>
+      </c>
+      <c r="G1721" t="str">
+        <f t="shared" si="26"/>
+        <v>02/06/2024</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1722" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1722">
+        <v>20240531</v>
+      </c>
+      <c r="C1722">
+        <v>18</v>
+      </c>
+      <c r="D1722">
+        <v>17</v>
+      </c>
+      <c r="E1722">
+        <v>0</v>
+      </c>
+      <c r="F1722" s="1">
+        <v>42</v>
+      </c>
+      <c r="G1722" t="str">
+        <f t="shared" si="26"/>
+        <v>31/05/2024</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1723" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1723">
+        <v>20240530</v>
+      </c>
+      <c r="C1723">
+        <v>3</v>
+      </c>
+      <c r="D1723">
+        <v>3</v>
+      </c>
+      <c r="E1723">
+        <v>0</v>
+      </c>
+      <c r="F1723">
+        <v>42</v>
+      </c>
+      <c r="G1723" t="str">
+        <f t="shared" si="26"/>
+        <v>30/05/2024</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1724" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1724">
+        <v>20240531</v>
+      </c>
+      <c r="C1724">
+        <v>19</v>
+      </c>
+      <c r="D1724">
+        <v>18</v>
+      </c>
+      <c r="E1724">
+        <v>1</v>
+      </c>
+      <c r="F1724" s="1">
+        <v>41</v>
+      </c>
+      <c r="G1724" t="str">
+        <f t="shared" si="26"/>
+        <v>31/05/2024</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1725" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1725">
+        <v>20240527</v>
+      </c>
+      <c r="C1725">
+        <v>25</v>
+      </c>
+      <c r="D1725">
+        <v>17</v>
+      </c>
+      <c r="E1725">
+        <v>1</v>
+      </c>
+      <c r="F1725">
+        <v>35</v>
+      </c>
+      <c r="G1725" t="str">
+        <f t="shared" ref="G1725:G1758" si="27">_xlfn.CONCAT(RIGHT(B1725,2),"/",MID(B1725,5,2),"/",LEFT(B1725,4))</f>
+        <v>27/05/2024</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1726" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1726">
+        <v>20240528</v>
+      </c>
+      <c r="C1726">
+        <v>2</v>
+      </c>
+      <c r="D1726">
+        <v>2</v>
+      </c>
+      <c r="E1726">
+        <v>0</v>
+      </c>
+      <c r="F1726">
+        <v>32</v>
+      </c>
+      <c r="G1726" t="str">
+        <f t="shared" si="27"/>
+        <v>28/05/2024</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1727" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1727">
+        <v>20240528</v>
+      </c>
+      <c r="C1727">
+        <v>9</v>
+      </c>
+      <c r="D1727">
+        <v>9</v>
+      </c>
+      <c r="E1727">
+        <v>0</v>
+      </c>
+      <c r="F1727" s="1">
+        <v>30</v>
+      </c>
+      <c r="G1727" t="str">
+        <f t="shared" si="27"/>
+        <v>28/05/2024</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1728" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1728">
+        <v>20240530</v>
+      </c>
+      <c r="C1728">
+        <v>9</v>
+      </c>
+      <c r="D1728">
+        <v>9</v>
+      </c>
+      <c r="E1728">
+        <v>0</v>
+      </c>
+      <c r="F1728" s="1">
+        <v>28</v>
+      </c>
+      <c r="G1728" t="str">
+        <f t="shared" si="27"/>
+        <v>30/05/2024</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1729" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1729">
+        <v>20240528</v>
+      </c>
+      <c r="C1729">
+        <v>21</v>
+      </c>
+      <c r="D1729">
+        <v>17</v>
+      </c>
+      <c r="E1729">
+        <v>0</v>
+      </c>
+      <c r="F1729" s="1">
+        <v>28</v>
+      </c>
+      <c r="G1729" t="str">
+        <f t="shared" si="27"/>
+        <v>28/05/2024</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1730" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1730">
+        <v>20240602</v>
+      </c>
+      <c r="C1730">
+        <v>6</v>
+      </c>
+      <c r="D1730">
+        <v>6</v>
+      </c>
+      <c r="E1730">
+        <v>0</v>
+      </c>
+      <c r="F1730" s="1">
+        <v>26</v>
+      </c>
+      <c r="G1730" t="str">
+        <f t="shared" si="27"/>
+        <v>02/06/2024</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1731" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1731">
+        <v>20240602</v>
+      </c>
+      <c r="C1731">
+        <v>13</v>
+      </c>
+      <c r="D1731">
+        <v>13</v>
+      </c>
+      <c r="E1731">
+        <v>0</v>
+      </c>
+      <c r="F1731" s="1">
+        <v>26</v>
+      </c>
+      <c r="G1731" t="str">
+        <f t="shared" si="27"/>
+        <v>02/06/2024</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1732" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1732">
+        <v>20240601</v>
+      </c>
+      <c r="C1732">
+        <v>24</v>
+      </c>
+      <c r="D1732">
+        <v>18</v>
+      </c>
+      <c r="E1732">
+        <v>0</v>
+      </c>
+      <c r="F1732" s="1">
+        <v>25</v>
+      </c>
+      <c r="G1732" t="str">
+        <f t="shared" si="27"/>
+        <v>01/06/2024</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1733" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1733">
+        <v>20240601</v>
+      </c>
+      <c r="C1733">
+        <v>4</v>
+      </c>
+      <c r="D1733">
+        <v>4</v>
+      </c>
+      <c r="E1733">
+        <v>1</v>
+      </c>
+      <c r="F1733">
+        <v>23</v>
+      </c>
+      <c r="G1733" t="str">
+        <f t="shared" si="27"/>
+        <v>01/06/2024</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1734" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1734">
+        <v>20240531</v>
+      </c>
+      <c r="C1734">
+        <v>31</v>
+      </c>
+      <c r="D1734">
+        <v>21</v>
+      </c>
+      <c r="E1734">
+        <v>0</v>
+      </c>
+      <c r="F1734" s="1">
+        <v>21</v>
+      </c>
+      <c r="G1734" t="str">
+        <f t="shared" si="27"/>
+        <v>31/05/2024</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1735" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1735">
+        <v>20240529</v>
+      </c>
+      <c r="C1735">
+        <v>5</v>
+      </c>
+      <c r="D1735">
+        <v>5</v>
+      </c>
+      <c r="E1735">
+        <v>0</v>
+      </c>
+      <c r="F1735">
+        <v>20</v>
+      </c>
+      <c r="G1735" t="str">
+        <f t="shared" si="27"/>
+        <v>29/05/2024</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1736" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1736">
+        <v>20240601</v>
+      </c>
+      <c r="C1736">
+        <v>3</v>
+      </c>
+      <c r="D1736">
+        <v>2</v>
+      </c>
+      <c r="E1736">
+        <v>0</v>
+      </c>
+      <c r="F1736" s="1">
+        <v>20</v>
+      </c>
+      <c r="G1736" t="str">
+        <f t="shared" si="27"/>
+        <v>01/06/2024</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1737" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1737">
+        <v>20240530</v>
+      </c>
+      <c r="C1737">
+        <v>28</v>
+      </c>
+      <c r="D1737">
+        <v>23</v>
+      </c>
+      <c r="E1737">
+        <v>1</v>
+      </c>
+      <c r="F1737" s="1">
+        <v>19</v>
+      </c>
+      <c r="G1737" t="str">
+        <f t="shared" si="27"/>
+        <v>30/05/2024</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1738" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1738">
+        <v>20240602</v>
+      </c>
+      <c r="C1738">
+        <v>11</v>
+      </c>
+      <c r="D1738">
+        <v>8</v>
+      </c>
+      <c r="E1738">
+        <v>2</v>
+      </c>
+      <c r="F1738" s="1">
+        <v>18</v>
+      </c>
+      <c r="G1738" t="str">
+        <f t="shared" si="27"/>
+        <v>02/06/2024</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1739" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1739">
+        <v>20240601</v>
+      </c>
+      <c r="C1739">
+        <v>13</v>
+      </c>
+      <c r="D1739">
+        <v>13</v>
+      </c>
+      <c r="E1739">
+        <v>0</v>
+      </c>
+      <c r="F1739" s="1">
+        <v>18</v>
+      </c>
+      <c r="G1739" t="str">
+        <f t="shared" si="27"/>
+        <v>01/06/2024</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1740" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1740">
+        <v>20240527</v>
+      </c>
+      <c r="C1740">
+        <v>12</v>
+      </c>
+      <c r="D1740">
+        <v>12</v>
+      </c>
+      <c r="E1740">
+        <v>1</v>
+      </c>
+      <c r="F1740" s="1">
+        <v>17</v>
+      </c>
+      <c r="G1740" t="str">
+        <f t="shared" si="27"/>
+        <v>27/05/2024</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1741" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1741">
+        <v>20240529</v>
+      </c>
+      <c r="C1741">
+        <v>10</v>
+      </c>
+      <c r="D1741">
+        <v>10</v>
+      </c>
+      <c r="E1741">
+        <v>0</v>
+      </c>
+      <c r="F1741">
+        <v>17</v>
+      </c>
+      <c r="G1741" t="str">
+        <f t="shared" si="27"/>
+        <v>29/05/2024</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1742" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1742">
+        <v>20240529</v>
+      </c>
+      <c r="C1742">
+        <v>4</v>
+      </c>
+      <c r="D1742">
+        <v>4</v>
+      </c>
+      <c r="E1742">
+        <v>0</v>
+      </c>
+      <c r="F1742">
+        <v>15</v>
+      </c>
+      <c r="G1742" t="str">
+        <f t="shared" si="27"/>
+        <v>29/05/2024</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1743" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1743">
+        <v>20240527</v>
+      </c>
+      <c r="C1743">
+        <v>12</v>
+      </c>
+      <c r="D1743">
+        <v>11</v>
+      </c>
+      <c r="E1743">
+        <v>0</v>
+      </c>
+      <c r="F1743" s="1">
+        <v>15</v>
+      </c>
+      <c r="G1743" t="str">
+        <f t="shared" si="27"/>
+        <v>27/05/2024</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1744" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1744">
+        <v>20240529</v>
+      </c>
+      <c r="C1744">
+        <v>12</v>
+      </c>
+      <c r="D1744">
+        <v>11</v>
+      </c>
+      <c r="E1744">
+        <v>0</v>
+      </c>
+      <c r="F1744">
+        <v>15</v>
+      </c>
+      <c r="G1744" t="str">
+        <f t="shared" si="27"/>
+        <v>29/05/2024</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1745" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1745">
+        <v>20240527</v>
+      </c>
+      <c r="C1745">
+        <v>8</v>
+      </c>
+      <c r="D1745">
+        <v>8</v>
+      </c>
+      <c r="E1745">
+        <v>0</v>
+      </c>
+      <c r="F1745">
+        <v>14</v>
+      </c>
+      <c r="G1745" t="str">
+        <f t="shared" si="27"/>
+        <v>27/05/2024</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1746" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1746">
+        <v>20240530</v>
+      </c>
+      <c r="C1746">
+        <v>5</v>
+      </c>
+      <c r="D1746">
+        <v>4</v>
+      </c>
+      <c r="E1746">
+        <v>0</v>
+      </c>
+      <c r="F1746">
+        <v>14</v>
+      </c>
+      <c r="G1746" t="str">
+        <f t="shared" si="27"/>
+        <v>30/05/2024</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1747" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1747">
+        <v>20240529</v>
+      </c>
+      <c r="C1747">
+        <v>19</v>
+      </c>
+      <c r="D1747">
+        <v>16</v>
+      </c>
+      <c r="E1747">
+        <v>0</v>
+      </c>
+      <c r="F1747" s="1">
+        <v>13</v>
+      </c>
+      <c r="G1747" t="str">
+        <f t="shared" si="27"/>
+        <v>29/05/2024</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1748" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1748">
+        <v>20240531</v>
+      </c>
+      <c r="C1748">
+        <v>3</v>
+      </c>
+      <c r="D1748">
+        <v>3</v>
+      </c>
+      <c r="E1748">
+        <v>1</v>
+      </c>
+      <c r="F1748" s="1">
+        <v>11</v>
+      </c>
+      <c r="G1748" t="str">
+        <f t="shared" si="27"/>
+        <v>31/05/2024</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1749" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1749">
+        <v>20240530</v>
+      </c>
+      <c r="C1749">
+        <v>9</v>
+      </c>
+      <c r="D1749">
+        <v>9</v>
+      </c>
+      <c r="E1749">
+        <v>0</v>
+      </c>
+      <c r="F1749" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1749" t="str">
+        <f t="shared" si="27"/>
+        <v>30/05/2024</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1750" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1750">
+        <v>20240531</v>
+      </c>
+      <c r="C1750">
+        <v>2</v>
+      </c>
+      <c r="D1750">
+        <v>2</v>
+      </c>
+      <c r="E1750">
+        <v>0</v>
+      </c>
+      <c r="F1750">
+        <v>10</v>
+      </c>
+      <c r="G1750" t="str">
+        <f t="shared" si="27"/>
+        <v>31/05/2024</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1751" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1751">
+        <v>20240527</v>
+      </c>
+      <c r="C1751">
+        <v>2</v>
+      </c>
+      <c r="D1751">
+        <v>2</v>
+      </c>
+      <c r="E1751">
+        <v>0</v>
+      </c>
+      <c r="F1751">
+        <v>9</v>
+      </c>
+      <c r="G1751" t="str">
+        <f t="shared" si="27"/>
+        <v>27/05/2024</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1752" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1752">
+        <v>20240601</v>
+      </c>
+      <c r="C1752">
+        <v>5</v>
+      </c>
+      <c r="D1752">
+        <v>5</v>
+      </c>
+      <c r="E1752">
+        <v>0</v>
+      </c>
+      <c r="F1752">
+        <v>8</v>
+      </c>
+      <c r="G1752" t="str">
+        <f t="shared" si="27"/>
+        <v>01/06/2024</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1753" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1753">
+        <v>20240529</v>
+      </c>
+      <c r="C1753">
+        <v>11</v>
+      </c>
+      <c r="D1753">
+        <v>9</v>
+      </c>
+      <c r="E1753">
+        <v>1</v>
+      </c>
+      <c r="F1753" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1753" t="str">
+        <f t="shared" si="27"/>
+        <v>29/05/2024</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1754" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1754">
+        <v>20240527</v>
+      </c>
+      <c r="C1754">
+        <v>2</v>
+      </c>
+      <c r="D1754">
+        <v>2</v>
+      </c>
+      <c r="E1754">
+        <v>0</v>
+      </c>
+      <c r="F1754">
+        <v>6</v>
+      </c>
+      <c r="G1754" t="str">
+        <f t="shared" si="27"/>
+        <v>27/05/2024</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1755" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1755">
+        <v>20240530</v>
+      </c>
+      <c r="C1755">
+        <v>5</v>
+      </c>
+      <c r="D1755">
+        <v>5</v>
+      </c>
+      <c r="E1755">
+        <v>2</v>
+      </c>
+      <c r="F1755">
+        <v>6</v>
+      </c>
+      <c r="G1755" t="str">
+        <f t="shared" si="27"/>
+        <v>30/05/2024</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1756" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1756">
+        <v>20240528</v>
+      </c>
+      <c r="C1756">
+        <v>3</v>
+      </c>
+      <c r="D1756">
+        <v>3</v>
+      </c>
+      <c r="E1756">
+        <v>0</v>
+      </c>
+      <c r="F1756">
+        <v>6</v>
+      </c>
+      <c r="G1756" t="str">
+        <f t="shared" si="27"/>
+        <v>28/05/2024</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1757" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1757">
+        <v>20240531</v>
+      </c>
+      <c r="C1757">
+        <v>3</v>
+      </c>
+      <c r="D1757">
+        <v>3</v>
+      </c>
+      <c r="E1757">
+        <v>0</v>
+      </c>
+      <c r="F1757" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1757" t="str">
+        <f t="shared" si="27"/>
+        <v>31/05/2024</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1758" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1758">
+        <v>20240528</v>
+      </c>
+      <c r="C1758">
+        <v>2</v>
+      </c>
+      <c r="D1758">
+        <v>2</v>
+      </c>
+      <c r="E1758">
+        <v>0</v>
+      </c>
+      <c r="F1758">
+        <v>5</v>
+      </c>
+      <c r="G1758" t="str">
+        <f t="shared" si="27"/>
+        <v>28/05/2024</v>
       </c>
     </row>
   </sheetData>

--- a/Arquivos/consulta_atributo.xlsx
+++ b/Arquivos/consulta_atributo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b5dde4ea31a779cd/Documentos/Mestrado/Arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="469" documentId="8_{4B1A644E-5216-4FC3-ABCB-A033782FC07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6463E3B5-A9B1-48E6-B26F-DCD6ACD9C3C9}"/>
+  <xr:revisionPtr revIDLastSave="805" documentId="8_{4B1A644E-5216-4FC3-ABCB-A033782FC07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26FF6A60-34BE-4874-9B20-6844A6A5D2E5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60A39AFF-0B96-40B1-935E-5517C6B3CDFE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="14">
   <si>
     <t>Sessoes</t>
   </si>
@@ -454,11 +454,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55F2A6B-66E6-467A-A378-659FCC592520}">
-  <dimension ref="A1:H1758"/>
+  <dimension ref="A1:H2113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1723" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1728" sqref="D1728"/>
+      <pane ySplit="1" topLeftCell="A2073" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2074" sqref="A2074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41866,7 +41866,7 @@
         <v>35</v>
       </c>
       <c r="G1725" t="str">
-        <f t="shared" ref="G1725:G1758" si="27">_xlfn.CONCAT(RIGHT(B1725,2),"/",MID(B1725,5,2),"/",LEFT(B1725,4))</f>
+        <f t="shared" ref="G1725:G1787" si="27">_xlfn.CONCAT(RIGHT(B1725,2),"/",MID(B1725,5,2),"/",LEFT(B1725,4))</f>
         <v>27/05/2024</v>
       </c>
     </row>
@@ -42660,6 +42660,8526 @@
       <c r="G1758" t="str">
         <f t="shared" si="27"/>
         <v>28/05/2024</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1759" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1759">
+        <v>20240604</v>
+      </c>
+      <c r="C1759">
+        <v>5</v>
+      </c>
+      <c r="D1759">
+        <v>4</v>
+      </c>
+      <c r="E1759">
+        <v>0</v>
+      </c>
+      <c r="F1759">
+        <v>86</v>
+      </c>
+      <c r="G1759" t="str">
+        <f t="shared" si="27"/>
+        <v>04/06/2024</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1760" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1760">
+        <v>20240608</v>
+      </c>
+      <c r="C1760">
+        <v>21</v>
+      </c>
+      <c r="D1760">
+        <v>18</v>
+      </c>
+      <c r="E1760">
+        <v>0</v>
+      </c>
+      <c r="F1760" s="1">
+        <v>77</v>
+      </c>
+      <c r="G1760" t="str">
+        <f t="shared" si="27"/>
+        <v>08/06/2024</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1761" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1761">
+        <v>20240604</v>
+      </c>
+      <c r="C1761">
+        <v>4</v>
+      </c>
+      <c r="D1761">
+        <v>4</v>
+      </c>
+      <c r="E1761">
+        <v>0</v>
+      </c>
+      <c r="F1761">
+        <v>69</v>
+      </c>
+      <c r="G1761" t="str">
+        <f t="shared" si="27"/>
+        <v>04/06/2024</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1762" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1762">
+        <v>20240603</v>
+      </c>
+      <c r="C1762">
+        <v>20</v>
+      </c>
+      <c r="D1762">
+        <v>16</v>
+      </c>
+      <c r="E1762">
+        <v>0</v>
+      </c>
+      <c r="F1762">
+        <v>50</v>
+      </c>
+      <c r="G1762" t="str">
+        <f t="shared" si="27"/>
+        <v>03/06/2024</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1763" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1763">
+        <v>20240606</v>
+      </c>
+      <c r="C1763">
+        <v>40</v>
+      </c>
+      <c r="D1763">
+        <v>28</v>
+      </c>
+      <c r="E1763">
+        <v>1</v>
+      </c>
+      <c r="F1763">
+        <v>44</v>
+      </c>
+      <c r="G1763" t="str">
+        <f t="shared" si="27"/>
+        <v>06/06/2024</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1764" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1764">
+        <v>20240607</v>
+      </c>
+      <c r="C1764">
+        <v>8</v>
+      </c>
+      <c r="D1764">
+        <v>7</v>
+      </c>
+      <c r="E1764">
+        <v>0</v>
+      </c>
+      <c r="F1764">
+        <v>43</v>
+      </c>
+      <c r="G1764" t="str">
+        <f t="shared" si="27"/>
+        <v>07/06/2024</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1765" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1765">
+        <v>20240607</v>
+      </c>
+      <c r="C1765">
+        <v>3</v>
+      </c>
+      <c r="D1765">
+        <v>2</v>
+      </c>
+      <c r="E1765">
+        <v>0</v>
+      </c>
+      <c r="F1765" s="1">
+        <v>39</v>
+      </c>
+      <c r="G1765" t="str">
+        <f t="shared" si="27"/>
+        <v>07/06/2024</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1766" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1766">
+        <v>20240604</v>
+      </c>
+      <c r="C1766">
+        <v>25</v>
+      </c>
+      <c r="D1766">
+        <v>19</v>
+      </c>
+      <c r="E1766">
+        <v>2</v>
+      </c>
+      <c r="F1766">
+        <v>39</v>
+      </c>
+      <c r="G1766" t="str">
+        <f t="shared" si="27"/>
+        <v>04/06/2024</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1767" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1767">
+        <v>20240603</v>
+      </c>
+      <c r="C1767">
+        <v>5</v>
+      </c>
+      <c r="D1767">
+        <v>5</v>
+      </c>
+      <c r="E1767">
+        <v>0</v>
+      </c>
+      <c r="F1767">
+        <v>35</v>
+      </c>
+      <c r="G1767" t="str">
+        <f t="shared" si="27"/>
+        <v>03/06/2024</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1768" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1768">
+        <v>20240609</v>
+      </c>
+      <c r="C1768">
+        <v>3</v>
+      </c>
+      <c r="D1768">
+        <v>3</v>
+      </c>
+      <c r="E1768">
+        <v>0</v>
+      </c>
+      <c r="F1768" s="1">
+        <v>35</v>
+      </c>
+      <c r="G1768" t="str">
+        <f t="shared" si="27"/>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1769" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1769">
+        <v>20240604</v>
+      </c>
+      <c r="C1769">
+        <v>22</v>
+      </c>
+      <c r="D1769">
+        <v>19</v>
+      </c>
+      <c r="E1769">
+        <v>0</v>
+      </c>
+      <c r="F1769" s="1">
+        <v>34</v>
+      </c>
+      <c r="G1769" t="str">
+        <f t="shared" si="27"/>
+        <v>04/06/2024</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1770" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1770">
+        <v>20240607</v>
+      </c>
+      <c r="C1770">
+        <v>34</v>
+      </c>
+      <c r="D1770">
+        <v>25</v>
+      </c>
+      <c r="E1770">
+        <v>0</v>
+      </c>
+      <c r="F1770" s="1">
+        <v>32</v>
+      </c>
+      <c r="G1770" t="str">
+        <f t="shared" si="27"/>
+        <v>07/06/2024</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1771" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1771">
+        <v>20240609</v>
+      </c>
+      <c r="C1771">
+        <v>15</v>
+      </c>
+      <c r="D1771">
+        <v>11</v>
+      </c>
+      <c r="E1771">
+        <v>0</v>
+      </c>
+      <c r="F1771" s="1">
+        <v>30</v>
+      </c>
+      <c r="G1771" t="str">
+        <f t="shared" si="27"/>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1772" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1772">
+        <v>20240605</v>
+      </c>
+      <c r="C1772">
+        <v>5</v>
+      </c>
+      <c r="D1772">
+        <v>4</v>
+      </c>
+      <c r="E1772">
+        <v>0</v>
+      </c>
+      <c r="F1772">
+        <v>27</v>
+      </c>
+      <c r="G1772" t="str">
+        <f t="shared" si="27"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1773" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1773">
+        <v>20240603</v>
+      </c>
+      <c r="C1773">
+        <v>25</v>
+      </c>
+      <c r="D1773">
+        <v>22</v>
+      </c>
+      <c r="E1773">
+        <v>0</v>
+      </c>
+      <c r="F1773">
+        <v>26</v>
+      </c>
+      <c r="G1773" t="str">
+        <f t="shared" si="27"/>
+        <v>03/06/2024</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1774" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1774">
+        <v>20240607</v>
+      </c>
+      <c r="C1774">
+        <v>7</v>
+      </c>
+      <c r="D1774">
+        <v>7</v>
+      </c>
+      <c r="E1774">
+        <v>0</v>
+      </c>
+      <c r="F1774" s="1">
+        <v>26</v>
+      </c>
+      <c r="G1774" t="str">
+        <f t="shared" si="27"/>
+        <v>07/06/2024</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1775" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1775">
+        <v>20240605</v>
+      </c>
+      <c r="C1775">
+        <v>13</v>
+      </c>
+      <c r="D1775">
+        <v>12</v>
+      </c>
+      <c r="E1775">
+        <v>1</v>
+      </c>
+      <c r="F1775" s="1">
+        <v>25</v>
+      </c>
+      <c r="G1775" t="str">
+        <f t="shared" si="27"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1776" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1776">
+        <v>20240609</v>
+      </c>
+      <c r="C1776">
+        <v>15</v>
+      </c>
+      <c r="D1776">
+        <v>14</v>
+      </c>
+      <c r="E1776">
+        <v>1</v>
+      </c>
+      <c r="F1776" s="1">
+        <v>24</v>
+      </c>
+      <c r="G1776" t="str">
+        <f t="shared" si="27"/>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1777" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1777">
+        <v>20240608</v>
+      </c>
+      <c r="C1777">
+        <v>22</v>
+      </c>
+      <c r="D1777">
+        <v>19</v>
+      </c>
+      <c r="E1777">
+        <v>0</v>
+      </c>
+      <c r="F1777" s="1">
+        <v>22</v>
+      </c>
+      <c r="G1777" t="str">
+        <f t="shared" si="27"/>
+        <v>08/06/2024</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1778" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1778">
+        <v>20240605</v>
+      </c>
+      <c r="C1778">
+        <v>7</v>
+      </c>
+      <c r="D1778">
+        <v>7</v>
+      </c>
+      <c r="E1778">
+        <v>0</v>
+      </c>
+      <c r="F1778" s="1">
+        <v>20</v>
+      </c>
+      <c r="G1778" t="str">
+        <f t="shared" si="27"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1779" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1779">
+        <v>20240604</v>
+      </c>
+      <c r="C1779">
+        <v>8</v>
+      </c>
+      <c r="D1779">
+        <v>8</v>
+      </c>
+      <c r="E1779">
+        <v>0</v>
+      </c>
+      <c r="F1779">
+        <v>20</v>
+      </c>
+      <c r="G1779" t="str">
+        <f t="shared" si="27"/>
+        <v>04/06/2024</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1780" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1780">
+        <v>20240606</v>
+      </c>
+      <c r="C1780">
+        <v>8</v>
+      </c>
+      <c r="D1780">
+        <v>7</v>
+      </c>
+      <c r="E1780">
+        <v>0</v>
+      </c>
+      <c r="F1780">
+        <v>20</v>
+      </c>
+      <c r="G1780" t="str">
+        <f t="shared" si="27"/>
+        <v>06/06/2024</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1781" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1781">
+        <v>20240603</v>
+      </c>
+      <c r="C1781">
+        <v>1</v>
+      </c>
+      <c r="D1781">
+        <v>1</v>
+      </c>
+      <c r="E1781">
+        <v>0</v>
+      </c>
+      <c r="F1781">
+        <v>19</v>
+      </c>
+      <c r="G1781" t="str">
+        <f t="shared" si="27"/>
+        <v>03/06/2024</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1782" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1782">
+        <v>20240605</v>
+      </c>
+      <c r="C1782">
+        <v>24</v>
+      </c>
+      <c r="D1782">
+        <v>20</v>
+      </c>
+      <c r="E1782">
+        <v>1</v>
+      </c>
+      <c r="F1782" s="1">
+        <v>17</v>
+      </c>
+      <c r="G1782" t="str">
+        <f t="shared" si="27"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1783" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1783">
+        <v>20240604</v>
+      </c>
+      <c r="C1783">
+        <v>4</v>
+      </c>
+      <c r="D1783">
+        <v>3</v>
+      </c>
+      <c r="E1783">
+        <v>0</v>
+      </c>
+      <c r="F1783">
+        <v>16</v>
+      </c>
+      <c r="G1783" t="str">
+        <f t="shared" si="27"/>
+        <v>04/06/2024</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1784" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1784">
+        <v>20240603</v>
+      </c>
+      <c r="C1784">
+        <v>7</v>
+      </c>
+      <c r="D1784">
+        <v>7</v>
+      </c>
+      <c r="E1784">
+        <v>0</v>
+      </c>
+      <c r="F1784" s="1">
+        <v>16</v>
+      </c>
+      <c r="G1784" t="str">
+        <f t="shared" si="27"/>
+        <v>03/06/2024</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1785" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1785">
+        <v>20240607</v>
+      </c>
+      <c r="C1785">
+        <v>4</v>
+      </c>
+      <c r="D1785">
+        <v>4</v>
+      </c>
+      <c r="E1785">
+        <v>0</v>
+      </c>
+      <c r="F1785">
+        <v>15</v>
+      </c>
+      <c r="G1785" t="str">
+        <f t="shared" si="27"/>
+        <v>07/06/2024</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1786" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1786">
+        <v>20240608</v>
+      </c>
+      <c r="C1786">
+        <v>3</v>
+      </c>
+      <c r="D1786">
+        <v>3</v>
+      </c>
+      <c r="E1786">
+        <v>0</v>
+      </c>
+      <c r="F1786" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1786" t="str">
+        <f t="shared" si="27"/>
+        <v>08/06/2024</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1787" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1787">
+        <v>20240606</v>
+      </c>
+      <c r="C1787">
+        <v>10</v>
+      </c>
+      <c r="D1787">
+        <v>9</v>
+      </c>
+      <c r="E1787">
+        <v>0</v>
+      </c>
+      <c r="F1787">
+        <v>14</v>
+      </c>
+      <c r="G1787" t="str">
+        <f t="shared" si="27"/>
+        <v>06/06/2024</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1788" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1788">
+        <v>20240609</v>
+      </c>
+      <c r="C1788">
+        <v>7</v>
+      </c>
+      <c r="D1788">
+        <v>7</v>
+      </c>
+      <c r="E1788">
+        <v>0</v>
+      </c>
+      <c r="F1788" s="1">
+        <v>13</v>
+      </c>
+      <c r="G1788" t="str">
+        <f t="shared" ref="G1788:G1850" si="28">_xlfn.CONCAT(RIGHT(B1788,2),"/",MID(B1788,5,2),"/",LEFT(B1788,4))</f>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1789" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1789">
+        <v>20240608</v>
+      </c>
+      <c r="C1789">
+        <v>6</v>
+      </c>
+      <c r="D1789">
+        <v>6</v>
+      </c>
+      <c r="E1789">
+        <v>0</v>
+      </c>
+      <c r="F1789" s="1">
+        <v>13</v>
+      </c>
+      <c r="G1789" t="str">
+        <f t="shared" si="28"/>
+        <v>08/06/2024</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1790" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1790">
+        <v>20240605</v>
+      </c>
+      <c r="C1790">
+        <v>1</v>
+      </c>
+      <c r="D1790">
+        <v>1</v>
+      </c>
+      <c r="E1790">
+        <v>0</v>
+      </c>
+      <c r="F1790">
+        <v>13</v>
+      </c>
+      <c r="G1790" t="str">
+        <f t="shared" si="28"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1791" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1791">
+        <v>20240607</v>
+      </c>
+      <c r="C1791">
+        <v>1</v>
+      </c>
+      <c r="D1791">
+        <v>1</v>
+      </c>
+      <c r="E1791">
+        <v>0</v>
+      </c>
+      <c r="F1791">
+        <v>13</v>
+      </c>
+      <c r="G1791" t="str">
+        <f t="shared" si="28"/>
+        <v>07/06/2024</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1792" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1792">
+        <v>20240606</v>
+      </c>
+      <c r="C1792">
+        <v>2</v>
+      </c>
+      <c r="D1792">
+        <v>2</v>
+      </c>
+      <c r="E1792">
+        <v>0</v>
+      </c>
+      <c r="F1792">
+        <v>9</v>
+      </c>
+      <c r="G1792" t="str">
+        <f t="shared" si="28"/>
+        <v>06/06/2024</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1793" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1793">
+        <v>20240606</v>
+      </c>
+      <c r="C1793">
+        <v>13</v>
+      </c>
+      <c r="D1793">
+        <v>8</v>
+      </c>
+      <c r="E1793">
+        <v>1</v>
+      </c>
+      <c r="F1793" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1793" t="str">
+        <f t="shared" si="28"/>
+        <v>06/06/2024</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1794" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1794">
+        <v>20240608</v>
+      </c>
+      <c r="C1794">
+        <v>2</v>
+      </c>
+      <c r="D1794">
+        <v>2</v>
+      </c>
+      <c r="E1794">
+        <v>0</v>
+      </c>
+      <c r="F1794">
+        <v>8</v>
+      </c>
+      <c r="G1794" t="str">
+        <f t="shared" si="28"/>
+        <v>08/06/2024</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1795" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1795">
+        <v>20240609</v>
+      </c>
+      <c r="C1795">
+        <v>4</v>
+      </c>
+      <c r="D1795">
+        <v>4</v>
+      </c>
+      <c r="E1795">
+        <v>0</v>
+      </c>
+      <c r="F1795">
+        <v>8</v>
+      </c>
+      <c r="G1795" t="str">
+        <f t="shared" si="28"/>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1796" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1796">
+        <v>20240605</v>
+      </c>
+      <c r="C1796">
+        <v>2</v>
+      </c>
+      <c r="D1796">
+        <v>1</v>
+      </c>
+      <c r="E1796">
+        <v>0</v>
+      </c>
+      <c r="F1796">
+        <v>6</v>
+      </c>
+      <c r="G1796" t="str">
+        <f t="shared" si="28"/>
+        <v>05/06/2024</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1797" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1797">
+        <v>20240609</v>
+      </c>
+      <c r="C1797">
+        <v>2</v>
+      </c>
+      <c r="D1797">
+        <v>2</v>
+      </c>
+      <c r="E1797">
+        <v>0</v>
+      </c>
+      <c r="F1797">
+        <v>6</v>
+      </c>
+      <c r="G1797" t="str">
+        <f t="shared" si="28"/>
+        <v>09/06/2024</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1798" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1798">
+        <v>20240603</v>
+      </c>
+      <c r="C1798">
+        <v>3</v>
+      </c>
+      <c r="D1798">
+        <v>3</v>
+      </c>
+      <c r="E1798">
+        <v>0</v>
+      </c>
+      <c r="F1798" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1798" t="str">
+        <f t="shared" si="28"/>
+        <v>03/06/2024</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1799" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1799">
+        <v>20240606</v>
+      </c>
+      <c r="C1799">
+        <v>3</v>
+      </c>
+      <c r="D1799">
+        <v>2</v>
+      </c>
+      <c r="E1799">
+        <v>0</v>
+      </c>
+      <c r="F1799" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1799" t="str">
+        <f t="shared" si="28"/>
+        <v>06/06/2024</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1800" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1800">
+        <v>20240615</v>
+      </c>
+      <c r="C1800">
+        <v>2</v>
+      </c>
+      <c r="D1800">
+        <v>2</v>
+      </c>
+      <c r="E1800">
+        <v>0</v>
+      </c>
+      <c r="F1800">
+        <v>52</v>
+      </c>
+      <c r="G1800" t="str">
+        <f t="shared" si="28"/>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1801" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1801">
+        <v>20240610</v>
+      </c>
+      <c r="C1801">
+        <v>16</v>
+      </c>
+      <c r="D1801">
+        <v>13</v>
+      </c>
+      <c r="E1801">
+        <v>1</v>
+      </c>
+      <c r="F1801">
+        <v>45</v>
+      </c>
+      <c r="G1801" t="str">
+        <f t="shared" si="28"/>
+        <v>10/06/2024</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1802" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1802">
+        <v>20240614</v>
+      </c>
+      <c r="C1802">
+        <v>6</v>
+      </c>
+      <c r="D1802">
+        <v>4</v>
+      </c>
+      <c r="E1802">
+        <v>0</v>
+      </c>
+      <c r="F1802">
+        <v>41</v>
+      </c>
+      <c r="G1802" t="str">
+        <f t="shared" si="28"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1803" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1803">
+        <v>20240611</v>
+      </c>
+      <c r="C1803">
+        <v>30</v>
+      </c>
+      <c r="D1803">
+        <v>26</v>
+      </c>
+      <c r="E1803">
+        <v>0</v>
+      </c>
+      <c r="F1803">
+        <v>34</v>
+      </c>
+      <c r="G1803" t="str">
+        <f t="shared" si="28"/>
+        <v>11/06/2024</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1804" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1804">
+        <v>20240610</v>
+      </c>
+      <c r="C1804">
+        <v>8</v>
+      </c>
+      <c r="D1804">
+        <v>7</v>
+      </c>
+      <c r="E1804">
+        <v>0</v>
+      </c>
+      <c r="F1804">
+        <v>31</v>
+      </c>
+      <c r="G1804" t="str">
+        <f t="shared" si="28"/>
+        <v>10/06/2024</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1805" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1805">
+        <v>20240612</v>
+      </c>
+      <c r="C1805">
+        <v>22</v>
+      </c>
+      <c r="D1805">
+        <v>15</v>
+      </c>
+      <c r="E1805">
+        <v>1</v>
+      </c>
+      <c r="F1805">
+        <v>30</v>
+      </c>
+      <c r="G1805" t="str">
+        <f t="shared" si="28"/>
+        <v>12/06/2024</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1806" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1806">
+        <v>20240614</v>
+      </c>
+      <c r="C1806">
+        <v>20</v>
+      </c>
+      <c r="D1806">
+        <v>16</v>
+      </c>
+      <c r="E1806">
+        <v>0</v>
+      </c>
+      <c r="F1806">
+        <v>30</v>
+      </c>
+      <c r="G1806" t="str">
+        <f t="shared" si="28"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1807" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1807">
+        <v>20240616</v>
+      </c>
+      <c r="C1807">
+        <v>1</v>
+      </c>
+      <c r="D1807">
+        <v>1</v>
+      </c>
+      <c r="E1807">
+        <v>0</v>
+      </c>
+      <c r="F1807">
+        <v>29</v>
+      </c>
+      <c r="G1807" t="str">
+        <f t="shared" si="28"/>
+        <v>16/06/2024</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1808" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1808">
+        <v>20240614</v>
+      </c>
+      <c r="C1808">
+        <v>5</v>
+      </c>
+      <c r="D1808">
+        <v>5</v>
+      </c>
+      <c r="E1808">
+        <v>0</v>
+      </c>
+      <c r="F1808">
+        <v>28</v>
+      </c>
+      <c r="G1808" t="str">
+        <f t="shared" si="28"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1809" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1809">
+        <v>20240610</v>
+      </c>
+      <c r="C1809">
+        <v>22</v>
+      </c>
+      <c r="D1809">
+        <v>19</v>
+      </c>
+      <c r="E1809">
+        <v>0</v>
+      </c>
+      <c r="F1809">
+        <v>26</v>
+      </c>
+      <c r="G1809" t="str">
+        <f t="shared" si="28"/>
+        <v>10/06/2024</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1810" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1810">
+        <v>20240613</v>
+      </c>
+      <c r="C1810">
+        <v>19</v>
+      </c>
+      <c r="D1810">
+        <v>12</v>
+      </c>
+      <c r="E1810">
+        <v>0</v>
+      </c>
+      <c r="F1810">
+        <v>25</v>
+      </c>
+      <c r="G1810" t="str">
+        <f t="shared" si="28"/>
+        <v>13/06/2024</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1811" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1811">
+        <v>20240615</v>
+      </c>
+      <c r="C1811">
+        <v>25</v>
+      </c>
+      <c r="D1811">
+        <v>21</v>
+      </c>
+      <c r="E1811">
+        <v>4</v>
+      </c>
+      <c r="F1811">
+        <v>24</v>
+      </c>
+      <c r="G1811" t="str">
+        <f t="shared" si="28"/>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1812" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1812">
+        <v>20240611</v>
+      </c>
+      <c r="C1812">
+        <v>3</v>
+      </c>
+      <c r="D1812">
+        <v>2</v>
+      </c>
+      <c r="E1812">
+        <v>0</v>
+      </c>
+      <c r="F1812">
+        <v>23</v>
+      </c>
+      <c r="G1812" t="str">
+        <f t="shared" si="28"/>
+        <v>11/06/2024</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1813" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1813">
+        <v>20240615</v>
+      </c>
+      <c r="C1813">
+        <v>5</v>
+      </c>
+      <c r="D1813">
+        <v>3</v>
+      </c>
+      <c r="E1813">
+        <v>0</v>
+      </c>
+      <c r="F1813">
+        <v>22</v>
+      </c>
+      <c r="G1813" t="str">
+        <f t="shared" si="28"/>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1814" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1814">
+        <v>20240615</v>
+      </c>
+      <c r="C1814">
+        <v>5</v>
+      </c>
+      <c r="D1814">
+        <v>5</v>
+      </c>
+      <c r="E1814">
+        <v>0</v>
+      </c>
+      <c r="F1814">
+        <v>22</v>
+      </c>
+      <c r="G1814" t="str">
+        <f t="shared" si="28"/>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1815" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1815">
+        <v>20240612</v>
+      </c>
+      <c r="C1815">
+        <v>17</v>
+      </c>
+      <c r="D1815">
+        <v>14</v>
+      </c>
+      <c r="E1815">
+        <v>0</v>
+      </c>
+      <c r="F1815">
+        <v>22</v>
+      </c>
+      <c r="G1815" t="str">
+        <f t="shared" si="28"/>
+        <v>12/06/2024</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1816" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1816">
+        <v>20240616</v>
+      </c>
+      <c r="C1816">
+        <v>11</v>
+      </c>
+      <c r="D1816">
+        <v>11</v>
+      </c>
+      <c r="E1816">
+        <v>0</v>
+      </c>
+      <c r="F1816">
+        <v>19</v>
+      </c>
+      <c r="G1816" t="str">
+        <f t="shared" si="28"/>
+        <v>16/06/2024</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1817" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1817">
+        <v>20240614</v>
+      </c>
+      <c r="C1817">
+        <v>3</v>
+      </c>
+      <c r="D1817">
+        <v>3</v>
+      </c>
+      <c r="E1817">
+        <v>0</v>
+      </c>
+      <c r="F1817">
+        <v>19</v>
+      </c>
+      <c r="G1817" t="str">
+        <f t="shared" si="28"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1818" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1818">
+        <v>20240614</v>
+      </c>
+      <c r="C1818">
+        <v>3</v>
+      </c>
+      <c r="D1818">
+        <v>2</v>
+      </c>
+      <c r="E1818">
+        <v>0</v>
+      </c>
+      <c r="F1818">
+        <v>18</v>
+      </c>
+      <c r="G1818" t="str">
+        <f t="shared" si="28"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1819" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1819">
+        <v>20240611</v>
+      </c>
+      <c r="C1819">
+        <v>26</v>
+      </c>
+      <c r="D1819">
+        <v>17</v>
+      </c>
+      <c r="E1819">
+        <v>2</v>
+      </c>
+      <c r="F1819">
+        <v>18</v>
+      </c>
+      <c r="G1819" t="str">
+        <f t="shared" si="28"/>
+        <v>11/06/2024</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1820" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1820">
+        <v>20240616</v>
+      </c>
+      <c r="C1820">
+        <v>6</v>
+      </c>
+      <c r="D1820">
+        <v>6</v>
+      </c>
+      <c r="E1820">
+        <v>0</v>
+      </c>
+      <c r="F1820">
+        <v>18</v>
+      </c>
+      <c r="G1820" t="str">
+        <f t="shared" si="28"/>
+        <v>16/06/2024</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1821" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1821">
+        <v>20240613</v>
+      </c>
+      <c r="C1821">
+        <v>3</v>
+      </c>
+      <c r="D1821">
+        <v>2</v>
+      </c>
+      <c r="E1821">
+        <v>0</v>
+      </c>
+      <c r="F1821">
+        <v>17</v>
+      </c>
+      <c r="G1821" t="str">
+        <f t="shared" si="28"/>
+        <v>13/06/2024</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1822" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1822">
+        <v>20240613</v>
+      </c>
+      <c r="C1822">
+        <v>3</v>
+      </c>
+      <c r="D1822">
+        <v>3</v>
+      </c>
+      <c r="E1822">
+        <v>0</v>
+      </c>
+      <c r="F1822">
+        <v>16</v>
+      </c>
+      <c r="G1822" t="str">
+        <f t="shared" si="28"/>
+        <v>13/06/2024</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1823" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1823">
+        <v>20240614</v>
+      </c>
+      <c r="C1823">
+        <v>11</v>
+      </c>
+      <c r="D1823">
+        <v>11</v>
+      </c>
+      <c r="E1823">
+        <v>0</v>
+      </c>
+      <c r="F1823">
+        <v>15</v>
+      </c>
+      <c r="G1823" t="str">
+        <f t="shared" si="28"/>
+        <v>14/06/2024</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1824" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1824">
+        <v>20240616</v>
+      </c>
+      <c r="C1824">
+        <v>4</v>
+      </c>
+      <c r="D1824">
+        <v>4</v>
+      </c>
+      <c r="E1824">
+        <v>0</v>
+      </c>
+      <c r="F1824">
+        <v>13</v>
+      </c>
+      <c r="G1824" t="str">
+        <f t="shared" si="28"/>
+        <v>16/06/2024</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1825" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1825">
+        <v>20240613</v>
+      </c>
+      <c r="C1825">
+        <v>14</v>
+      </c>
+      <c r="D1825">
+        <v>11</v>
+      </c>
+      <c r="E1825">
+        <v>0</v>
+      </c>
+      <c r="F1825">
+        <v>13</v>
+      </c>
+      <c r="G1825" t="str">
+        <f t="shared" si="28"/>
+        <v>13/06/2024</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1826" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1826">
+        <v>20240612</v>
+      </c>
+      <c r="C1826">
+        <v>8</v>
+      </c>
+      <c r="D1826">
+        <v>8</v>
+      </c>
+      <c r="E1826">
+        <v>0</v>
+      </c>
+      <c r="F1826">
+        <v>11</v>
+      </c>
+      <c r="G1826" t="str">
+        <f t="shared" si="28"/>
+        <v>12/06/2024</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1827" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1827">
+        <v>20240611</v>
+      </c>
+      <c r="C1827">
+        <v>5</v>
+      </c>
+      <c r="D1827">
+        <v>5</v>
+      </c>
+      <c r="E1827">
+        <v>0</v>
+      </c>
+      <c r="F1827">
+        <v>10</v>
+      </c>
+      <c r="G1827" t="str">
+        <f t="shared" si="28"/>
+        <v>11/06/2024</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1828" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1828">
+        <v>20240611</v>
+      </c>
+      <c r="C1828">
+        <v>3</v>
+      </c>
+      <c r="D1828">
+        <v>3</v>
+      </c>
+      <c r="E1828">
+        <v>0</v>
+      </c>
+      <c r="F1828">
+        <v>10</v>
+      </c>
+      <c r="G1828" t="str">
+        <f t="shared" si="28"/>
+        <v>11/06/2024</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1829" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1829">
+        <v>20240610</v>
+      </c>
+      <c r="C1829">
+        <v>4</v>
+      </c>
+      <c r="D1829">
+        <v>4</v>
+      </c>
+      <c r="E1829">
+        <v>0</v>
+      </c>
+      <c r="F1829">
+        <v>9</v>
+      </c>
+      <c r="G1829" t="str">
+        <f t="shared" si="28"/>
+        <v>10/06/2024</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1830" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1830">
+        <v>20240611</v>
+      </c>
+      <c r="C1830">
+        <v>6</v>
+      </c>
+      <c r="D1830">
+        <v>5</v>
+      </c>
+      <c r="E1830">
+        <v>0</v>
+      </c>
+      <c r="F1830">
+        <v>8</v>
+      </c>
+      <c r="G1830" t="str">
+        <f t="shared" si="28"/>
+        <v>11/06/2024</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1831" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1831">
+        <v>20240612</v>
+      </c>
+      <c r="C1831">
+        <v>3</v>
+      </c>
+      <c r="D1831">
+        <v>3</v>
+      </c>
+      <c r="E1831">
+        <v>0</v>
+      </c>
+      <c r="F1831">
+        <v>6</v>
+      </c>
+      <c r="G1831" t="str">
+        <f t="shared" si="28"/>
+        <v>12/06/2024</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1832" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1832">
+        <v>20240613</v>
+      </c>
+      <c r="C1832">
+        <v>1</v>
+      </c>
+      <c r="D1832">
+        <v>1</v>
+      </c>
+      <c r="E1832">
+        <v>0</v>
+      </c>
+      <c r="F1832">
+        <v>6</v>
+      </c>
+      <c r="G1832" t="str">
+        <f t="shared" si="28"/>
+        <v>13/06/2024</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1833" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1833">
+        <v>20240612</v>
+      </c>
+      <c r="C1833">
+        <v>3</v>
+      </c>
+      <c r="D1833">
+        <v>2</v>
+      </c>
+      <c r="E1833">
+        <v>0</v>
+      </c>
+      <c r="F1833">
+        <v>6</v>
+      </c>
+      <c r="G1833" t="str">
+        <f t="shared" si="28"/>
+        <v>12/06/2024</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1834" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1834">
+        <v>20240615</v>
+      </c>
+      <c r="C1834">
+        <v>4</v>
+      </c>
+      <c r="D1834">
+        <v>3</v>
+      </c>
+      <c r="E1834">
+        <v>0</v>
+      </c>
+      <c r="F1834">
+        <v>5</v>
+      </c>
+      <c r="G1834" t="str">
+        <f t="shared" si="28"/>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1835" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1835">
+        <v>20240615</v>
+      </c>
+      <c r="C1835">
+        <v>1</v>
+      </c>
+      <c r="D1835">
+        <v>1</v>
+      </c>
+      <c r="E1835">
+        <v>0</v>
+      </c>
+      <c r="F1835">
+        <v>3</v>
+      </c>
+      <c r="G1835" t="str">
+        <f t="shared" si="28"/>
+        <v>15/06/2024</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1836" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1836">
+        <v>20240622</v>
+      </c>
+      <c r="C1836">
+        <v>7</v>
+      </c>
+      <c r="D1836">
+        <v>6</v>
+      </c>
+      <c r="E1836">
+        <v>0</v>
+      </c>
+      <c r="F1836">
+        <v>89</v>
+      </c>
+      <c r="G1836" t="str">
+        <f t="shared" si="28"/>
+        <v>22/06/2024</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1837" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1837">
+        <v>20240622</v>
+      </c>
+      <c r="C1837">
+        <v>16</v>
+      </c>
+      <c r="D1837">
+        <v>14</v>
+      </c>
+      <c r="E1837">
+        <v>0</v>
+      </c>
+      <c r="F1837">
+        <v>55</v>
+      </c>
+      <c r="G1837" t="str">
+        <f t="shared" si="28"/>
+        <v>22/06/2024</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1838" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1838">
+        <v>20240617</v>
+      </c>
+      <c r="C1838">
+        <v>12</v>
+      </c>
+      <c r="D1838">
+        <v>8</v>
+      </c>
+      <c r="E1838">
+        <v>0</v>
+      </c>
+      <c r="F1838">
+        <v>51</v>
+      </c>
+      <c r="G1838" t="str">
+        <f t="shared" si="28"/>
+        <v>17/06/2024</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1839" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1839">
+        <v>20240621</v>
+      </c>
+      <c r="C1839">
+        <v>5</v>
+      </c>
+      <c r="D1839">
+        <v>5</v>
+      </c>
+      <c r="E1839">
+        <v>0</v>
+      </c>
+      <c r="F1839">
+        <v>47</v>
+      </c>
+      <c r="G1839" t="str">
+        <f t="shared" si="28"/>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1840" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1840">
+        <v>20240619</v>
+      </c>
+      <c r="C1840">
+        <v>12</v>
+      </c>
+      <c r="D1840">
+        <v>10</v>
+      </c>
+      <c r="E1840">
+        <v>1</v>
+      </c>
+      <c r="F1840">
+        <v>45</v>
+      </c>
+      <c r="G1840" t="str">
+        <f t="shared" si="28"/>
+        <v>19/06/2024</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1841" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1841">
+        <v>20240619</v>
+      </c>
+      <c r="C1841">
+        <v>25</v>
+      </c>
+      <c r="D1841">
+        <v>23</v>
+      </c>
+      <c r="E1841">
+        <v>0</v>
+      </c>
+      <c r="F1841">
+        <v>39</v>
+      </c>
+      <c r="G1841" t="str">
+        <f t="shared" si="28"/>
+        <v>19/06/2024</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1842" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1842">
+        <v>20240617</v>
+      </c>
+      <c r="C1842">
+        <v>13</v>
+      </c>
+      <c r="D1842">
+        <v>11</v>
+      </c>
+      <c r="E1842">
+        <v>0</v>
+      </c>
+      <c r="F1842">
+        <v>37</v>
+      </c>
+      <c r="G1842" t="str">
+        <f t="shared" si="28"/>
+        <v>17/06/2024</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1843" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1843">
+        <v>20240623</v>
+      </c>
+      <c r="C1843">
+        <v>5</v>
+      </c>
+      <c r="D1843">
+        <v>5</v>
+      </c>
+      <c r="E1843">
+        <v>0</v>
+      </c>
+      <c r="F1843">
+        <v>34</v>
+      </c>
+      <c r="G1843" t="str">
+        <f t="shared" si="28"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1844" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1844">
+        <v>20240623</v>
+      </c>
+      <c r="C1844">
+        <v>2</v>
+      </c>
+      <c r="D1844">
+        <v>2</v>
+      </c>
+      <c r="E1844">
+        <v>0</v>
+      </c>
+      <c r="F1844">
+        <v>33</v>
+      </c>
+      <c r="G1844" t="str">
+        <f t="shared" si="28"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1845" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1845">
+        <v>20240621</v>
+      </c>
+      <c r="C1845">
+        <v>4</v>
+      </c>
+      <c r="D1845">
+        <v>4</v>
+      </c>
+      <c r="E1845">
+        <v>0</v>
+      </c>
+      <c r="F1845">
+        <v>31</v>
+      </c>
+      <c r="G1845" t="str">
+        <f t="shared" si="28"/>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1846" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1846">
+        <v>20240617</v>
+      </c>
+      <c r="C1846">
+        <v>4</v>
+      </c>
+      <c r="D1846">
+        <v>4</v>
+      </c>
+      <c r="E1846">
+        <v>2</v>
+      </c>
+      <c r="F1846">
+        <v>25</v>
+      </c>
+      <c r="G1846" t="str">
+        <f t="shared" si="28"/>
+        <v>17/06/2024</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1847" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1847">
+        <v>20240623</v>
+      </c>
+      <c r="C1847">
+        <v>16</v>
+      </c>
+      <c r="D1847">
+        <v>12</v>
+      </c>
+      <c r="E1847">
+        <v>0</v>
+      </c>
+      <c r="F1847">
+        <v>24</v>
+      </c>
+      <c r="G1847" t="str">
+        <f t="shared" si="28"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1848" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1848">
+        <v>20240622</v>
+      </c>
+      <c r="C1848">
+        <v>6</v>
+      </c>
+      <c r="D1848">
+        <v>6</v>
+      </c>
+      <c r="E1848">
+        <v>0</v>
+      </c>
+      <c r="F1848">
+        <v>22</v>
+      </c>
+      <c r="G1848" t="str">
+        <f t="shared" si="28"/>
+        <v>22/06/2024</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1849" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1849">
+        <v>20240618</v>
+      </c>
+      <c r="C1849">
+        <v>10</v>
+      </c>
+      <c r="D1849">
+        <v>8</v>
+      </c>
+      <c r="E1849">
+        <v>2</v>
+      </c>
+      <c r="F1849">
+        <v>21</v>
+      </c>
+      <c r="G1849" t="str">
+        <f t="shared" si="28"/>
+        <v>18/06/2024</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1850" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1850">
+        <v>20240621</v>
+      </c>
+      <c r="C1850">
+        <v>15</v>
+      </c>
+      <c r="D1850">
+        <v>12</v>
+      </c>
+      <c r="E1850">
+        <v>0</v>
+      </c>
+      <c r="F1850">
+        <v>19</v>
+      </c>
+      <c r="G1850" t="str">
+        <f t="shared" si="28"/>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1851" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1851">
+        <v>20240621</v>
+      </c>
+      <c r="C1851">
+        <v>9</v>
+      </c>
+      <c r="D1851">
+        <v>8</v>
+      </c>
+      <c r="E1851">
+        <v>0</v>
+      </c>
+      <c r="F1851">
+        <v>18</v>
+      </c>
+      <c r="G1851" t="str">
+        <f t="shared" ref="G1851:G1913" si="29">_xlfn.CONCAT(RIGHT(B1851,2),"/",MID(B1851,5,2),"/",LEFT(B1851,4))</f>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1852" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1852">
+        <v>20240620</v>
+      </c>
+      <c r="C1852">
+        <v>9</v>
+      </c>
+      <c r="D1852">
+        <v>7</v>
+      </c>
+      <c r="E1852">
+        <v>0</v>
+      </c>
+      <c r="F1852">
+        <v>18</v>
+      </c>
+      <c r="G1852" t="str">
+        <f t="shared" si="29"/>
+        <v>20/06/2024</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1853" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1853">
+        <v>20240620</v>
+      </c>
+      <c r="C1853">
+        <v>18</v>
+      </c>
+      <c r="D1853">
+        <v>12</v>
+      </c>
+      <c r="E1853">
+        <v>1</v>
+      </c>
+      <c r="F1853">
+        <v>17</v>
+      </c>
+      <c r="G1853" t="str">
+        <f t="shared" si="29"/>
+        <v>20/06/2024</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1854" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1854">
+        <v>20240618</v>
+      </c>
+      <c r="C1854">
+        <v>11</v>
+      </c>
+      <c r="D1854">
+        <v>9</v>
+      </c>
+      <c r="E1854">
+        <v>1</v>
+      </c>
+      <c r="F1854">
+        <v>14</v>
+      </c>
+      <c r="G1854" t="str">
+        <f t="shared" si="29"/>
+        <v>18/06/2024</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1855" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1855">
+        <v>20240623</v>
+      </c>
+      <c r="C1855">
+        <v>6</v>
+      </c>
+      <c r="D1855">
+        <v>5</v>
+      </c>
+      <c r="E1855">
+        <v>0</v>
+      </c>
+      <c r="F1855">
+        <v>14</v>
+      </c>
+      <c r="G1855" t="str">
+        <f t="shared" si="29"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1856" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1856">
+        <v>20240623</v>
+      </c>
+      <c r="C1856">
+        <v>3</v>
+      </c>
+      <c r="D1856">
+        <v>3</v>
+      </c>
+      <c r="E1856">
+        <v>0</v>
+      </c>
+      <c r="F1856">
+        <v>14</v>
+      </c>
+      <c r="G1856" t="str">
+        <f t="shared" si="29"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1857" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1857">
+        <v>20240622</v>
+      </c>
+      <c r="C1857">
+        <v>4</v>
+      </c>
+      <c r="D1857">
+        <v>4</v>
+      </c>
+      <c r="E1857">
+        <v>0</v>
+      </c>
+      <c r="F1857">
+        <v>13</v>
+      </c>
+      <c r="G1857" t="str">
+        <f t="shared" si="29"/>
+        <v>22/06/2024</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1858" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1858">
+        <v>20240620</v>
+      </c>
+      <c r="C1858">
+        <v>8</v>
+      </c>
+      <c r="D1858">
+        <v>8</v>
+      </c>
+      <c r="E1858">
+        <v>0</v>
+      </c>
+      <c r="F1858">
+        <v>12</v>
+      </c>
+      <c r="G1858" t="str">
+        <f t="shared" si="29"/>
+        <v>20/06/2024</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1859" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1859">
+        <v>20240618</v>
+      </c>
+      <c r="C1859">
+        <v>7</v>
+      </c>
+      <c r="D1859">
+        <v>7</v>
+      </c>
+      <c r="E1859">
+        <v>0</v>
+      </c>
+      <c r="F1859">
+        <v>12</v>
+      </c>
+      <c r="G1859" t="str">
+        <f t="shared" si="29"/>
+        <v>18/06/2024</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1860" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1860">
+        <v>20240619</v>
+      </c>
+      <c r="C1860">
+        <v>6</v>
+      </c>
+      <c r="D1860">
+        <v>6</v>
+      </c>
+      <c r="E1860">
+        <v>0</v>
+      </c>
+      <c r="F1860">
+        <v>11</v>
+      </c>
+      <c r="G1860" t="str">
+        <f t="shared" si="29"/>
+        <v>19/06/2024</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1861" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1861">
+        <v>20240619</v>
+      </c>
+      <c r="C1861">
+        <v>5</v>
+      </c>
+      <c r="D1861">
+        <v>5</v>
+      </c>
+      <c r="E1861">
+        <v>0</v>
+      </c>
+      <c r="F1861">
+        <v>10</v>
+      </c>
+      <c r="G1861" t="str">
+        <f t="shared" si="29"/>
+        <v>19/06/2024</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1862" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1862">
+        <v>20240617</v>
+      </c>
+      <c r="C1862">
+        <v>4</v>
+      </c>
+      <c r="D1862">
+        <v>4</v>
+      </c>
+      <c r="E1862">
+        <v>0</v>
+      </c>
+      <c r="F1862">
+        <v>10</v>
+      </c>
+      <c r="G1862" t="str">
+        <f t="shared" si="29"/>
+        <v>17/06/2024</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1863" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1863">
+        <v>20240618</v>
+      </c>
+      <c r="C1863">
+        <v>2</v>
+      </c>
+      <c r="D1863">
+        <v>2</v>
+      </c>
+      <c r="E1863">
+        <v>0</v>
+      </c>
+      <c r="F1863">
+        <v>9</v>
+      </c>
+      <c r="G1863" t="str">
+        <f t="shared" si="29"/>
+        <v>18/06/2024</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1864" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1864">
+        <v>20240621</v>
+      </c>
+      <c r="C1864">
+        <v>8</v>
+      </c>
+      <c r="D1864">
+        <v>7</v>
+      </c>
+      <c r="E1864">
+        <v>0</v>
+      </c>
+      <c r="F1864">
+        <v>8</v>
+      </c>
+      <c r="G1864" t="str">
+        <f t="shared" si="29"/>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1865" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1865">
+        <v>20240623</v>
+      </c>
+      <c r="C1865">
+        <v>4</v>
+      </c>
+      <c r="D1865">
+        <v>4</v>
+      </c>
+      <c r="E1865">
+        <v>0</v>
+      </c>
+      <c r="F1865">
+        <v>8</v>
+      </c>
+      <c r="G1865" t="str">
+        <f t="shared" si="29"/>
+        <v>23/06/2024</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1866" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1866">
+        <v>20240618</v>
+      </c>
+      <c r="C1866">
+        <v>4</v>
+      </c>
+      <c r="D1866">
+        <v>3</v>
+      </c>
+      <c r="E1866">
+        <v>0</v>
+      </c>
+      <c r="F1866">
+        <v>7</v>
+      </c>
+      <c r="G1866" t="str">
+        <f t="shared" si="29"/>
+        <v>18/06/2024</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1867" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1867">
+        <v>20240621</v>
+      </c>
+      <c r="C1867">
+        <v>6</v>
+      </c>
+      <c r="D1867">
+        <v>5</v>
+      </c>
+      <c r="E1867">
+        <v>0</v>
+      </c>
+      <c r="F1867">
+        <v>7</v>
+      </c>
+      <c r="G1867" t="str">
+        <f t="shared" si="29"/>
+        <v>21/06/2024</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1868" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1868">
+        <v>20240622</v>
+      </c>
+      <c r="C1868">
+        <v>5</v>
+      </c>
+      <c r="D1868">
+        <v>5</v>
+      </c>
+      <c r="E1868">
+        <v>0</v>
+      </c>
+      <c r="F1868">
+        <v>6</v>
+      </c>
+      <c r="G1868" t="str">
+        <f t="shared" si="29"/>
+        <v>22/06/2024</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1869" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1869">
+        <v>20240617</v>
+      </c>
+      <c r="C1869">
+        <v>3</v>
+      </c>
+      <c r="D1869">
+        <v>3</v>
+      </c>
+      <c r="E1869">
+        <v>0</v>
+      </c>
+      <c r="F1869">
+        <v>6</v>
+      </c>
+      <c r="G1869" t="str">
+        <f t="shared" si="29"/>
+        <v>17/06/2024</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1870" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1870">
+        <v>20240619</v>
+      </c>
+      <c r="C1870">
+        <v>5</v>
+      </c>
+      <c r="D1870">
+        <v>5</v>
+      </c>
+      <c r="E1870">
+        <v>0</v>
+      </c>
+      <c r="F1870">
+        <v>5</v>
+      </c>
+      <c r="G1870" t="str">
+        <f t="shared" si="29"/>
+        <v>19/06/2024</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1871" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1871">
+        <v>20240619</v>
+      </c>
+      <c r="C1871">
+        <v>1</v>
+      </c>
+      <c r="D1871">
+        <v>1</v>
+      </c>
+      <c r="E1871">
+        <v>0</v>
+      </c>
+      <c r="F1871">
+        <v>5</v>
+      </c>
+      <c r="G1871" t="str">
+        <f t="shared" si="29"/>
+        <v>19/06/2024</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1872" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1872">
+        <v>20240618</v>
+      </c>
+      <c r="C1872">
+        <v>2</v>
+      </c>
+      <c r="D1872">
+        <v>2</v>
+      </c>
+      <c r="E1872">
+        <v>0</v>
+      </c>
+      <c r="F1872">
+        <v>5</v>
+      </c>
+      <c r="G1872" t="str">
+        <f t="shared" si="29"/>
+        <v>18/06/2024</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1873" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1873">
+        <v>20240620</v>
+      </c>
+      <c r="C1873">
+        <v>6</v>
+      </c>
+      <c r="D1873">
+        <v>6</v>
+      </c>
+      <c r="E1873">
+        <v>0</v>
+      </c>
+      <c r="F1873">
+        <v>4</v>
+      </c>
+      <c r="G1873" t="str">
+        <f t="shared" si="29"/>
+        <v>20/06/2024</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1874" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1874">
+        <v>20240617</v>
+      </c>
+      <c r="C1874">
+        <v>1</v>
+      </c>
+      <c r="D1874">
+        <v>1</v>
+      </c>
+      <c r="E1874">
+        <v>0</v>
+      </c>
+      <c r="F1874">
+        <v>4</v>
+      </c>
+      <c r="G1874" t="str">
+        <f t="shared" si="29"/>
+        <v>17/06/2024</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1875" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1875">
+        <v>20240620</v>
+      </c>
+      <c r="C1875">
+        <v>1</v>
+      </c>
+      <c r="D1875">
+        <v>1</v>
+      </c>
+      <c r="E1875">
+        <v>0</v>
+      </c>
+      <c r="F1875">
+        <v>3</v>
+      </c>
+      <c r="G1875" t="str">
+        <f t="shared" si="29"/>
+        <v>20/06/2024</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1876" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1876">
+        <v>20240629</v>
+      </c>
+      <c r="C1876">
+        <v>3</v>
+      </c>
+      <c r="D1876">
+        <v>3</v>
+      </c>
+      <c r="E1876">
+        <v>0</v>
+      </c>
+      <c r="F1876">
+        <v>74</v>
+      </c>
+      <c r="G1876" t="str">
+        <f t="shared" si="29"/>
+        <v>29/06/2024</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1877" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1877">
+        <v>20240629</v>
+      </c>
+      <c r="C1877">
+        <v>8</v>
+      </c>
+      <c r="D1877">
+        <v>5</v>
+      </c>
+      <c r="E1877">
+        <v>1</v>
+      </c>
+      <c r="F1877">
+        <v>68</v>
+      </c>
+      <c r="G1877" t="str">
+        <f t="shared" si="29"/>
+        <v>29/06/2024</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1878" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1878">
+        <v>20240626</v>
+      </c>
+      <c r="C1878">
+        <v>11</v>
+      </c>
+      <c r="D1878">
+        <v>10</v>
+      </c>
+      <c r="E1878">
+        <v>0</v>
+      </c>
+      <c r="F1878">
+        <v>66</v>
+      </c>
+      <c r="G1878" t="str">
+        <f t="shared" si="29"/>
+        <v>26/06/2024</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1879" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1879">
+        <v>20240629</v>
+      </c>
+      <c r="C1879">
+        <v>5</v>
+      </c>
+      <c r="D1879">
+        <v>5</v>
+      </c>
+      <c r="E1879">
+        <v>0</v>
+      </c>
+      <c r="F1879">
+        <v>63</v>
+      </c>
+      <c r="G1879" t="str">
+        <f t="shared" si="29"/>
+        <v>29/06/2024</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1880" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1880">
+        <v>20240625</v>
+      </c>
+      <c r="C1880">
+        <v>10</v>
+      </c>
+      <c r="D1880">
+        <v>9</v>
+      </c>
+      <c r="E1880">
+        <v>0</v>
+      </c>
+      <c r="F1880">
+        <v>60</v>
+      </c>
+      <c r="G1880" t="str">
+        <f t="shared" si="29"/>
+        <v>25/06/2024</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1881" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1881">
+        <v>20240630</v>
+      </c>
+      <c r="C1881">
+        <v>19</v>
+      </c>
+      <c r="D1881">
+        <v>13</v>
+      </c>
+      <c r="E1881">
+        <v>0</v>
+      </c>
+      <c r="F1881">
+        <v>37</v>
+      </c>
+      <c r="G1881" t="str">
+        <f t="shared" si="29"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1882" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1882">
+        <v>20240624</v>
+      </c>
+      <c r="C1882">
+        <v>13</v>
+      </c>
+      <c r="D1882">
+        <v>6</v>
+      </c>
+      <c r="E1882">
+        <v>0</v>
+      </c>
+      <c r="F1882">
+        <v>35</v>
+      </c>
+      <c r="G1882" t="str">
+        <f t="shared" si="29"/>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1883" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1883">
+        <v>20240626</v>
+      </c>
+      <c r="C1883">
+        <v>14</v>
+      </c>
+      <c r="D1883">
+        <v>10</v>
+      </c>
+      <c r="E1883">
+        <v>1</v>
+      </c>
+      <c r="F1883">
+        <v>34</v>
+      </c>
+      <c r="G1883" t="str">
+        <f t="shared" si="29"/>
+        <v>26/06/2024</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1884" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1884">
+        <v>20240626</v>
+      </c>
+      <c r="C1884">
+        <v>1</v>
+      </c>
+      <c r="D1884">
+        <v>1</v>
+      </c>
+      <c r="E1884">
+        <v>0</v>
+      </c>
+      <c r="F1884">
+        <v>33</v>
+      </c>
+      <c r="G1884" t="str">
+        <f t="shared" si="29"/>
+        <v>26/06/2024</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1885" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1885">
+        <v>20240624</v>
+      </c>
+      <c r="C1885">
+        <v>15</v>
+      </c>
+      <c r="D1885">
+        <v>14</v>
+      </c>
+      <c r="E1885">
+        <v>1</v>
+      </c>
+      <c r="F1885">
+        <v>32</v>
+      </c>
+      <c r="G1885" t="str">
+        <f t="shared" si="29"/>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1886" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1886">
+        <v>20240628</v>
+      </c>
+      <c r="C1886">
+        <v>9</v>
+      </c>
+      <c r="D1886">
+        <v>8</v>
+      </c>
+      <c r="E1886">
+        <v>0</v>
+      </c>
+      <c r="F1886">
+        <v>31</v>
+      </c>
+      <c r="G1886" t="str">
+        <f t="shared" si="29"/>
+        <v>28/06/2024</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1887" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1887">
+        <v>20240630</v>
+      </c>
+      <c r="C1887">
+        <v>8</v>
+      </c>
+      <c r="D1887">
+        <v>7</v>
+      </c>
+      <c r="E1887">
+        <v>0</v>
+      </c>
+      <c r="F1887">
+        <v>27</v>
+      </c>
+      <c r="G1887" t="str">
+        <f t="shared" si="29"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1888" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1888">
+        <v>20240624</v>
+      </c>
+      <c r="C1888">
+        <v>9</v>
+      </c>
+      <c r="D1888">
+        <v>9</v>
+      </c>
+      <c r="E1888">
+        <v>0</v>
+      </c>
+      <c r="F1888">
+        <v>27</v>
+      </c>
+      <c r="G1888" t="str">
+        <f t="shared" si="29"/>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1889" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1889">
+        <v>20240630</v>
+      </c>
+      <c r="C1889">
+        <v>6</v>
+      </c>
+      <c r="D1889">
+        <v>6</v>
+      </c>
+      <c r="E1889">
+        <v>0</v>
+      </c>
+      <c r="F1889">
+        <v>27</v>
+      </c>
+      <c r="G1889" t="str">
+        <f t="shared" si="29"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1890" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1890">
+        <v>20240625</v>
+      </c>
+      <c r="C1890">
+        <v>17</v>
+      </c>
+      <c r="D1890">
+        <v>14</v>
+      </c>
+      <c r="E1890">
+        <v>1</v>
+      </c>
+      <c r="F1890">
+        <v>26</v>
+      </c>
+      <c r="G1890" t="str">
+        <f t="shared" si="29"/>
+        <v>25/06/2024</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1891" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1891">
+        <v>20240627</v>
+      </c>
+      <c r="C1891">
+        <v>13</v>
+      </c>
+      <c r="D1891">
+        <v>12</v>
+      </c>
+      <c r="E1891">
+        <v>1</v>
+      </c>
+      <c r="F1891">
+        <v>22</v>
+      </c>
+      <c r="G1891" t="str">
+        <f t="shared" si="29"/>
+        <v>27/06/2024</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1892" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1892">
+        <v>20240628</v>
+      </c>
+      <c r="C1892">
+        <v>3</v>
+      </c>
+      <c r="D1892">
+        <v>2</v>
+      </c>
+      <c r="E1892">
+        <v>0</v>
+      </c>
+      <c r="F1892">
+        <v>21</v>
+      </c>
+      <c r="G1892" t="str">
+        <f t="shared" si="29"/>
+        <v>28/06/2024</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1893" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1893">
+        <v>20240628</v>
+      </c>
+      <c r="C1893">
+        <v>11</v>
+      </c>
+      <c r="D1893">
+        <v>8</v>
+      </c>
+      <c r="E1893">
+        <v>0</v>
+      </c>
+      <c r="F1893">
+        <v>21</v>
+      </c>
+      <c r="G1893" t="str">
+        <f t="shared" si="29"/>
+        <v>28/06/2024</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1894" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1894">
+        <v>20240629</v>
+      </c>
+      <c r="C1894">
+        <v>2</v>
+      </c>
+      <c r="D1894">
+        <v>2</v>
+      </c>
+      <c r="E1894">
+        <v>0</v>
+      </c>
+      <c r="F1894">
+        <v>20</v>
+      </c>
+      <c r="G1894" t="str">
+        <f t="shared" si="29"/>
+        <v>29/06/2024</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1895" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1895">
+        <v>20240627</v>
+      </c>
+      <c r="C1895">
+        <v>14</v>
+      </c>
+      <c r="D1895">
+        <v>13</v>
+      </c>
+      <c r="E1895">
+        <v>0</v>
+      </c>
+      <c r="F1895">
+        <v>20</v>
+      </c>
+      <c r="G1895" t="str">
+        <f t="shared" si="29"/>
+        <v>27/06/2024</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1896" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1896">
+        <v>20240625</v>
+      </c>
+      <c r="C1896">
+        <v>10</v>
+      </c>
+      <c r="D1896">
+        <v>10</v>
+      </c>
+      <c r="E1896">
+        <v>0</v>
+      </c>
+      <c r="F1896">
+        <v>20</v>
+      </c>
+      <c r="G1896" t="str">
+        <f t="shared" si="29"/>
+        <v>25/06/2024</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1897" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1897">
+        <v>20240629</v>
+      </c>
+      <c r="C1897">
+        <v>19</v>
+      </c>
+      <c r="D1897">
+        <v>11</v>
+      </c>
+      <c r="E1897">
+        <v>0</v>
+      </c>
+      <c r="F1897">
+        <v>17</v>
+      </c>
+      <c r="G1897" t="str">
+        <f t="shared" si="29"/>
+        <v>29/06/2024</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1898" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1898">
+        <v>20240627</v>
+      </c>
+      <c r="C1898">
+        <v>2</v>
+      </c>
+      <c r="D1898">
+        <v>2</v>
+      </c>
+      <c r="E1898">
+        <v>0</v>
+      </c>
+      <c r="F1898">
+        <v>15</v>
+      </c>
+      <c r="G1898" t="str">
+        <f t="shared" si="29"/>
+        <v>27/06/2024</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1899" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1899">
+        <v>20240627</v>
+      </c>
+      <c r="C1899">
+        <v>7</v>
+      </c>
+      <c r="D1899">
+        <v>6</v>
+      </c>
+      <c r="E1899">
+        <v>0</v>
+      </c>
+      <c r="F1899">
+        <v>14</v>
+      </c>
+      <c r="G1899" t="str">
+        <f t="shared" si="29"/>
+        <v>27/06/2024</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1900" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1900">
+        <v>20240624</v>
+      </c>
+      <c r="C1900">
+        <v>41</v>
+      </c>
+      <c r="D1900">
+        <v>37</v>
+      </c>
+      <c r="E1900">
+        <v>0</v>
+      </c>
+      <c r="F1900">
+        <v>13</v>
+      </c>
+      <c r="G1900" t="str">
+        <f t="shared" si="29"/>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1901" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1901">
+        <v>20240628</v>
+      </c>
+      <c r="C1901">
+        <v>2</v>
+      </c>
+      <c r="D1901">
+        <v>2</v>
+      </c>
+      <c r="E1901">
+        <v>0</v>
+      </c>
+      <c r="F1901">
+        <v>13</v>
+      </c>
+      <c r="G1901" t="str">
+        <f t="shared" si="29"/>
+        <v>28/06/2024</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1902" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1902">
+        <v>20240630</v>
+      </c>
+      <c r="C1902">
+        <v>4</v>
+      </c>
+      <c r="D1902">
+        <v>4</v>
+      </c>
+      <c r="E1902">
+        <v>0</v>
+      </c>
+      <c r="F1902">
+        <v>12</v>
+      </c>
+      <c r="G1902" t="str">
+        <f t="shared" si="29"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1903" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1903">
+        <v>20240630</v>
+      </c>
+      <c r="C1903">
+        <v>10</v>
+      </c>
+      <c r="D1903">
+        <v>10</v>
+      </c>
+      <c r="E1903">
+        <v>1</v>
+      </c>
+      <c r="F1903">
+        <v>12</v>
+      </c>
+      <c r="G1903" t="str">
+        <f t="shared" si="29"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1904" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1904">
+        <v>20240624</v>
+      </c>
+      <c r="C1904">
+        <v>3</v>
+      </c>
+      <c r="D1904">
+        <v>3</v>
+      </c>
+      <c r="E1904">
+        <v>0</v>
+      </c>
+      <c r="F1904">
+        <v>12</v>
+      </c>
+      <c r="G1904" t="str">
+        <f t="shared" si="29"/>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1905" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1905">
+        <v>20240628</v>
+      </c>
+      <c r="C1905">
+        <v>7</v>
+      </c>
+      <c r="D1905">
+        <v>6</v>
+      </c>
+      <c r="E1905">
+        <v>0</v>
+      </c>
+      <c r="F1905">
+        <v>12</v>
+      </c>
+      <c r="G1905" t="str">
+        <f t="shared" si="29"/>
+        <v>28/06/2024</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1906" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1906">
+        <v>20240625</v>
+      </c>
+      <c r="C1906">
+        <v>3</v>
+      </c>
+      <c r="D1906">
+        <v>2</v>
+      </c>
+      <c r="E1906">
+        <v>0</v>
+      </c>
+      <c r="F1906">
+        <v>12</v>
+      </c>
+      <c r="G1906" t="str">
+        <f t="shared" si="29"/>
+        <v>25/06/2024</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1907" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1907">
+        <v>20240626</v>
+      </c>
+      <c r="C1907">
+        <v>4</v>
+      </c>
+      <c r="D1907">
+        <v>2</v>
+      </c>
+      <c r="E1907">
+        <v>0</v>
+      </c>
+      <c r="F1907">
+        <v>11</v>
+      </c>
+      <c r="G1907" t="str">
+        <f t="shared" si="29"/>
+        <v>26/06/2024</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1908" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1908">
+        <v>20240626</v>
+      </c>
+      <c r="C1908">
+        <v>9</v>
+      </c>
+      <c r="D1908">
+        <v>9</v>
+      </c>
+      <c r="E1908">
+        <v>0</v>
+      </c>
+      <c r="F1908">
+        <v>9</v>
+      </c>
+      <c r="G1908" t="str">
+        <f t="shared" si="29"/>
+        <v>26/06/2024</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1909" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1909">
+        <v>20240625</v>
+      </c>
+      <c r="C1909">
+        <v>5</v>
+      </c>
+      <c r="D1909">
+        <v>5</v>
+      </c>
+      <c r="E1909">
+        <v>1</v>
+      </c>
+      <c r="F1909">
+        <v>8</v>
+      </c>
+      <c r="G1909" t="str">
+        <f t="shared" si="29"/>
+        <v>25/06/2024</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1910" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1910">
+        <v>20240626</v>
+      </c>
+      <c r="C1910">
+        <v>3</v>
+      </c>
+      <c r="D1910">
+        <v>2</v>
+      </c>
+      <c r="E1910">
+        <v>0</v>
+      </c>
+      <c r="F1910">
+        <v>8</v>
+      </c>
+      <c r="G1910" t="str">
+        <f t="shared" si="29"/>
+        <v>26/06/2024</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1911" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1911">
+        <v>20240627</v>
+      </c>
+      <c r="C1911">
+        <v>5</v>
+      </c>
+      <c r="D1911">
+        <v>4</v>
+      </c>
+      <c r="E1911">
+        <v>0</v>
+      </c>
+      <c r="F1911">
+        <v>7</v>
+      </c>
+      <c r="G1911" t="str">
+        <f t="shared" si="29"/>
+        <v>27/06/2024</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1912" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1912">
+        <v>20240630</v>
+      </c>
+      <c r="C1912">
+        <v>7</v>
+      </c>
+      <c r="D1912">
+        <v>7</v>
+      </c>
+      <c r="E1912">
+        <v>0</v>
+      </c>
+      <c r="F1912">
+        <v>7</v>
+      </c>
+      <c r="G1912" t="str">
+        <f t="shared" si="29"/>
+        <v>30/06/2024</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1913" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1913">
+        <v>20240627</v>
+      </c>
+      <c r="C1913">
+        <v>18</v>
+      </c>
+      <c r="D1913">
+        <v>16</v>
+      </c>
+      <c r="E1913">
+        <v>0</v>
+      </c>
+      <c r="F1913">
+        <v>6</v>
+      </c>
+      <c r="G1913" t="str">
+        <f t="shared" si="29"/>
+        <v>27/06/2024</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1914" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1914">
+        <v>20240625</v>
+      </c>
+      <c r="C1914">
+        <v>17</v>
+      </c>
+      <c r="D1914">
+        <v>17</v>
+      </c>
+      <c r="E1914">
+        <v>0</v>
+      </c>
+      <c r="F1914">
+        <v>5</v>
+      </c>
+      <c r="G1914" t="str">
+        <f t="shared" ref="G1914:G1977" si="30">_xlfn.CONCAT(RIGHT(B1914,2),"/",MID(B1914,5,2),"/",LEFT(B1914,4))</f>
+        <v>25/06/2024</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1915" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1915">
+        <v>20240624</v>
+      </c>
+      <c r="C1915">
+        <v>1</v>
+      </c>
+      <c r="D1915">
+        <v>1</v>
+      </c>
+      <c r="E1915">
+        <v>0</v>
+      </c>
+      <c r="F1915">
+        <v>5</v>
+      </c>
+      <c r="G1915" t="str">
+        <f t="shared" si="30"/>
+        <v>24/06/2024</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1916" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1916">
+        <v>20240628</v>
+      </c>
+      <c r="C1916">
+        <v>2</v>
+      </c>
+      <c r="D1916">
+        <v>2</v>
+      </c>
+      <c r="E1916">
+        <v>0</v>
+      </c>
+      <c r="F1916">
+        <v>4</v>
+      </c>
+      <c r="G1916" t="str">
+        <f t="shared" si="30"/>
+        <v>28/06/2024</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1917" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1917">
+        <v>20240629</v>
+      </c>
+      <c r="C1917">
+        <v>8</v>
+      </c>
+      <c r="D1917">
+        <v>6</v>
+      </c>
+      <c r="E1917">
+        <v>2</v>
+      </c>
+      <c r="F1917">
+        <v>2</v>
+      </c>
+      <c r="G1917" t="str">
+        <f t="shared" si="30"/>
+        <v>29/06/2024</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1918" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1918">
+        <v>20240703</v>
+      </c>
+      <c r="C1918">
+        <v>5</v>
+      </c>
+      <c r="D1918">
+        <v>4</v>
+      </c>
+      <c r="E1918">
+        <v>0</v>
+      </c>
+      <c r="F1918">
+        <v>76</v>
+      </c>
+      <c r="G1918" t="str">
+        <f t="shared" si="30"/>
+        <v>03/07/2024</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1919" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1919">
+        <v>20240703</v>
+      </c>
+      <c r="C1919">
+        <v>8</v>
+      </c>
+      <c r="D1919">
+        <v>6</v>
+      </c>
+      <c r="E1919">
+        <v>0</v>
+      </c>
+      <c r="F1919" s="1">
+        <v>59</v>
+      </c>
+      <c r="G1919" t="str">
+        <f t="shared" si="30"/>
+        <v>03/07/2024</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1920" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1920">
+        <v>20240706</v>
+      </c>
+      <c r="C1920">
+        <v>5</v>
+      </c>
+      <c r="D1920">
+        <v>4</v>
+      </c>
+      <c r="E1920">
+        <v>0</v>
+      </c>
+      <c r="F1920">
+        <v>51</v>
+      </c>
+      <c r="G1920" t="str">
+        <f t="shared" si="30"/>
+        <v>06/07/2024</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1921" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1921">
+        <v>20240701</v>
+      </c>
+      <c r="C1921">
+        <v>7</v>
+      </c>
+      <c r="D1921">
+        <v>5</v>
+      </c>
+      <c r="E1921">
+        <v>0</v>
+      </c>
+      <c r="F1921" s="1">
+        <v>41</v>
+      </c>
+      <c r="G1921" t="str">
+        <f t="shared" si="30"/>
+        <v>01/07/2024</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1922" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1922">
+        <v>20240704</v>
+      </c>
+      <c r="C1922">
+        <v>13</v>
+      </c>
+      <c r="D1922">
+        <v>11</v>
+      </c>
+      <c r="E1922">
+        <v>0</v>
+      </c>
+      <c r="F1922" s="1">
+        <v>32</v>
+      </c>
+      <c r="G1922" t="str">
+        <f t="shared" si="30"/>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1923" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1923">
+        <v>20240702</v>
+      </c>
+      <c r="C1923">
+        <v>18</v>
+      </c>
+      <c r="D1923">
+        <v>15</v>
+      </c>
+      <c r="E1923">
+        <v>1</v>
+      </c>
+      <c r="F1923" s="1">
+        <v>31</v>
+      </c>
+      <c r="G1923" t="str">
+        <f t="shared" si="30"/>
+        <v>02/07/2024</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1924" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1924">
+        <v>20240704</v>
+      </c>
+      <c r="C1924">
+        <v>3</v>
+      </c>
+      <c r="D1924">
+        <v>3</v>
+      </c>
+      <c r="E1924">
+        <v>0</v>
+      </c>
+      <c r="F1924" s="1">
+        <v>29</v>
+      </c>
+      <c r="G1924" t="str">
+        <f t="shared" si="30"/>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1925" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1925">
+        <v>20240701</v>
+      </c>
+      <c r="C1925">
+        <v>2</v>
+      </c>
+      <c r="D1925">
+        <v>2</v>
+      </c>
+      <c r="E1925">
+        <v>0</v>
+      </c>
+      <c r="F1925">
+        <v>28</v>
+      </c>
+      <c r="G1925" t="str">
+        <f t="shared" si="30"/>
+        <v>01/07/2024</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1926" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1926">
+        <v>20240702</v>
+      </c>
+      <c r="C1926">
+        <v>5</v>
+      </c>
+      <c r="D1926">
+        <v>5</v>
+      </c>
+      <c r="E1926">
+        <v>0</v>
+      </c>
+      <c r="F1926">
+        <v>27</v>
+      </c>
+      <c r="G1926" t="str">
+        <f t="shared" si="30"/>
+        <v>02/07/2024</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1927" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1927">
+        <v>20240706</v>
+      </c>
+      <c r="C1927">
+        <v>14</v>
+      </c>
+      <c r="D1927">
+        <v>12</v>
+      </c>
+      <c r="E1927">
+        <v>0</v>
+      </c>
+      <c r="F1927" s="1">
+        <v>25</v>
+      </c>
+      <c r="G1927" t="str">
+        <f t="shared" si="30"/>
+        <v>06/07/2024</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1928" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1928">
+        <v>20240701</v>
+      </c>
+      <c r="C1928">
+        <v>14</v>
+      </c>
+      <c r="D1928">
+        <v>14</v>
+      </c>
+      <c r="E1928">
+        <v>0</v>
+      </c>
+      <c r="F1928" s="1">
+        <v>24</v>
+      </c>
+      <c r="G1928" t="str">
+        <f t="shared" si="30"/>
+        <v>01/07/2024</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1929" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1929">
+        <v>20240706</v>
+      </c>
+      <c r="C1929">
+        <v>11</v>
+      </c>
+      <c r="D1929">
+        <v>9</v>
+      </c>
+      <c r="E1929">
+        <v>0</v>
+      </c>
+      <c r="F1929" s="1">
+        <v>22</v>
+      </c>
+      <c r="G1929" t="str">
+        <f t="shared" si="30"/>
+        <v>06/07/2024</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1930" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1930">
+        <v>20240704</v>
+      </c>
+      <c r="C1930">
+        <v>5</v>
+      </c>
+      <c r="D1930">
+        <v>5</v>
+      </c>
+      <c r="E1930">
+        <v>0</v>
+      </c>
+      <c r="F1930">
+        <v>20</v>
+      </c>
+      <c r="G1930" t="str">
+        <f t="shared" si="30"/>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1931" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1931">
+        <v>20240705</v>
+      </c>
+      <c r="C1931">
+        <v>2</v>
+      </c>
+      <c r="D1931">
+        <v>2</v>
+      </c>
+      <c r="E1931">
+        <v>0</v>
+      </c>
+      <c r="F1931">
+        <v>19</v>
+      </c>
+      <c r="G1931" t="str">
+        <f t="shared" si="30"/>
+        <v>05/07/2024</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1932" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1932">
+        <v>20240705</v>
+      </c>
+      <c r="C1932">
+        <v>19</v>
+      </c>
+      <c r="D1932">
+        <v>16</v>
+      </c>
+      <c r="E1932">
+        <v>0</v>
+      </c>
+      <c r="F1932" s="1">
+        <v>17</v>
+      </c>
+      <c r="G1932" t="str">
+        <f t="shared" si="30"/>
+        <v>05/07/2024</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1933" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1933">
+        <v>20240707</v>
+      </c>
+      <c r="C1933">
+        <v>16</v>
+      </c>
+      <c r="D1933">
+        <v>9</v>
+      </c>
+      <c r="E1933">
+        <v>0</v>
+      </c>
+      <c r="F1933" s="1">
+        <v>17</v>
+      </c>
+      <c r="G1933" t="str">
+        <f t="shared" si="30"/>
+        <v>07/07/2024</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1934" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1934">
+        <v>20240707</v>
+      </c>
+      <c r="C1934">
+        <v>4</v>
+      </c>
+      <c r="D1934">
+        <v>4</v>
+      </c>
+      <c r="E1934">
+        <v>0</v>
+      </c>
+      <c r="F1934">
+        <v>16</v>
+      </c>
+      <c r="G1934" t="str">
+        <f t="shared" si="30"/>
+        <v>07/07/2024</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1935" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1935">
+        <v>20240704</v>
+      </c>
+      <c r="C1935">
+        <v>13</v>
+      </c>
+      <c r="D1935">
+        <v>12</v>
+      </c>
+      <c r="E1935">
+        <v>0</v>
+      </c>
+      <c r="F1935" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1935" t="str">
+        <f t="shared" si="30"/>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1936" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1936">
+        <v>20240702</v>
+      </c>
+      <c r="C1936">
+        <v>8</v>
+      </c>
+      <c r="D1936">
+        <v>8</v>
+      </c>
+      <c r="E1936">
+        <v>0</v>
+      </c>
+      <c r="F1936">
+        <v>14</v>
+      </c>
+      <c r="G1936" t="str">
+        <f t="shared" si="30"/>
+        <v>02/07/2024</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1937" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1937">
+        <v>20240703</v>
+      </c>
+      <c r="C1937">
+        <v>13</v>
+      </c>
+      <c r="D1937">
+        <v>12</v>
+      </c>
+      <c r="E1937">
+        <v>0</v>
+      </c>
+      <c r="F1937" s="1">
+        <v>12</v>
+      </c>
+      <c r="G1937" t="str">
+        <f t="shared" si="30"/>
+        <v>03/07/2024</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1938" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1938">
+        <v>20240702</v>
+      </c>
+      <c r="C1938">
+        <v>1</v>
+      </c>
+      <c r="D1938">
+        <v>1</v>
+      </c>
+      <c r="E1938">
+        <v>0</v>
+      </c>
+      <c r="F1938">
+        <v>12</v>
+      </c>
+      <c r="G1938" t="str">
+        <f t="shared" si="30"/>
+        <v>02/07/2024</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1939" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1939">
+        <v>20240707</v>
+      </c>
+      <c r="C1939">
+        <v>2</v>
+      </c>
+      <c r="D1939">
+        <v>2</v>
+      </c>
+      <c r="E1939">
+        <v>0</v>
+      </c>
+      <c r="F1939">
+        <v>12</v>
+      </c>
+      <c r="G1939" t="str">
+        <f t="shared" si="30"/>
+        <v>07/07/2024</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1940" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1940">
+        <v>20240705</v>
+      </c>
+      <c r="C1940">
+        <v>4</v>
+      </c>
+      <c r="D1940">
+        <v>4</v>
+      </c>
+      <c r="E1940">
+        <v>0</v>
+      </c>
+      <c r="F1940">
+        <v>11</v>
+      </c>
+      <c r="G1940" t="str">
+        <f t="shared" si="30"/>
+        <v>05/07/2024</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1941" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1941">
+        <v>20240705</v>
+      </c>
+      <c r="C1941">
+        <v>7</v>
+      </c>
+      <c r="D1941">
+        <v>7</v>
+      </c>
+      <c r="E1941">
+        <v>0</v>
+      </c>
+      <c r="F1941" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1941" t="str">
+        <f t="shared" si="30"/>
+        <v>05/07/2024</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1942" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1942">
+        <v>20240707</v>
+      </c>
+      <c r="C1942">
+        <v>5</v>
+      </c>
+      <c r="D1942">
+        <v>4</v>
+      </c>
+      <c r="E1942">
+        <v>0</v>
+      </c>
+      <c r="F1942">
+        <v>9</v>
+      </c>
+      <c r="G1942" t="str">
+        <f t="shared" si="30"/>
+        <v>07/07/2024</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1943" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1943">
+        <v>20240703</v>
+      </c>
+      <c r="C1943">
+        <v>5</v>
+      </c>
+      <c r="D1943">
+        <v>4</v>
+      </c>
+      <c r="E1943">
+        <v>0</v>
+      </c>
+      <c r="F1943">
+        <v>8</v>
+      </c>
+      <c r="G1943" t="str">
+        <f t="shared" si="30"/>
+        <v>03/07/2024</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1944" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1944">
+        <v>20240704</v>
+      </c>
+      <c r="C1944">
+        <v>3</v>
+      </c>
+      <c r="D1944">
+        <v>3</v>
+      </c>
+      <c r="E1944">
+        <v>0</v>
+      </c>
+      <c r="F1944" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1944" t="str">
+        <f t="shared" si="30"/>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1945" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1945">
+        <v>20240704</v>
+      </c>
+      <c r="C1945">
+        <v>10</v>
+      </c>
+      <c r="D1945">
+        <v>9</v>
+      </c>
+      <c r="E1945">
+        <v>0</v>
+      </c>
+      <c r="F1945">
+        <v>7</v>
+      </c>
+      <c r="G1945" t="str">
+        <f t="shared" si="30"/>
+        <v>04/07/2024</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1946" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1946">
+        <v>20240701</v>
+      </c>
+      <c r="C1946">
+        <v>1</v>
+      </c>
+      <c r="D1946">
+        <v>1</v>
+      </c>
+      <c r="E1946">
+        <v>0</v>
+      </c>
+      <c r="F1946">
+        <v>7</v>
+      </c>
+      <c r="G1946" t="str">
+        <f t="shared" si="30"/>
+        <v>01/07/2024</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1947" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1947">
+        <v>20240707</v>
+      </c>
+      <c r="C1947">
+        <v>3</v>
+      </c>
+      <c r="D1947">
+        <v>2</v>
+      </c>
+      <c r="E1947">
+        <v>0</v>
+      </c>
+      <c r="F1947" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1947" t="str">
+        <f t="shared" si="30"/>
+        <v>07/07/2024</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1948" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1948">
+        <v>20240701</v>
+      </c>
+      <c r="C1948">
+        <v>4</v>
+      </c>
+      <c r="D1948">
+        <v>4</v>
+      </c>
+      <c r="E1948">
+        <v>0</v>
+      </c>
+      <c r="F1948">
+        <v>6</v>
+      </c>
+      <c r="G1948" t="str">
+        <f t="shared" si="30"/>
+        <v>01/07/2024</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1949" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1949">
+        <v>20240706</v>
+      </c>
+      <c r="C1949">
+        <v>1</v>
+      </c>
+      <c r="D1949">
+        <v>1</v>
+      </c>
+      <c r="E1949">
+        <v>0</v>
+      </c>
+      <c r="F1949">
+        <v>6</v>
+      </c>
+      <c r="G1949" t="str">
+        <f t="shared" si="30"/>
+        <v>06/07/2024</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1950" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1950">
+        <v>20240705</v>
+      </c>
+      <c r="C1950">
+        <v>3</v>
+      </c>
+      <c r="D1950">
+        <v>3</v>
+      </c>
+      <c r="E1950">
+        <v>0</v>
+      </c>
+      <c r="F1950" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1950" t="str">
+        <f t="shared" si="30"/>
+        <v>05/07/2024</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1951" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1951">
+        <v>20240706</v>
+      </c>
+      <c r="C1951">
+        <v>4</v>
+      </c>
+      <c r="D1951">
+        <v>3</v>
+      </c>
+      <c r="E1951">
+        <v>0</v>
+      </c>
+      <c r="F1951">
+        <v>5</v>
+      </c>
+      <c r="G1951" t="str">
+        <f t="shared" si="30"/>
+        <v>06/07/2024</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1952" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1952">
+        <v>20240701</v>
+      </c>
+      <c r="C1952">
+        <v>1</v>
+      </c>
+      <c r="D1952">
+        <v>1</v>
+      </c>
+      <c r="E1952">
+        <v>0</v>
+      </c>
+      <c r="F1952">
+        <v>5</v>
+      </c>
+      <c r="G1952" t="str">
+        <f t="shared" si="30"/>
+        <v>01/07/2024</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1953" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1953">
+        <v>20240702</v>
+      </c>
+      <c r="C1953">
+        <v>2</v>
+      </c>
+      <c r="D1953">
+        <v>2</v>
+      </c>
+      <c r="E1953">
+        <v>0</v>
+      </c>
+      <c r="F1953">
+        <v>5</v>
+      </c>
+      <c r="G1953" t="str">
+        <f t="shared" si="30"/>
+        <v>02/07/2024</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1954" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1954">
+        <v>20240702</v>
+      </c>
+      <c r="C1954">
+        <v>1</v>
+      </c>
+      <c r="D1954">
+        <v>1</v>
+      </c>
+      <c r="E1954">
+        <v>0</v>
+      </c>
+      <c r="F1954">
+        <v>5</v>
+      </c>
+      <c r="G1954" t="str">
+        <f t="shared" si="30"/>
+        <v>02/07/2024</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1955" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1955">
+        <v>20240703</v>
+      </c>
+      <c r="C1955">
+        <v>2</v>
+      </c>
+      <c r="D1955">
+        <v>2</v>
+      </c>
+      <c r="E1955">
+        <v>0</v>
+      </c>
+      <c r="F1955">
+        <v>4</v>
+      </c>
+      <c r="G1955" t="str">
+        <f t="shared" si="30"/>
+        <v>03/07/2024</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1956" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1956">
+        <v>20240707</v>
+      </c>
+      <c r="C1956">
+        <v>1</v>
+      </c>
+      <c r="D1956">
+        <v>1</v>
+      </c>
+      <c r="E1956">
+        <v>0</v>
+      </c>
+      <c r="F1956">
+        <v>3</v>
+      </c>
+      <c r="G1956" t="str">
+        <f t="shared" si="30"/>
+        <v>07/07/2024</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1957" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1957">
+        <v>20240706</v>
+      </c>
+      <c r="C1957">
+        <v>1</v>
+      </c>
+      <c r="D1957">
+        <v>1</v>
+      </c>
+      <c r="E1957">
+        <v>0</v>
+      </c>
+      <c r="F1957">
+        <v>2</v>
+      </c>
+      <c r="G1957" t="str">
+        <f t="shared" si="30"/>
+        <v>06/07/2024</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1958" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1958">
+        <v>20240714</v>
+      </c>
+      <c r="C1958">
+        <v>11</v>
+      </c>
+      <c r="D1958">
+        <v>10</v>
+      </c>
+      <c r="E1958">
+        <v>0</v>
+      </c>
+      <c r="F1958">
+        <v>136</v>
+      </c>
+      <c r="G1958" t="str">
+        <f t="shared" si="30"/>
+        <v>14/07/2024</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1959" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1959">
+        <v>20240712</v>
+      </c>
+      <c r="C1959">
+        <v>5</v>
+      </c>
+      <c r="D1959">
+        <v>2</v>
+      </c>
+      <c r="E1959">
+        <v>0</v>
+      </c>
+      <c r="F1959">
+        <v>108</v>
+      </c>
+      <c r="G1959" t="str">
+        <f t="shared" si="30"/>
+        <v>12/07/2024</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1960" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1960">
+        <v>20240713</v>
+      </c>
+      <c r="C1960">
+        <v>17</v>
+      </c>
+      <c r="D1960">
+        <v>14</v>
+      </c>
+      <c r="E1960">
+        <v>1</v>
+      </c>
+      <c r="F1960">
+        <v>82</v>
+      </c>
+      <c r="G1960" t="str">
+        <f t="shared" si="30"/>
+        <v>13/07/2024</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1961" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1961">
+        <v>20240714</v>
+      </c>
+      <c r="C1961">
+        <v>5</v>
+      </c>
+      <c r="D1961">
+        <v>5</v>
+      </c>
+      <c r="E1961">
+        <v>0</v>
+      </c>
+      <c r="F1961">
+        <v>58</v>
+      </c>
+      <c r="G1961" t="str">
+        <f t="shared" si="30"/>
+        <v>14/07/2024</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1962" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1962">
+        <v>20240710</v>
+      </c>
+      <c r="C1962">
+        <v>11</v>
+      </c>
+      <c r="D1962">
+        <v>11</v>
+      </c>
+      <c r="E1962">
+        <v>1</v>
+      </c>
+      <c r="F1962">
+        <v>46</v>
+      </c>
+      <c r="G1962" t="str">
+        <f t="shared" si="30"/>
+        <v>10/07/2024</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1963" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1963">
+        <v>20240709</v>
+      </c>
+      <c r="C1963">
+        <v>3</v>
+      </c>
+      <c r="D1963">
+        <v>3</v>
+      </c>
+      <c r="E1963">
+        <v>0</v>
+      </c>
+      <c r="F1963">
+        <v>40</v>
+      </c>
+      <c r="G1963" t="str">
+        <f t="shared" si="30"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1964" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1964">
+        <v>20240709</v>
+      </c>
+      <c r="C1964">
+        <v>3</v>
+      </c>
+      <c r="D1964">
+        <v>3</v>
+      </c>
+      <c r="E1964">
+        <v>0</v>
+      </c>
+      <c r="F1964">
+        <v>28</v>
+      </c>
+      <c r="G1964" t="str">
+        <f t="shared" si="30"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1965" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1965">
+        <v>20240711</v>
+      </c>
+      <c r="C1965">
+        <v>26</v>
+      </c>
+      <c r="D1965">
+        <v>19</v>
+      </c>
+      <c r="E1965">
+        <v>0</v>
+      </c>
+      <c r="F1965">
+        <v>24</v>
+      </c>
+      <c r="G1965" t="str">
+        <f t="shared" si="30"/>
+        <v>11/07/2024</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1966" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1966">
+        <v>20240712</v>
+      </c>
+      <c r="C1966">
+        <v>31</v>
+      </c>
+      <c r="D1966">
+        <v>22</v>
+      </c>
+      <c r="E1966">
+        <v>3</v>
+      </c>
+      <c r="F1966">
+        <v>22</v>
+      </c>
+      <c r="G1966" t="str">
+        <f t="shared" si="30"/>
+        <v>12/07/2024</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1967" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1967">
+        <v>20240714</v>
+      </c>
+      <c r="C1967">
+        <v>1</v>
+      </c>
+      <c r="D1967">
+        <v>1</v>
+      </c>
+      <c r="E1967">
+        <v>0</v>
+      </c>
+      <c r="F1967">
+        <v>22</v>
+      </c>
+      <c r="G1967" t="str">
+        <f t="shared" si="30"/>
+        <v>14/07/2024</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1968" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1968">
+        <v>20240711</v>
+      </c>
+      <c r="C1968">
+        <v>7</v>
+      </c>
+      <c r="D1968">
+        <v>6</v>
+      </c>
+      <c r="E1968">
+        <v>0</v>
+      </c>
+      <c r="F1968">
+        <v>19</v>
+      </c>
+      <c r="G1968" t="str">
+        <f t="shared" si="30"/>
+        <v>11/07/2024</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1969" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1969">
+        <v>20240709</v>
+      </c>
+      <c r="C1969">
+        <v>27</v>
+      </c>
+      <c r="D1969">
+        <v>22</v>
+      </c>
+      <c r="E1969">
+        <v>0</v>
+      </c>
+      <c r="F1969">
+        <v>18</v>
+      </c>
+      <c r="G1969" t="str">
+        <f t="shared" si="30"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1970" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1970">
+        <v>20240708</v>
+      </c>
+      <c r="C1970">
+        <v>22</v>
+      </c>
+      <c r="D1970">
+        <v>13</v>
+      </c>
+      <c r="E1970">
+        <v>0</v>
+      </c>
+      <c r="F1970">
+        <v>18</v>
+      </c>
+      <c r="G1970" t="str">
+        <f t="shared" si="30"/>
+        <v>08/07/2024</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1971" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1971">
+        <v>20240709</v>
+      </c>
+      <c r="C1971">
+        <v>5</v>
+      </c>
+      <c r="D1971">
+        <v>5</v>
+      </c>
+      <c r="E1971">
+        <v>0</v>
+      </c>
+      <c r="F1971">
+        <v>18</v>
+      </c>
+      <c r="G1971" t="str">
+        <f t="shared" si="30"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1972" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1972">
+        <v>20240708</v>
+      </c>
+      <c r="C1972">
+        <v>3</v>
+      </c>
+      <c r="D1972">
+        <v>3</v>
+      </c>
+      <c r="E1972">
+        <v>0</v>
+      </c>
+      <c r="F1972">
+        <v>18</v>
+      </c>
+      <c r="G1972" t="str">
+        <f t="shared" si="30"/>
+        <v>08/07/2024</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1973" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1973">
+        <v>20240710</v>
+      </c>
+      <c r="C1973">
+        <v>5</v>
+      </c>
+      <c r="D1973">
+        <v>5</v>
+      </c>
+      <c r="E1973">
+        <v>0</v>
+      </c>
+      <c r="F1973">
+        <v>16</v>
+      </c>
+      <c r="G1973" t="str">
+        <f t="shared" si="30"/>
+        <v>10/07/2024</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1974" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1974">
+        <v>20240714</v>
+      </c>
+      <c r="C1974">
+        <v>1</v>
+      </c>
+      <c r="D1974">
+        <v>1</v>
+      </c>
+      <c r="E1974">
+        <v>0</v>
+      </c>
+      <c r="F1974">
+        <v>15</v>
+      </c>
+      <c r="G1974" t="str">
+        <f t="shared" si="30"/>
+        <v>14/07/2024</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1975" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1975">
+        <v>20240710</v>
+      </c>
+      <c r="C1975">
+        <v>8</v>
+      </c>
+      <c r="D1975">
+        <v>5</v>
+      </c>
+      <c r="E1975">
+        <v>0</v>
+      </c>
+      <c r="F1975">
+        <v>14</v>
+      </c>
+      <c r="G1975" t="str">
+        <f t="shared" si="30"/>
+        <v>10/07/2024</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1976" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1976">
+        <v>20240708</v>
+      </c>
+      <c r="C1976">
+        <v>8</v>
+      </c>
+      <c r="D1976">
+        <v>7</v>
+      </c>
+      <c r="E1976">
+        <v>0</v>
+      </c>
+      <c r="F1976">
+        <v>14</v>
+      </c>
+      <c r="G1976" t="str">
+        <f t="shared" si="30"/>
+        <v>08/07/2024</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1977" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1977">
+        <v>20240714</v>
+      </c>
+      <c r="C1977">
+        <v>1</v>
+      </c>
+      <c r="D1977">
+        <v>1</v>
+      </c>
+      <c r="E1977">
+        <v>0</v>
+      </c>
+      <c r="F1977">
+        <v>14</v>
+      </c>
+      <c r="G1977" t="str">
+        <f t="shared" si="30"/>
+        <v>14/07/2024</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1978" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1978">
+        <v>20240713</v>
+      </c>
+      <c r="C1978">
+        <v>2</v>
+      </c>
+      <c r="D1978">
+        <v>2</v>
+      </c>
+      <c r="E1978">
+        <v>0</v>
+      </c>
+      <c r="F1978">
+        <v>13</v>
+      </c>
+      <c r="G1978" t="str">
+        <f t="shared" ref="G1978:G2040" si="31">_xlfn.CONCAT(RIGHT(B1978,2),"/",MID(B1978,5,2),"/",LEFT(B1978,4))</f>
+        <v>13/07/2024</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1979" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1979">
+        <v>20240708</v>
+      </c>
+      <c r="C1979">
+        <v>9</v>
+      </c>
+      <c r="D1979">
+        <v>9</v>
+      </c>
+      <c r="E1979">
+        <v>0</v>
+      </c>
+      <c r="F1979">
+        <v>12</v>
+      </c>
+      <c r="G1979" t="str">
+        <f t="shared" si="31"/>
+        <v>08/07/2024</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1980" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1980">
+        <v>20240709</v>
+      </c>
+      <c r="C1980">
+        <v>7</v>
+      </c>
+      <c r="D1980">
+        <v>7</v>
+      </c>
+      <c r="E1980">
+        <v>0</v>
+      </c>
+      <c r="F1980">
+        <v>11</v>
+      </c>
+      <c r="G1980" t="str">
+        <f t="shared" si="31"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1981" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1981">
+        <v>20240714</v>
+      </c>
+      <c r="C1981">
+        <v>2</v>
+      </c>
+      <c r="D1981">
+        <v>2</v>
+      </c>
+      <c r="E1981">
+        <v>0</v>
+      </c>
+      <c r="F1981">
+        <v>11</v>
+      </c>
+      <c r="G1981" t="str">
+        <f t="shared" si="31"/>
+        <v>14/07/2024</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1982" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1982">
+        <v>20240710</v>
+      </c>
+      <c r="C1982">
+        <v>5</v>
+      </c>
+      <c r="D1982">
+        <v>5</v>
+      </c>
+      <c r="E1982">
+        <v>0</v>
+      </c>
+      <c r="F1982">
+        <v>9</v>
+      </c>
+      <c r="G1982" t="str">
+        <f t="shared" si="31"/>
+        <v>10/07/2024</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1983" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1983">
+        <v>20240712</v>
+      </c>
+      <c r="C1983">
+        <v>2</v>
+      </c>
+      <c r="D1983">
+        <v>2</v>
+      </c>
+      <c r="E1983">
+        <v>0</v>
+      </c>
+      <c r="F1983">
+        <v>9</v>
+      </c>
+      <c r="G1983" t="str">
+        <f t="shared" si="31"/>
+        <v>12/07/2024</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1984" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1984">
+        <v>20240713</v>
+      </c>
+      <c r="C1984">
+        <v>3</v>
+      </c>
+      <c r="D1984">
+        <v>3</v>
+      </c>
+      <c r="E1984">
+        <v>0</v>
+      </c>
+      <c r="F1984">
+        <v>8</v>
+      </c>
+      <c r="G1984" t="str">
+        <f t="shared" si="31"/>
+        <v>13/07/2024</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1985" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1985">
+        <v>20240708</v>
+      </c>
+      <c r="C1985">
+        <v>2</v>
+      </c>
+      <c r="D1985">
+        <v>2</v>
+      </c>
+      <c r="E1985">
+        <v>0</v>
+      </c>
+      <c r="F1985">
+        <v>7</v>
+      </c>
+      <c r="G1985" t="str">
+        <f t="shared" si="31"/>
+        <v>08/07/2024</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1986" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1986">
+        <v>20240713</v>
+      </c>
+      <c r="C1986">
+        <v>1</v>
+      </c>
+      <c r="D1986">
+        <v>1</v>
+      </c>
+      <c r="E1986">
+        <v>0</v>
+      </c>
+      <c r="F1986">
+        <v>7</v>
+      </c>
+      <c r="G1986" t="str">
+        <f t="shared" si="31"/>
+        <v>13/07/2024</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1987" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1987">
+        <v>20240711</v>
+      </c>
+      <c r="C1987">
+        <v>5</v>
+      </c>
+      <c r="D1987">
+        <v>5</v>
+      </c>
+      <c r="E1987">
+        <v>0</v>
+      </c>
+      <c r="F1987">
+        <v>5</v>
+      </c>
+      <c r="G1987" t="str">
+        <f t="shared" si="31"/>
+        <v>11/07/2024</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1988" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1988">
+        <v>20240711</v>
+      </c>
+      <c r="C1988">
+        <v>7</v>
+      </c>
+      <c r="D1988">
+        <v>7</v>
+      </c>
+      <c r="E1988">
+        <v>0</v>
+      </c>
+      <c r="F1988">
+        <v>5</v>
+      </c>
+      <c r="G1988" t="str">
+        <f t="shared" si="31"/>
+        <v>11/07/2024</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1989" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1989">
+        <v>20240708</v>
+      </c>
+      <c r="C1989">
+        <v>2</v>
+      </c>
+      <c r="D1989">
+        <v>2</v>
+      </c>
+      <c r="E1989">
+        <v>0</v>
+      </c>
+      <c r="F1989">
+        <v>5</v>
+      </c>
+      <c r="G1989" t="str">
+        <f t="shared" si="31"/>
+        <v>08/07/2024</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1990" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1990">
+        <v>20240711</v>
+      </c>
+      <c r="C1990">
+        <v>3</v>
+      </c>
+      <c r="D1990">
+        <v>3</v>
+      </c>
+      <c r="E1990">
+        <v>0</v>
+      </c>
+      <c r="F1990">
+        <v>5</v>
+      </c>
+      <c r="G1990" t="str">
+        <f t="shared" si="31"/>
+        <v>11/07/2024</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1991" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1991">
+        <v>20240710</v>
+      </c>
+      <c r="C1991">
+        <v>1</v>
+      </c>
+      <c r="D1991">
+        <v>1</v>
+      </c>
+      <c r="E1991">
+        <v>0</v>
+      </c>
+      <c r="F1991">
+        <v>5</v>
+      </c>
+      <c r="G1991" t="str">
+        <f t="shared" si="31"/>
+        <v>10/07/2024</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1992" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1992">
+        <v>20240710</v>
+      </c>
+      <c r="C1992">
+        <v>1</v>
+      </c>
+      <c r="D1992">
+        <v>1</v>
+      </c>
+      <c r="E1992">
+        <v>0</v>
+      </c>
+      <c r="F1992">
+        <v>4</v>
+      </c>
+      <c r="G1992" t="str">
+        <f t="shared" si="31"/>
+        <v>10/07/2024</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1993" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1993">
+        <v>20240711</v>
+      </c>
+      <c r="C1993">
+        <v>1</v>
+      </c>
+      <c r="D1993">
+        <v>1</v>
+      </c>
+      <c r="E1993">
+        <v>0</v>
+      </c>
+      <c r="F1993">
+        <v>4</v>
+      </c>
+      <c r="G1993" t="str">
+        <f t="shared" si="31"/>
+        <v>11/07/2024</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1994" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1994">
+        <v>20240712</v>
+      </c>
+      <c r="C1994">
+        <v>6</v>
+      </c>
+      <c r="D1994">
+        <v>3</v>
+      </c>
+      <c r="E1994">
+        <v>0</v>
+      </c>
+      <c r="F1994">
+        <v>3</v>
+      </c>
+      <c r="G1994" t="str">
+        <f t="shared" si="31"/>
+        <v>12/07/2024</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1995" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1995">
+        <v>20240709</v>
+      </c>
+      <c r="C1995">
+        <v>3</v>
+      </c>
+      <c r="D1995">
+        <v>3</v>
+      </c>
+      <c r="E1995">
+        <v>0</v>
+      </c>
+      <c r="F1995">
+        <v>2</v>
+      </c>
+      <c r="G1995" t="str">
+        <f t="shared" si="31"/>
+        <v>09/07/2024</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1996" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1996">
+        <v>20240720</v>
+      </c>
+      <c r="C1996">
+        <v>2</v>
+      </c>
+      <c r="D1996">
+        <v>2</v>
+      </c>
+      <c r="E1996">
+        <v>0</v>
+      </c>
+      <c r="F1996">
+        <v>207</v>
+      </c>
+      <c r="G1996" t="str">
+        <f t="shared" si="31"/>
+        <v>20/07/2024</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1997" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1997">
+        <v>20240720</v>
+      </c>
+      <c r="C1997">
+        <v>2</v>
+      </c>
+      <c r="D1997">
+        <v>2</v>
+      </c>
+      <c r="E1997">
+        <v>0</v>
+      </c>
+      <c r="F1997">
+        <v>152</v>
+      </c>
+      <c r="G1997" t="str">
+        <f t="shared" si="31"/>
+        <v>20/07/2024</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1998" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1998">
+        <v>20240716</v>
+      </c>
+      <c r="C1998">
+        <v>3</v>
+      </c>
+      <c r="D1998">
+        <v>2</v>
+      </c>
+      <c r="E1998">
+        <v>0</v>
+      </c>
+      <c r="F1998">
+        <v>128</v>
+      </c>
+      <c r="G1998" t="str">
+        <f t="shared" si="31"/>
+        <v>16/07/2024</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1999" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1999">
+        <v>20240719</v>
+      </c>
+      <c r="C1999">
+        <v>3</v>
+      </c>
+      <c r="D1999">
+        <v>3</v>
+      </c>
+      <c r="E1999">
+        <v>0</v>
+      </c>
+      <c r="F1999" s="1">
+        <v>72</v>
+      </c>
+      <c r="G1999" t="str">
+        <f t="shared" si="31"/>
+        <v>19/07/2024</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2000" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2000">
+        <v>20240717</v>
+      </c>
+      <c r="C2000">
+        <v>3</v>
+      </c>
+      <c r="D2000">
+        <v>3</v>
+      </c>
+      <c r="E2000">
+        <v>0</v>
+      </c>
+      <c r="F2000" s="1">
+        <v>52</v>
+      </c>
+      <c r="G2000" t="str">
+        <f t="shared" si="31"/>
+        <v>17/07/2024</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2001" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2001">
+        <v>20240720</v>
+      </c>
+      <c r="C2001">
+        <v>15</v>
+      </c>
+      <c r="D2001">
+        <v>15</v>
+      </c>
+      <c r="E2001">
+        <v>1</v>
+      </c>
+      <c r="F2001" s="1">
+        <v>46</v>
+      </c>
+      <c r="G2001" t="str">
+        <f t="shared" si="31"/>
+        <v>20/07/2024</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2002" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2002">
+        <v>20240719</v>
+      </c>
+      <c r="C2002">
+        <v>6</v>
+      </c>
+      <c r="D2002">
+        <v>6</v>
+      </c>
+      <c r="E2002">
+        <v>0</v>
+      </c>
+      <c r="F2002" s="1">
+        <v>42</v>
+      </c>
+      <c r="G2002" t="str">
+        <f t="shared" si="31"/>
+        <v>19/07/2024</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2003" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2003">
+        <v>20240716</v>
+      </c>
+      <c r="C2003">
+        <v>3</v>
+      </c>
+      <c r="D2003">
+        <v>3</v>
+      </c>
+      <c r="E2003">
+        <v>0</v>
+      </c>
+      <c r="F2003" s="1">
+        <v>42</v>
+      </c>
+      <c r="G2003" t="str">
+        <f t="shared" si="31"/>
+        <v>16/07/2024</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2004" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2004">
+        <v>20240717</v>
+      </c>
+      <c r="C2004">
+        <v>12</v>
+      </c>
+      <c r="D2004">
+        <v>12</v>
+      </c>
+      <c r="E2004">
+        <v>0</v>
+      </c>
+      <c r="F2004" s="1">
+        <v>41</v>
+      </c>
+      <c r="G2004" t="str">
+        <f t="shared" si="31"/>
+        <v>17/07/2024</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2005" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2005">
+        <v>20240716</v>
+      </c>
+      <c r="C2005">
+        <v>16</v>
+      </c>
+      <c r="D2005">
+        <v>13</v>
+      </c>
+      <c r="E2005">
+        <v>1</v>
+      </c>
+      <c r="F2005">
+        <v>41</v>
+      </c>
+      <c r="G2005" t="str">
+        <f t="shared" si="31"/>
+        <v>16/07/2024</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2006" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2006">
+        <v>20240719</v>
+      </c>
+      <c r="C2006">
+        <v>6</v>
+      </c>
+      <c r="D2006">
+        <v>6</v>
+      </c>
+      <c r="E2006">
+        <v>0</v>
+      </c>
+      <c r="F2006" s="1">
+        <v>41</v>
+      </c>
+      <c r="G2006" t="str">
+        <f t="shared" si="31"/>
+        <v>19/07/2024</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2007" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2007">
+        <v>20240716</v>
+      </c>
+      <c r="C2007">
+        <v>3</v>
+      </c>
+      <c r="D2007">
+        <v>3</v>
+      </c>
+      <c r="E2007">
+        <v>0</v>
+      </c>
+      <c r="F2007" s="1">
+        <v>37</v>
+      </c>
+      <c r="G2007" t="str">
+        <f t="shared" si="31"/>
+        <v>16/07/2024</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2008" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2008">
+        <v>20240718</v>
+      </c>
+      <c r="C2008">
+        <v>21</v>
+      </c>
+      <c r="D2008">
+        <v>21</v>
+      </c>
+      <c r="E2008">
+        <v>0</v>
+      </c>
+      <c r="F2008" s="1">
+        <v>32</v>
+      </c>
+      <c r="G2008" t="str">
+        <f t="shared" si="31"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2009" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2009">
+        <v>20240718</v>
+      </c>
+      <c r="C2009">
+        <v>22</v>
+      </c>
+      <c r="D2009">
+        <v>21</v>
+      </c>
+      <c r="E2009">
+        <v>0</v>
+      </c>
+      <c r="F2009" s="1">
+        <v>31</v>
+      </c>
+      <c r="G2009" t="str">
+        <f t="shared" si="31"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2010" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2010">
+        <v>20240717</v>
+      </c>
+      <c r="C2010">
+        <v>3</v>
+      </c>
+      <c r="D2010">
+        <v>3</v>
+      </c>
+      <c r="E2010">
+        <v>1</v>
+      </c>
+      <c r="F2010" s="1">
+        <v>31</v>
+      </c>
+      <c r="G2010" t="str">
+        <f t="shared" si="31"/>
+        <v>17/07/2024</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2011" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2011">
+        <v>20240719</v>
+      </c>
+      <c r="C2011">
+        <v>2</v>
+      </c>
+      <c r="D2011">
+        <v>2</v>
+      </c>
+      <c r="E2011">
+        <v>0</v>
+      </c>
+      <c r="F2011">
+        <v>30</v>
+      </c>
+      <c r="G2011" t="str">
+        <f t="shared" si="31"/>
+        <v>19/07/2024</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2012" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2012">
+        <v>20240715</v>
+      </c>
+      <c r="C2012">
+        <v>14</v>
+      </c>
+      <c r="D2012">
+        <v>12</v>
+      </c>
+      <c r="E2012">
+        <v>1</v>
+      </c>
+      <c r="F2012" s="1">
+        <v>28</v>
+      </c>
+      <c r="G2012" t="str">
+        <f t="shared" si="31"/>
+        <v>15/07/2024</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2013" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2013">
+        <v>20240720</v>
+      </c>
+      <c r="C2013">
+        <v>4</v>
+      </c>
+      <c r="D2013">
+        <v>3</v>
+      </c>
+      <c r="E2013">
+        <v>0</v>
+      </c>
+      <c r="F2013">
+        <v>28</v>
+      </c>
+      <c r="G2013" t="str">
+        <f t="shared" si="31"/>
+        <v>20/07/2024</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2014" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2014">
+        <v>20240715</v>
+      </c>
+      <c r="C2014">
+        <v>2</v>
+      </c>
+      <c r="D2014">
+        <v>2</v>
+      </c>
+      <c r="E2014">
+        <v>1</v>
+      </c>
+      <c r="F2014">
+        <v>27</v>
+      </c>
+      <c r="G2014" t="str">
+        <f t="shared" si="31"/>
+        <v>15/07/2024</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2015" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2015">
+        <v>20240715</v>
+      </c>
+      <c r="C2015">
+        <v>8</v>
+      </c>
+      <c r="D2015">
+        <v>7</v>
+      </c>
+      <c r="E2015">
+        <v>0</v>
+      </c>
+      <c r="F2015">
+        <v>26</v>
+      </c>
+      <c r="G2015" t="str">
+        <f t="shared" si="31"/>
+        <v>15/07/2024</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2016" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2016">
+        <v>20240717</v>
+      </c>
+      <c r="C2016">
+        <v>1</v>
+      </c>
+      <c r="D2016">
+        <v>1</v>
+      </c>
+      <c r="E2016">
+        <v>0</v>
+      </c>
+      <c r="F2016">
+        <v>25</v>
+      </c>
+      <c r="G2016" t="str">
+        <f t="shared" si="31"/>
+        <v>17/07/2024</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2017" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2017">
+        <v>20240721</v>
+      </c>
+      <c r="C2017">
+        <v>30</v>
+      </c>
+      <c r="D2017">
+        <v>25</v>
+      </c>
+      <c r="E2017">
+        <v>0</v>
+      </c>
+      <c r="F2017" s="1">
+        <v>24</v>
+      </c>
+      <c r="G2017" t="str">
+        <f t="shared" si="31"/>
+        <v>21/07/2024</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2018" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2018">
+        <v>20240721</v>
+      </c>
+      <c r="C2018">
+        <v>6</v>
+      </c>
+      <c r="D2018">
+        <v>6</v>
+      </c>
+      <c r="E2018">
+        <v>0</v>
+      </c>
+      <c r="F2018" s="1">
+        <v>22</v>
+      </c>
+      <c r="G2018" t="str">
+        <f t="shared" si="31"/>
+        <v>21/07/2024</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2019" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2019">
+        <v>20240719</v>
+      </c>
+      <c r="C2019">
+        <v>13</v>
+      </c>
+      <c r="D2019">
+        <v>13</v>
+      </c>
+      <c r="E2019">
+        <v>0</v>
+      </c>
+      <c r="F2019" s="1">
+        <v>19</v>
+      </c>
+      <c r="G2019" t="str">
+        <f t="shared" si="31"/>
+        <v>19/07/2024</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2020" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2020">
+        <v>20240719</v>
+      </c>
+      <c r="C2020">
+        <v>2</v>
+      </c>
+      <c r="D2020">
+        <v>2</v>
+      </c>
+      <c r="E2020">
+        <v>0</v>
+      </c>
+      <c r="F2020">
+        <v>17</v>
+      </c>
+      <c r="G2020" t="str">
+        <f t="shared" si="31"/>
+        <v>19/07/2024</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2021" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2021">
+        <v>20240715</v>
+      </c>
+      <c r="C2021">
+        <v>3</v>
+      </c>
+      <c r="D2021">
+        <v>3</v>
+      </c>
+      <c r="E2021">
+        <v>0</v>
+      </c>
+      <c r="F2021" s="1">
+        <v>16</v>
+      </c>
+      <c r="G2021" t="str">
+        <f t="shared" si="31"/>
+        <v>15/07/2024</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2022" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2022">
+        <v>20240721</v>
+      </c>
+      <c r="C2022">
+        <v>7</v>
+      </c>
+      <c r="D2022">
+        <v>7</v>
+      </c>
+      <c r="E2022">
+        <v>0</v>
+      </c>
+      <c r="F2022" s="1">
+        <v>15</v>
+      </c>
+      <c r="G2022" t="str">
+        <f t="shared" si="31"/>
+        <v>21/07/2024</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2023" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2023">
+        <v>20240718</v>
+      </c>
+      <c r="C2023">
+        <v>8</v>
+      </c>
+      <c r="D2023">
+        <v>8</v>
+      </c>
+      <c r="E2023">
+        <v>0</v>
+      </c>
+      <c r="F2023" s="1">
+        <v>15</v>
+      </c>
+      <c r="G2023" t="str">
+        <f t="shared" si="31"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2024" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2024">
+        <v>20240716</v>
+      </c>
+      <c r="C2024">
+        <v>2</v>
+      </c>
+      <c r="D2024">
+        <v>2</v>
+      </c>
+      <c r="E2024">
+        <v>0</v>
+      </c>
+      <c r="F2024">
+        <v>15</v>
+      </c>
+      <c r="G2024" t="str">
+        <f t="shared" si="31"/>
+        <v>16/07/2024</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2025" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2025">
+        <v>20240721</v>
+      </c>
+      <c r="C2025">
+        <v>5</v>
+      </c>
+      <c r="D2025">
+        <v>5</v>
+      </c>
+      <c r="E2025">
+        <v>0</v>
+      </c>
+      <c r="F2025">
+        <v>15</v>
+      </c>
+      <c r="G2025" t="str">
+        <f t="shared" si="31"/>
+        <v>21/07/2024</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2026" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2026">
+        <v>20240718</v>
+      </c>
+      <c r="C2026">
+        <v>4</v>
+      </c>
+      <c r="D2026">
+        <v>4</v>
+      </c>
+      <c r="E2026">
+        <v>0</v>
+      </c>
+      <c r="F2026">
+        <v>14</v>
+      </c>
+      <c r="G2026" t="str">
+        <f t="shared" si="31"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2027" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2027">
+        <v>20240720</v>
+      </c>
+      <c r="C2027">
+        <v>1</v>
+      </c>
+      <c r="D2027">
+        <v>1</v>
+      </c>
+      <c r="E2027">
+        <v>0</v>
+      </c>
+      <c r="F2027">
+        <v>14</v>
+      </c>
+      <c r="G2027" t="str">
+        <f t="shared" si="31"/>
+        <v>20/07/2024</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2028" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2028">
+        <v>20240717</v>
+      </c>
+      <c r="C2028">
+        <v>6</v>
+      </c>
+      <c r="D2028">
+        <v>6</v>
+      </c>
+      <c r="E2028">
+        <v>0</v>
+      </c>
+      <c r="F2028" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2028" t="str">
+        <f t="shared" si="31"/>
+        <v>17/07/2024</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2029" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2029">
+        <v>20240718</v>
+      </c>
+      <c r="C2029">
+        <v>4</v>
+      </c>
+      <c r="D2029">
+        <v>4</v>
+      </c>
+      <c r="E2029">
+        <v>0</v>
+      </c>
+      <c r="F2029">
+        <v>12</v>
+      </c>
+      <c r="G2029" t="str">
+        <f t="shared" si="31"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2030" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2030">
+        <v>20240716</v>
+      </c>
+      <c r="C2030">
+        <v>3</v>
+      </c>
+      <c r="D2030">
+        <v>3</v>
+      </c>
+      <c r="E2030">
+        <v>0</v>
+      </c>
+      <c r="F2030" s="1">
+        <v>11</v>
+      </c>
+      <c r="G2030" t="str">
+        <f t="shared" si="31"/>
+        <v>16/07/2024</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2031" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2031">
+        <v>20240718</v>
+      </c>
+      <c r="C2031">
+        <v>12</v>
+      </c>
+      <c r="D2031">
+        <v>11</v>
+      </c>
+      <c r="E2031">
+        <v>0</v>
+      </c>
+      <c r="F2031" s="1">
+        <v>10</v>
+      </c>
+      <c r="G2031" t="str">
+        <f t="shared" si="31"/>
+        <v>18/07/2024</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2032" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2032">
+        <v>20240715</v>
+      </c>
+      <c r="C2032">
+        <v>2</v>
+      </c>
+      <c r="D2032">
+        <v>2</v>
+      </c>
+      <c r="E2032">
+        <v>0</v>
+      </c>
+      <c r="F2032">
+        <v>10</v>
+      </c>
+      <c r="G2032" t="str">
+        <f t="shared" si="31"/>
+        <v>15/07/2024</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2033" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2033">
+        <v>20240720</v>
+      </c>
+      <c r="C2033">
+        <v>3</v>
+      </c>
+      <c r="D2033">
+        <v>3</v>
+      </c>
+      <c r="E2033">
+        <v>0</v>
+      </c>
+      <c r="F2033" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2033" t="str">
+        <f t="shared" si="31"/>
+        <v>20/07/2024</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2034" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2034">
+        <v>20240717</v>
+      </c>
+      <c r="C2034">
+        <v>4</v>
+      </c>
+      <c r="D2034">
+        <v>3</v>
+      </c>
+      <c r="E2034">
+        <v>0</v>
+      </c>
+      <c r="F2034">
+        <v>7</v>
+      </c>
+      <c r="G2034" t="str">
+        <f t="shared" si="31"/>
+        <v>17/07/2024</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2035" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2035">
+        <v>20240715</v>
+      </c>
+      <c r="C2035">
+        <v>1</v>
+      </c>
+      <c r="D2035">
+        <v>1</v>
+      </c>
+      <c r="E2035">
+        <v>0</v>
+      </c>
+      <c r="F2035">
+        <v>4</v>
+      </c>
+      <c r="G2035" t="str">
+        <f t="shared" si="31"/>
+        <v>15/07/2024</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2036" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2036">
+        <v>20240728</v>
+      </c>
+      <c r="C2036">
+        <v>16</v>
+      </c>
+      <c r="D2036">
+        <v>16</v>
+      </c>
+      <c r="E2036">
+        <v>2</v>
+      </c>
+      <c r="F2036" s="1">
+        <v>46</v>
+      </c>
+      <c r="G2036" t="str">
+        <f t="shared" si="31"/>
+        <v>28/07/2024</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2037" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2037">
+        <v>20240728</v>
+      </c>
+      <c r="C2037">
+        <v>6</v>
+      </c>
+      <c r="D2037">
+        <v>6</v>
+      </c>
+      <c r="E2037">
+        <v>0</v>
+      </c>
+      <c r="F2037">
+        <v>44</v>
+      </c>
+      <c r="G2037" t="str">
+        <f t="shared" si="31"/>
+        <v>28/07/2024</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2038" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2038">
+        <v>20240722</v>
+      </c>
+      <c r="C2038">
+        <v>3</v>
+      </c>
+      <c r="D2038">
+        <v>3</v>
+      </c>
+      <c r="E2038">
+        <v>0</v>
+      </c>
+      <c r="F2038" s="1">
+        <v>37</v>
+      </c>
+      <c r="G2038" t="str">
+        <f t="shared" si="31"/>
+        <v>22/07/2024</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2039" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2039">
+        <v>20240723</v>
+      </c>
+      <c r="C2039">
+        <v>25</v>
+      </c>
+      <c r="D2039">
+        <v>21</v>
+      </c>
+      <c r="E2039">
+        <v>0</v>
+      </c>
+      <c r="F2039">
+        <v>34</v>
+      </c>
+      <c r="G2039" t="str">
+        <f t="shared" si="31"/>
+        <v>23/07/2024</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2040" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2040">
+        <v>20240726</v>
+      </c>
+      <c r="C2040">
+        <v>7</v>
+      </c>
+      <c r="D2040">
+        <v>6</v>
+      </c>
+      <c r="E2040">
+        <v>0</v>
+      </c>
+      <c r="F2040" s="1">
+        <v>33</v>
+      </c>
+      <c r="G2040" t="str">
+        <f t="shared" si="31"/>
+        <v>26/07/2024</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2041" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2041">
+        <v>20240728</v>
+      </c>
+      <c r="C2041">
+        <v>12</v>
+      </c>
+      <c r="D2041">
+        <v>12</v>
+      </c>
+      <c r="E2041">
+        <v>0</v>
+      </c>
+      <c r="F2041" s="1">
+        <v>31</v>
+      </c>
+      <c r="G2041" t="str">
+        <f t="shared" ref="G2041:G2103" si="32">_xlfn.CONCAT(RIGHT(B2041,2),"/",MID(B2041,5,2),"/",LEFT(B2041,4))</f>
+        <v>28/07/2024</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2042" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2042">
+        <v>20240723</v>
+      </c>
+      <c r="C2042">
+        <v>9</v>
+      </c>
+      <c r="D2042">
+        <v>7</v>
+      </c>
+      <c r="E2042">
+        <v>0</v>
+      </c>
+      <c r="F2042" s="1">
+        <v>27</v>
+      </c>
+      <c r="G2042" t="str">
+        <f t="shared" si="32"/>
+        <v>23/07/2024</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2043" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2043">
+        <v>20240722</v>
+      </c>
+      <c r="C2043">
+        <v>14</v>
+      </c>
+      <c r="D2043">
+        <v>12</v>
+      </c>
+      <c r="E2043">
+        <v>0</v>
+      </c>
+      <c r="F2043" s="1">
+        <v>27</v>
+      </c>
+      <c r="G2043" t="str">
+        <f t="shared" si="32"/>
+        <v>22/07/2024</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2044" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2044">
+        <v>20240725</v>
+      </c>
+      <c r="C2044">
+        <v>26</v>
+      </c>
+      <c r="D2044">
+        <v>22</v>
+      </c>
+      <c r="E2044">
+        <v>0</v>
+      </c>
+      <c r="F2044" s="1">
+        <v>25</v>
+      </c>
+      <c r="G2044" t="str">
+        <f t="shared" si="32"/>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2045" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2045">
+        <v>20240725</v>
+      </c>
+      <c r="C2045">
+        <v>32</v>
+      </c>
+      <c r="D2045">
+        <v>24</v>
+      </c>
+      <c r="E2045">
+        <v>0</v>
+      </c>
+      <c r="F2045" s="1">
+        <v>24</v>
+      </c>
+      <c r="G2045" t="str">
+        <f t="shared" si="32"/>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2046" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2046">
+        <v>20240723</v>
+      </c>
+      <c r="C2046">
+        <v>8</v>
+      </c>
+      <c r="D2046">
+        <v>8</v>
+      </c>
+      <c r="E2046">
+        <v>0</v>
+      </c>
+      <c r="F2046" s="1">
+        <v>21</v>
+      </c>
+      <c r="G2046" t="str">
+        <f t="shared" si="32"/>
+        <v>23/07/2024</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2047" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2047">
+        <v>20240726</v>
+      </c>
+      <c r="C2047">
+        <v>5</v>
+      </c>
+      <c r="D2047">
+        <v>5</v>
+      </c>
+      <c r="E2047">
+        <v>0</v>
+      </c>
+      <c r="F2047">
+        <v>20</v>
+      </c>
+      <c r="G2047" t="str">
+        <f t="shared" si="32"/>
+        <v>26/07/2024</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2048" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2048">
+        <v>20240726</v>
+      </c>
+      <c r="C2048">
+        <v>15</v>
+      </c>
+      <c r="D2048">
+        <v>11</v>
+      </c>
+      <c r="E2048">
+        <v>1</v>
+      </c>
+      <c r="F2048">
+        <v>20</v>
+      </c>
+      <c r="G2048" t="str">
+        <f t="shared" si="32"/>
+        <v>26/07/2024</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2049" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2049">
+        <v>20240727</v>
+      </c>
+      <c r="C2049">
+        <v>8</v>
+      </c>
+      <c r="D2049">
+        <v>6</v>
+      </c>
+      <c r="E2049">
+        <v>0</v>
+      </c>
+      <c r="F2049">
+        <v>19</v>
+      </c>
+      <c r="G2049" t="str">
+        <f t="shared" si="32"/>
+        <v>27/07/2024</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2050" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2050">
+        <v>20240727</v>
+      </c>
+      <c r="C2050">
+        <v>14</v>
+      </c>
+      <c r="D2050">
+        <v>11</v>
+      </c>
+      <c r="E2050">
+        <v>0</v>
+      </c>
+      <c r="F2050" s="1">
+        <v>18</v>
+      </c>
+      <c r="G2050" t="str">
+        <f t="shared" si="32"/>
+        <v>27/07/2024</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2051" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2051">
+        <v>20240722</v>
+      </c>
+      <c r="C2051">
+        <v>11</v>
+      </c>
+      <c r="D2051">
+        <v>10</v>
+      </c>
+      <c r="E2051">
+        <v>2</v>
+      </c>
+      <c r="F2051" s="1">
+        <v>18</v>
+      </c>
+      <c r="G2051" t="str">
+        <f t="shared" si="32"/>
+        <v>22/07/2024</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2052" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2052">
+        <v>20240724</v>
+      </c>
+      <c r="C2052">
+        <v>14</v>
+      </c>
+      <c r="D2052">
+        <v>14</v>
+      </c>
+      <c r="E2052">
+        <v>1</v>
+      </c>
+      <c r="F2052" s="1">
+        <v>18</v>
+      </c>
+      <c r="G2052" t="str">
+        <f t="shared" si="32"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2053" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2053">
+        <v>20240726</v>
+      </c>
+      <c r="C2053">
+        <v>8</v>
+      </c>
+      <c r="D2053">
+        <v>7</v>
+      </c>
+      <c r="E2053">
+        <v>0</v>
+      </c>
+      <c r="F2053">
+        <v>17</v>
+      </c>
+      <c r="G2053" t="str">
+        <f t="shared" si="32"/>
+        <v>26/07/2024</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2054" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2054">
+        <v>20240724</v>
+      </c>
+      <c r="C2054">
+        <v>10</v>
+      </c>
+      <c r="D2054">
+        <v>8</v>
+      </c>
+      <c r="E2054">
+        <v>0</v>
+      </c>
+      <c r="F2054">
+        <v>15</v>
+      </c>
+      <c r="G2054" t="str">
+        <f t="shared" si="32"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2055" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2055">
+        <v>20240722</v>
+      </c>
+      <c r="C2055">
+        <v>29</v>
+      </c>
+      <c r="D2055">
+        <v>22</v>
+      </c>
+      <c r="E2055">
+        <v>0</v>
+      </c>
+      <c r="F2055" s="1">
+        <v>13</v>
+      </c>
+      <c r="G2055" t="str">
+        <f t="shared" si="32"/>
+        <v>22/07/2024</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2056" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2056">
+        <v>20240723</v>
+      </c>
+      <c r="C2056">
+        <v>9</v>
+      </c>
+      <c r="D2056">
+        <v>7</v>
+      </c>
+      <c r="E2056">
+        <v>0</v>
+      </c>
+      <c r="F2056" s="1">
+        <v>13</v>
+      </c>
+      <c r="G2056" t="str">
+        <f t="shared" si="32"/>
+        <v>23/07/2024</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2057" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2057">
+        <v>20240724</v>
+      </c>
+      <c r="C2057">
+        <v>3</v>
+      </c>
+      <c r="D2057">
+        <v>3</v>
+      </c>
+      <c r="E2057">
+        <v>0</v>
+      </c>
+      <c r="F2057" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2057" t="str">
+        <f t="shared" si="32"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2058" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2058">
+        <v>20240724</v>
+      </c>
+      <c r="C2058">
+        <v>21</v>
+      </c>
+      <c r="D2058">
+        <v>16</v>
+      </c>
+      <c r="E2058">
+        <v>0</v>
+      </c>
+      <c r="F2058" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2058" t="str">
+        <f t="shared" si="32"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2059" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2059">
+        <v>20240724</v>
+      </c>
+      <c r="C2059">
+        <v>7</v>
+      </c>
+      <c r="D2059">
+        <v>6</v>
+      </c>
+      <c r="E2059">
+        <v>0</v>
+      </c>
+      <c r="F2059" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2059" t="str">
+        <f t="shared" si="32"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2060" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2060">
+        <v>20240728</v>
+      </c>
+      <c r="C2060">
+        <v>2</v>
+      </c>
+      <c r="D2060">
+        <v>2</v>
+      </c>
+      <c r="E2060">
+        <v>0</v>
+      </c>
+      <c r="F2060">
+        <v>11</v>
+      </c>
+      <c r="G2060" t="str">
+        <f t="shared" si="32"/>
+        <v>28/07/2024</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2061" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2061">
+        <v>20240725</v>
+      </c>
+      <c r="C2061">
+        <v>13</v>
+      </c>
+      <c r="D2061">
+        <v>10</v>
+      </c>
+      <c r="E2061">
+        <v>0</v>
+      </c>
+      <c r="F2061">
+        <v>10</v>
+      </c>
+      <c r="G2061" t="str">
+        <f t="shared" si="32"/>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2062" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2062">
+        <v>20240723</v>
+      </c>
+      <c r="C2062">
+        <v>1</v>
+      </c>
+      <c r="D2062">
+        <v>1</v>
+      </c>
+      <c r="E2062">
+        <v>0</v>
+      </c>
+      <c r="F2062">
+        <v>10</v>
+      </c>
+      <c r="G2062" t="str">
+        <f t="shared" si="32"/>
+        <v>23/07/2024</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2063" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2063">
+        <v>20240725</v>
+      </c>
+      <c r="C2063">
+        <v>8</v>
+      </c>
+      <c r="D2063">
+        <v>7</v>
+      </c>
+      <c r="E2063">
+        <v>0</v>
+      </c>
+      <c r="F2063">
+        <v>9</v>
+      </c>
+      <c r="G2063" t="str">
+        <f t="shared" si="32"/>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2064" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2064">
+        <v>20240725</v>
+      </c>
+      <c r="C2064">
+        <v>2</v>
+      </c>
+      <c r="D2064">
+        <v>2</v>
+      </c>
+      <c r="E2064">
+        <v>0</v>
+      </c>
+      <c r="F2064">
+        <v>8</v>
+      </c>
+      <c r="G2064" t="str">
+        <f t="shared" si="32"/>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2065" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2065">
+        <v>20240723</v>
+      </c>
+      <c r="C2065">
+        <v>2</v>
+      </c>
+      <c r="D2065">
+        <v>2</v>
+      </c>
+      <c r="E2065">
+        <v>0</v>
+      </c>
+      <c r="F2065">
+        <v>8</v>
+      </c>
+      <c r="G2065" t="str">
+        <f t="shared" si="32"/>
+        <v>23/07/2024</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2066" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2066">
+        <v>20240724</v>
+      </c>
+      <c r="C2066">
+        <v>8</v>
+      </c>
+      <c r="D2066">
+        <v>8</v>
+      </c>
+      <c r="E2066">
+        <v>1</v>
+      </c>
+      <c r="F2066">
+        <v>7</v>
+      </c>
+      <c r="G2066" t="str">
+        <f t="shared" si="32"/>
+        <v>24/07/2024</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2067" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2067">
+        <v>20240727</v>
+      </c>
+      <c r="C2067">
+        <v>4</v>
+      </c>
+      <c r="D2067">
+        <v>4</v>
+      </c>
+      <c r="E2067">
+        <v>1</v>
+      </c>
+      <c r="F2067">
+        <v>6</v>
+      </c>
+      <c r="G2067" t="str">
+        <f t="shared" si="32"/>
+        <v>27/07/2024</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2068" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2068">
+        <v>20240722</v>
+      </c>
+      <c r="C2068">
+        <v>3</v>
+      </c>
+      <c r="D2068">
+        <v>3</v>
+      </c>
+      <c r="E2068">
+        <v>0</v>
+      </c>
+      <c r="F2068" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2068" t="str">
+        <f t="shared" si="32"/>
+        <v>22/07/2024</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2069" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2069">
+        <v>20240727</v>
+      </c>
+      <c r="C2069">
+        <v>3</v>
+      </c>
+      <c r="D2069">
+        <v>3</v>
+      </c>
+      <c r="E2069">
+        <v>0</v>
+      </c>
+      <c r="F2069" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2069" t="str">
+        <f t="shared" si="32"/>
+        <v>27/07/2024</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2070" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2070">
+        <v>20240726</v>
+      </c>
+      <c r="C2070">
+        <v>1</v>
+      </c>
+      <c r="D2070">
+        <v>1</v>
+      </c>
+      <c r="E2070">
+        <v>0</v>
+      </c>
+      <c r="F2070">
+        <v>4</v>
+      </c>
+      <c r="G2070" t="str">
+        <f t="shared" si="32"/>
+        <v>26/07/2024</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2071" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2071">
+        <v>20240727</v>
+      </c>
+      <c r="C2071">
+        <v>2</v>
+      </c>
+      <c r="D2071">
+        <v>2</v>
+      </c>
+      <c r="E2071">
+        <v>0</v>
+      </c>
+      <c r="F2071">
+        <v>4</v>
+      </c>
+      <c r="G2071" t="str">
+        <f t="shared" si="32"/>
+        <v>27/07/2024</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2072" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2072">
+        <v>20240728</v>
+      </c>
+      <c r="C2072">
+        <v>1</v>
+      </c>
+      <c r="D2072">
+        <v>1</v>
+      </c>
+      <c r="E2072">
+        <v>0</v>
+      </c>
+      <c r="F2072">
+        <v>4</v>
+      </c>
+      <c r="G2072" t="str">
+        <f t="shared" si="32"/>
+        <v>28/07/2024</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2073" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2073">
+        <v>20240725</v>
+      </c>
+      <c r="C2073">
+        <v>1</v>
+      </c>
+      <c r="D2073">
+        <v>1</v>
+      </c>
+      <c r="E2073">
+        <v>0</v>
+      </c>
+      <c r="F2073">
+        <v>0</v>
+      </c>
+      <c r="G2073" t="str">
+        <f t="shared" si="32"/>
+        <v>25/07/2024</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2074" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2074">
+        <v>20240802</v>
+      </c>
+      <c r="C2074">
+        <v>4</v>
+      </c>
+      <c r="D2074">
+        <v>4</v>
+      </c>
+      <c r="E2074">
+        <v>1</v>
+      </c>
+      <c r="F2074">
+        <v>80</v>
+      </c>
+      <c r="G2074" t="str">
+        <f t="shared" si="32"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2075" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2075">
+        <v>20240802</v>
+      </c>
+      <c r="C2075">
+        <v>2</v>
+      </c>
+      <c r="D2075">
+        <v>2</v>
+      </c>
+      <c r="E2075">
+        <v>0</v>
+      </c>
+      <c r="F2075">
+        <v>66</v>
+      </c>
+      <c r="G2075" t="str">
+        <f t="shared" si="32"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2076" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2076">
+        <v>20240801</v>
+      </c>
+      <c r="C2076">
+        <v>17</v>
+      </c>
+      <c r="D2076">
+        <v>12</v>
+      </c>
+      <c r="E2076">
+        <v>0</v>
+      </c>
+      <c r="F2076" s="1">
+        <v>53</v>
+      </c>
+      <c r="G2076" t="str">
+        <f t="shared" si="32"/>
+        <v>01/08/2024</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2077" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2077">
+        <v>20240729</v>
+      </c>
+      <c r="C2077">
+        <v>20</v>
+      </c>
+      <c r="D2077">
+        <v>15</v>
+      </c>
+      <c r="E2077">
+        <v>0</v>
+      </c>
+      <c r="F2077">
+        <v>52</v>
+      </c>
+      <c r="G2077" t="str">
+        <f t="shared" si="32"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2078" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2078">
+        <v>20240730</v>
+      </c>
+      <c r="C2078">
+        <v>4</v>
+      </c>
+      <c r="D2078">
+        <v>4</v>
+      </c>
+      <c r="E2078">
+        <v>0</v>
+      </c>
+      <c r="F2078">
+        <v>52</v>
+      </c>
+      <c r="G2078" t="str">
+        <f t="shared" si="32"/>
+        <v>30/07/2024</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2079" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2079">
+        <v>20240730</v>
+      </c>
+      <c r="C2079">
+        <v>8</v>
+      </c>
+      <c r="D2079">
+        <v>7</v>
+      </c>
+      <c r="E2079">
+        <v>0</v>
+      </c>
+      <c r="F2079" s="1">
+        <v>48</v>
+      </c>
+      <c r="G2079" t="str">
+        <f t="shared" si="32"/>
+        <v>30/07/2024</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2080" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2080">
+        <v>20240803</v>
+      </c>
+      <c r="C2080">
+        <v>5</v>
+      </c>
+      <c r="D2080">
+        <v>5</v>
+      </c>
+      <c r="E2080">
+        <v>0</v>
+      </c>
+      <c r="F2080">
+        <v>40</v>
+      </c>
+      <c r="G2080" t="str">
+        <f t="shared" si="32"/>
+        <v>03/08/2024</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2081" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2081">
+        <v>20240801</v>
+      </c>
+      <c r="C2081">
+        <v>5</v>
+      </c>
+      <c r="D2081">
+        <v>5</v>
+      </c>
+      <c r="E2081">
+        <v>0</v>
+      </c>
+      <c r="F2081">
+        <v>38</v>
+      </c>
+      <c r="G2081" t="str">
+        <f t="shared" si="32"/>
+        <v>01/08/2024</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2082" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2082">
+        <v>20240729</v>
+      </c>
+      <c r="C2082">
+        <v>14</v>
+      </c>
+      <c r="D2082">
+        <v>14</v>
+      </c>
+      <c r="E2082">
+        <v>0</v>
+      </c>
+      <c r="F2082">
+        <v>36</v>
+      </c>
+      <c r="G2082" t="str">
+        <f t="shared" si="32"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2083" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2083">
+        <v>20240731</v>
+      </c>
+      <c r="C2083">
+        <v>5</v>
+      </c>
+      <c r="D2083">
+        <v>5</v>
+      </c>
+      <c r="E2083">
+        <v>0</v>
+      </c>
+      <c r="F2083">
+        <v>34</v>
+      </c>
+      <c r="G2083" t="str">
+        <f t="shared" si="32"/>
+        <v>31/07/2024</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2084" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2084">
+        <v>20240801</v>
+      </c>
+      <c r="C2084">
+        <v>17</v>
+      </c>
+      <c r="D2084">
+        <v>17</v>
+      </c>
+      <c r="E2084">
+        <v>0</v>
+      </c>
+      <c r="F2084" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2084" t="str">
+        <f t="shared" si="32"/>
+        <v>01/08/2024</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2085" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2085">
+        <v>20240802</v>
+      </c>
+      <c r="C2085">
+        <v>9</v>
+      </c>
+      <c r="D2085">
+        <v>9</v>
+      </c>
+      <c r="E2085">
+        <v>0</v>
+      </c>
+      <c r="F2085">
+        <v>29</v>
+      </c>
+      <c r="G2085" t="str">
+        <f t="shared" si="32"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2086" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2086">
+        <v>20240804</v>
+      </c>
+      <c r="C2086">
+        <v>29</v>
+      </c>
+      <c r="D2086">
+        <v>21</v>
+      </c>
+      <c r="E2086">
+        <v>1</v>
+      </c>
+      <c r="F2086" s="1">
+        <v>26</v>
+      </c>
+      <c r="G2086" t="str">
+        <f t="shared" si="32"/>
+        <v>04/08/2024</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2087" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2087">
+        <v>20240803</v>
+      </c>
+      <c r="C2087">
+        <v>14</v>
+      </c>
+      <c r="D2087">
+        <v>14</v>
+      </c>
+      <c r="E2087">
+        <v>2</v>
+      </c>
+      <c r="F2087" s="1">
+        <v>25</v>
+      </c>
+      <c r="G2087" t="str">
+        <f t="shared" si="32"/>
+        <v>03/08/2024</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2088" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2088">
+        <v>20240731</v>
+      </c>
+      <c r="C2088">
+        <v>22</v>
+      </c>
+      <c r="D2088">
+        <v>22</v>
+      </c>
+      <c r="E2088">
+        <v>1</v>
+      </c>
+      <c r="F2088" s="1">
+        <v>25</v>
+      </c>
+      <c r="G2088" t="str">
+        <f t="shared" si="32"/>
+        <v>31/07/2024</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2089" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2089">
+        <v>20240729</v>
+      </c>
+      <c r="C2089">
+        <v>8</v>
+      </c>
+      <c r="D2089">
+        <v>6</v>
+      </c>
+      <c r="E2089">
+        <v>0</v>
+      </c>
+      <c r="F2089">
+        <v>25</v>
+      </c>
+      <c r="G2089" t="str">
+        <f t="shared" si="32"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2090" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2090">
+        <v>20240730</v>
+      </c>
+      <c r="C2090">
+        <v>21</v>
+      </c>
+      <c r="D2090">
+        <v>15</v>
+      </c>
+      <c r="E2090">
+        <v>1</v>
+      </c>
+      <c r="F2090" s="1">
+        <v>24</v>
+      </c>
+      <c r="G2090" t="str">
+        <f t="shared" si="32"/>
+        <v>30/07/2024</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2091" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2091">
+        <v>20240804</v>
+      </c>
+      <c r="C2091">
+        <v>13</v>
+      </c>
+      <c r="D2091">
+        <v>10</v>
+      </c>
+      <c r="E2091">
+        <v>0</v>
+      </c>
+      <c r="F2091" s="1">
+        <v>23</v>
+      </c>
+      <c r="G2091" t="str">
+        <f t="shared" si="32"/>
+        <v>04/08/2024</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2092" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2092">
+        <v>20240729</v>
+      </c>
+      <c r="C2092">
+        <v>3</v>
+      </c>
+      <c r="D2092">
+        <v>3</v>
+      </c>
+      <c r="E2092">
+        <v>0</v>
+      </c>
+      <c r="F2092">
+        <v>22</v>
+      </c>
+      <c r="G2092" t="str">
+        <f t="shared" si="32"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2093" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2093">
+        <v>20240730</v>
+      </c>
+      <c r="C2093">
+        <v>2</v>
+      </c>
+      <c r="D2093">
+        <v>2</v>
+      </c>
+      <c r="E2093">
+        <v>0</v>
+      </c>
+      <c r="F2093">
+        <v>21</v>
+      </c>
+      <c r="G2093" t="str">
+        <f t="shared" si="32"/>
+        <v>30/07/2024</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2094" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2094">
+        <v>20240731</v>
+      </c>
+      <c r="C2094">
+        <v>2</v>
+      </c>
+      <c r="D2094">
+        <v>1</v>
+      </c>
+      <c r="E2094">
+        <v>0</v>
+      </c>
+      <c r="F2094">
+        <v>18</v>
+      </c>
+      <c r="G2094" t="str">
+        <f t="shared" si="32"/>
+        <v>31/07/2024</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2095" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2095">
+        <v>20240803</v>
+      </c>
+      <c r="C2095">
+        <v>7</v>
+      </c>
+      <c r="D2095">
+        <v>7</v>
+      </c>
+      <c r="E2095">
+        <v>0</v>
+      </c>
+      <c r="F2095" s="1">
+        <v>18</v>
+      </c>
+      <c r="G2095" t="str">
+        <f t="shared" si="32"/>
+        <v>03/08/2024</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2096" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2096">
+        <v>20240803</v>
+      </c>
+      <c r="C2096">
+        <v>3</v>
+      </c>
+      <c r="D2096">
+        <v>3</v>
+      </c>
+      <c r="E2096">
+        <v>0</v>
+      </c>
+      <c r="F2096" s="1">
+        <v>18</v>
+      </c>
+      <c r="G2096" t="str">
+        <f t="shared" si="32"/>
+        <v>03/08/2024</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2097" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2097">
+        <v>20240801</v>
+      </c>
+      <c r="C2097">
+        <v>11</v>
+      </c>
+      <c r="D2097">
+        <v>10</v>
+      </c>
+      <c r="E2097">
+        <v>0</v>
+      </c>
+      <c r="F2097" s="1">
+        <v>18</v>
+      </c>
+      <c r="G2097" t="str">
+        <f t="shared" si="32"/>
+        <v>01/08/2024</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2098" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2098">
+        <v>20240802</v>
+      </c>
+      <c r="C2098">
+        <v>4</v>
+      </c>
+      <c r="D2098">
+        <v>2</v>
+      </c>
+      <c r="E2098">
+        <v>0</v>
+      </c>
+      <c r="F2098">
+        <v>18</v>
+      </c>
+      <c r="G2098" t="str">
+        <f t="shared" si="32"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2099" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2099">
+        <v>20240802</v>
+      </c>
+      <c r="C2099">
+        <v>15</v>
+      </c>
+      <c r="D2099">
+        <v>11</v>
+      </c>
+      <c r="E2099">
+        <v>0</v>
+      </c>
+      <c r="F2099">
+        <v>16</v>
+      </c>
+      <c r="G2099" t="str">
+        <f t="shared" si="32"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2100">
+        <v>20240731</v>
+      </c>
+      <c r="C2100">
+        <v>6</v>
+      </c>
+      <c r="D2100">
+        <v>6</v>
+      </c>
+      <c r="E2100">
+        <v>0</v>
+      </c>
+      <c r="F2100" s="1">
+        <v>16</v>
+      </c>
+      <c r="G2100" t="str">
+        <f t="shared" si="32"/>
+        <v>31/07/2024</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2101">
+        <v>20240804</v>
+      </c>
+      <c r="C2101">
+        <v>7</v>
+      </c>
+      <c r="D2101">
+        <v>5</v>
+      </c>
+      <c r="E2101">
+        <v>0</v>
+      </c>
+      <c r="F2101" s="1">
+        <v>13</v>
+      </c>
+      <c r="G2101" t="str">
+        <f t="shared" si="32"/>
+        <v>04/08/2024</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2102" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2102">
+        <v>20240729</v>
+      </c>
+      <c r="C2102">
+        <v>1</v>
+      </c>
+      <c r="D2102">
+        <v>1</v>
+      </c>
+      <c r="E2102">
+        <v>0</v>
+      </c>
+      <c r="F2102">
+        <v>11</v>
+      </c>
+      <c r="G2102" t="str">
+        <f t="shared" si="32"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2103">
+        <v>20240802</v>
+      </c>
+      <c r="C2103">
+        <v>1</v>
+      </c>
+      <c r="D2103">
+        <v>1</v>
+      </c>
+      <c r="E2103">
+        <v>0</v>
+      </c>
+      <c r="F2103">
+        <v>10</v>
+      </c>
+      <c r="G2103" t="str">
+        <f t="shared" si="32"/>
+        <v>02/08/2024</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2104">
+        <v>20240730</v>
+      </c>
+      <c r="C2104">
+        <v>2</v>
+      </c>
+      <c r="D2104">
+        <v>2</v>
+      </c>
+      <c r="E2104">
+        <v>0</v>
+      </c>
+      <c r="F2104">
+        <v>10</v>
+      </c>
+      <c r="G2104" t="str">
+        <f t="shared" ref="G2104:G2113" si="33">_xlfn.CONCAT(RIGHT(B2104,2),"/",MID(B2104,5,2),"/",LEFT(B2104,4))</f>
+        <v>30/07/2024</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2105">
+        <v>20240804</v>
+      </c>
+      <c r="C2105">
+        <v>4</v>
+      </c>
+      <c r="D2105">
+        <v>4</v>
+      </c>
+      <c r="E2105">
+        <v>0</v>
+      </c>
+      <c r="F2105">
+        <v>9</v>
+      </c>
+      <c r="G2105" t="str">
+        <f t="shared" si="33"/>
+        <v>04/08/2024</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2106" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2106">
+        <v>20240801</v>
+      </c>
+      <c r="C2106">
+        <v>2</v>
+      </c>
+      <c r="D2106">
+        <v>2</v>
+      </c>
+      <c r="E2106">
+        <v>0</v>
+      </c>
+      <c r="F2106">
+        <v>9</v>
+      </c>
+      <c r="G2106" t="str">
+        <f t="shared" si="33"/>
+        <v>01/08/2024</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2107">
+        <v>20240731</v>
+      </c>
+      <c r="C2107">
+        <v>2</v>
+      </c>
+      <c r="D2107">
+        <v>2</v>
+      </c>
+      <c r="E2107">
+        <v>0</v>
+      </c>
+      <c r="F2107">
+        <v>8</v>
+      </c>
+      <c r="G2107" t="str">
+        <f t="shared" si="33"/>
+        <v>31/07/2024</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2108" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2108">
+        <v>20240803</v>
+      </c>
+      <c r="C2108">
+        <v>1</v>
+      </c>
+      <c r="D2108">
+        <v>1</v>
+      </c>
+      <c r="E2108">
+        <v>0</v>
+      </c>
+      <c r="F2108">
+        <v>7</v>
+      </c>
+      <c r="G2108" t="str">
+        <f t="shared" si="33"/>
+        <v>03/08/2024</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2109">
+        <v>20240801</v>
+      </c>
+      <c r="C2109">
+        <v>2</v>
+      </c>
+      <c r="D2109">
+        <v>2</v>
+      </c>
+      <c r="E2109">
+        <v>0</v>
+      </c>
+      <c r="F2109">
+        <v>7</v>
+      </c>
+      <c r="G2109" t="str">
+        <f t="shared" si="33"/>
+        <v>01/08/2024</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2110">
+        <v>20240803</v>
+      </c>
+      <c r="C2110">
+        <v>3</v>
+      </c>
+      <c r="D2110">
+        <v>3</v>
+      </c>
+      <c r="E2110">
+        <v>0</v>
+      </c>
+      <c r="F2110" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2110" t="str">
+        <f t="shared" si="33"/>
+        <v>03/08/2024</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2111">
+        <v>20240804</v>
+      </c>
+      <c r="C2111">
+        <v>3</v>
+      </c>
+      <c r="D2111">
+        <v>3</v>
+      </c>
+      <c r="E2111">
+        <v>0</v>
+      </c>
+      <c r="F2111">
+        <v>6</v>
+      </c>
+      <c r="G2111" t="str">
+        <f t="shared" si="33"/>
+        <v>04/08/2024</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2112">
+        <v>20240729</v>
+      </c>
+      <c r="C2112">
+        <v>5</v>
+      </c>
+      <c r="D2112">
+        <v>5</v>
+      </c>
+      <c r="E2112">
+        <v>0</v>
+      </c>
+      <c r="F2112">
+        <v>5</v>
+      </c>
+      <c r="G2112" t="str">
+        <f t="shared" si="33"/>
+        <v>29/07/2024</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2113" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2113">
+        <v>20240731</v>
+      </c>
+      <c r="C2113">
+        <v>1</v>
+      </c>
+      <c r="D2113">
+        <v>1</v>
+      </c>
+      <c r="E2113">
+        <v>0</v>
+      </c>
+      <c r="F2113">
+        <v>2</v>
+      </c>
+      <c r="G2113" t="str">
+        <f t="shared" si="33"/>
+        <v>31/07/2024</v>
       </c>
     </row>
   </sheetData>
